--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B6EC58-98A5-4F89-B78C-99B8A76E142C}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551E9690-C104-4654-9CB1-A28F40916C03}"/>
   <bookViews>
     <workbookView xWindow="14940" yWindow="-15420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
-    <sheet name="Oplossingen" sheetId="2" r:id="rId2"/>
-    <sheet name="Handelingen" sheetId="3" r:id="rId3"/>
+    <sheet name="Checks" sheetId="4" r:id="rId2"/>
+    <sheet name="Oplossingen" sheetId="2" r:id="rId3"/>
+    <sheet name="Handelingen" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Stemmingen worden niet automatisch getoond (MVI of op het RIS)</t>
   </si>
   <si>
-    <t>Stemmingsresultaten worden aan iBabs doorgegeven via de koppeling of later toegevoegd</t>
-  </si>
-  <si>
     <t>Stemmingen worden dan niet meer verwerkt, deze komen alleen in de notulen te staan</t>
   </si>
   <si>
@@ -201,9 +199,6 @@
   </si>
   <si>
     <t>Bestanden beheren van vergaderingen.pdf</t>
-  </si>
-  <si>
-    <t>Indien geen lege plek meer is, moet deelnemer om de beurt inloggen</t>
   </si>
   <si>
     <r>
@@ -279,15 +274,9 @@
     <t>Stemmmen via handen in de lucht en handmatig tellen</t>
   </si>
   <si>
-    <t>Als de audioopname draait dan kunnen de notulen later worden gemaakt (minimale eis)</t>
-  </si>
-  <si>
     <t>Eerst openbaar deel afmaken daarna besloten deel opstarten</t>
   </si>
   <si>
-    <t>Minimale eis is dat er een audiobestand van gemaakt wordt t.b.v. de notulen</t>
-  </si>
-  <si>
     <t>In Crestron, tab 'Opname', controleer of de opname draait</t>
   </si>
   <si>
@@ -513,15 +502,6 @@
     <t>Brandmelding.PNG</t>
   </si>
   <si>
-    <t>Volgens protocol: probleeem telefonisch melden aan team Multimedia</t>
-  </si>
-  <si>
-    <t>Wacht op terugkoppeling van MMT, overweeg pas daarna andere opties</t>
-  </si>
-  <si>
-    <t>Als er geen lege plek meer is, moet de deelnemer om de beurt inloggen</t>
-  </si>
-  <si>
     <t>Handmatige camerasturing</t>
   </si>
   <si>
@@ -534,9 +514,6 @@
     <t>Informeer de (cie)griffier dat er geen livestream zal zijn</t>
   </si>
   <si>
-    <t>Vergadering wordt niet via livestream uitgezonden. Let op: zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
-  </si>
-  <si>
     <t>Via MVI, richt de camera handmatig op de spreker</t>
   </si>
   <si>
@@ -546,9 +523,6 @@
     <t>Meld het probleem rechtreeks aan Jacot</t>
   </si>
   <si>
-    <t>Bel Jacot en meld het probleem</t>
-  </si>
-  <si>
     <t>Plotseling onstaan van een dreigende situatie</t>
   </si>
   <si>
@@ -568,9 +542,6 @@
   </si>
   <si>
     <t>MMT beldt Company Webcast en koppelt terug</t>
-  </si>
-  <si>
-    <t>Bel Company Webcast en meld het probleem, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
   </si>
   <si>
     <t>Controleer of een MVI opname wordt gemaakt: in MVI, tab 'Start', kijk of de camera zichtbaar is (zie hiernaast)</t>
@@ -602,12 +573,6 @@
     </r>
   </si>
   <si>
-    <t>Ziet er minder professioneel uit</t>
-  </si>
-  <si>
-    <t>Vereist aanwezigheid van MMT. Bij gebruik van een overzichtcamera: deze geeft alleen minimaal overzicht, geen close-up van de deelnemer als deze aan het woord is</t>
-  </si>
-  <si>
     <t xml:space="preserve">Via joystick de camera's richten op de spreker of </t>
   </si>
   <si>
@@ -627,6 +592,45 @@
   </si>
   <si>
     <t>Controleer op minimale eis: draait de audioopname in Crestron</t>
+  </si>
+  <si>
+    <t>Bel Team Multimedia</t>
+  </si>
+  <si>
+    <t>Let op: zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
+  </si>
+  <si>
+    <t>Indien MMT niet bereikbaar is dan bel jezelf Company Webcast</t>
+  </si>
+  <si>
+    <t>Bij gebruik van een overzichtcamera: deze geeft alleen minimaal overzicht, geen close-up van de deelnemer als deze aan het woord is</t>
+  </si>
+  <si>
+    <t>Bel team Multimedia</t>
+  </si>
+  <si>
+    <t>Indien MMT niet bereikbaar is dan bel je rechtstreeks Jacot</t>
+  </si>
+  <si>
+    <t>Indien MMT niet bereikbaar is dan bel Jacot zelf</t>
+  </si>
+  <si>
+    <t>Indien MMT niet bereikbaar is, beld het noodnunmer van Jacot en meld het probleem</t>
+  </si>
+  <si>
+    <t>Stemmingsresultaten worden later bijgewerkt door Company Webcast</t>
+  </si>
+  <si>
+    <t>Minimale eis is dat er een audiobestand van gemaakt wordt</t>
+  </si>
+  <si>
+    <t>Incident_ID</t>
+  </si>
+  <si>
+    <t>Is spreektijd aangezet</t>
+  </si>
+  <si>
+    <t>Check of spreektijd niet gepauzeerd is</t>
   </si>
 </sst>
 </file>
@@ -705,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -720,6 +724,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1047,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1169,11 +1174,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11D0D4-19BB-4242-94B6-6D4454AC0279}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,10 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,10 +1300,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,10 +1311,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,9 +1327,6 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1288,10 +1336,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,10 +1347,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,9 +1360,6 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1333,7 +1372,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,10 +1383,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,10 +1397,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,343 +1425,295 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1731,12 +1722,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1790,21 +1781,18 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1818,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1832,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1849,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1877,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1891,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1905,13 +1893,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1922,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1936,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1950,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1964,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1978,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1992,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2006,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2020,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2034,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2048,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2062,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -2073,10 +2061,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2104,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2146,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2160,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2174,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2216,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2244,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2258,10 +2246,10 @@
         <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,10 +2260,10 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,10 +2274,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2314,7 +2302,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2328,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2342,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -2353,10 +2341,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2370,13 +2358,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,7 +2375,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2401,7 +2389,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2415,7 +2403,7 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2429,7 +2417,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2443,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
@@ -2457,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
@@ -2471,7 +2459,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
         <v>26</v>
@@ -2485,7 +2473,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2499,7 +2487,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2513,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2527,7 +2515,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2541,7 +2529,7 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2555,7 +2543,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -2566,10 +2554,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2583,7 +2571,7 @@
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2611,7 +2599,7 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2625,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -2636,10 +2624,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2653,7 +2641,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2667,7 +2655,7 @@
         <v>23</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2681,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2695,13 +2683,13 @@
         <v>23</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,7 +2700,7 @@
         <v>23</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2726,7 +2714,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2740,7 +2728,7 @@
         <v>23</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2754,7 +2742,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2768,7 +2756,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2782,7 +2770,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2796,7 +2784,7 @@
         <v>23</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2810,7 +2798,7 @@
         <v>23</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -2824,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -2838,13 +2826,13 @@
         <v>24</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,13 +2843,13 @@
         <v>24</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2872,7 +2860,7 @@
         <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -2900,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,7 +2913,7 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -2956,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2973,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2984,7 +2972,7 @@
         <v>27</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2998,7 +2986,7 @@
         <v>27</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -3012,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3026,7 +3014,7 @@
         <v>28</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -3040,10 +3028,10 @@
         <v>29</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,10 +3042,10 @@
         <v>29</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,7 +3056,7 @@
         <v>30</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -3082,7 +3070,7 @@
         <v>31</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3096,7 +3084,7 @@
         <v>31</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3110,7 +3098,7 @@
         <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3124,7 +3112,7 @@
         <v>32</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -3138,7 +3126,7 @@
         <v>33</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3152,13 +3140,13 @@
         <v>34</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,7 +3157,7 @@
         <v>34</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3183,7 +3171,7 @@
         <v>34</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3197,7 +3185,7 @@
         <v>34</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3211,7 +3199,7 @@
         <v>34</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3225,7 +3213,7 @@
         <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3239,13 +3227,13 @@
         <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,7 +3244,7 @@
         <v>34</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3270,7 +3258,7 @@
         <v>34</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3284,13 +3272,13 @@
         <v>35</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E108" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,13 +3289,13 @@
         <v>36</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3318,10 +3306,10 @@
         <v>37</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551E9690-C104-4654-9CB1-A28F40916C03}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2278B569-7559-4268-965C-134F27FD1513}"/>
   <bookViews>
     <workbookView xWindow="14940" yWindow="-15420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -622,9 +622,6 @@
   </si>
   <si>
     <t>Minimale eis is dat er een audiobestand van gemaakt wordt</t>
-  </si>
-  <si>
-    <t>Incident_ID</t>
   </si>
   <si>
     <t>Is spreektijd aangezet</t>
@@ -709,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -724,7 +721,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1178,7 +1174,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,36 +1184,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2278B569-7559-4268-965C-134F27FD1513}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC28E1-90B1-4F38-B16A-9554C86B6B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="-15420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="630" windowWidth="20520" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -634,7 +634,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +736,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>751162</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752242</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>70725</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Inkt 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAF5F5E-36D8-7AE4-F115-D325BBB66DB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2194200" y="971280"/>
+            <a:ext cx="1080" cy="4320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Inkt 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAF5F5E-36D8-7AE4-F115-D325BBB66DB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2185560" y="962280"/>
+              <a:ext cx="18720" cy="21960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-06T19:20:41.070"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 0 24575,'0'5'0,"-2"1"0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,13 +1126,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1051,7 +1148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1059,7 +1156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1067,7 +1164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1075,7 +1172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1083,7 +1180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1091,7 +1188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1099,7 +1196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1107,7 +1204,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1115,7 +1212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1123,7 +1220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1131,7 +1228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1139,7 +1236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1147,7 +1244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1155,7 +1252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1177,13 +1274,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1205,7 +1302,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1218,24 +1315,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
-    <col min="4" max="4" width="106.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.73046875" customWidth="1"/>
+    <col min="4" max="4" width="106.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1260,455 +1358,441 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>141</v>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
       <c r="D20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1722,20 +1806,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="34.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1769,7 +1853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1783,7 +1867,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1794,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1808,7 +1895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1825,7 +1912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1839,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1853,7 +1940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1867,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1881,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1898,7 +1985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1912,7 +1999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1926,7 +2013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1940,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1954,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1968,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1982,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1996,7 +2083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2010,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2024,7 +2111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2038,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2052,7 +2139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2066,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2080,7 +2167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2094,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2108,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2122,7 +2209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2136,7 +2223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2150,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2164,7 +2251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2178,7 +2265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2192,7 +2279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2206,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2220,7 +2307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2234,7 +2321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2248,7 +2335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2262,7 +2349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2276,7 +2363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2290,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2304,7 +2391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2318,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2332,7 +2419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2346,7 +2433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2363,7 +2450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2377,7 +2464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2391,7 +2478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2405,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2419,7 +2506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2433,7 +2520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2447,7 +2534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2461,7 +2548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2475,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2489,7 +2576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2503,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2517,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2531,7 +2618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2545,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2559,7 +2646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2573,7 +2660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2587,7 +2674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2601,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2615,7 +2702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2629,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2643,7 +2730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2657,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2671,7 +2758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2688,7 +2775,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2702,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2716,7 +2803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2730,7 +2817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2744,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2758,7 +2845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2772,7 +2859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2786,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2800,7 +2887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2814,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2831,7 +2918,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2848,7 +2935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2862,7 +2949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2876,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2887,7 +2974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2901,7 +2988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2918,7 +3005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2932,7 +3019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2943,7 +3030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2960,7 +3047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2974,7 +3061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2988,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3002,7 +3089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3016,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3030,7 +3117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3044,7 +3131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3058,7 +3145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3072,7 +3159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3086,7 +3173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3100,7 +3187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3114,7 +3201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3128,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3145,7 +3232,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3159,7 +3246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3173,7 +3260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3187,7 +3274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3201,7 +3288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3215,7 +3302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3232,7 +3319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3246,7 +3333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3260,7 +3347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3277,7 +3364,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3294,7 +3381,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="28.5">
       <c r="A110">
         <v>109</v>
       </c>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC28E1-90B1-4F38-B16A-9554C86B6B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="630" windowWidth="20520" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -634,7 +634,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,103 +736,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>751162</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752242</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>70725</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="Inkt 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAF5F5E-36D8-7AE4-F115-D325BBB66DB3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2194200" y="971280"/>
-            <a:ext cx="1080" cy="4320"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Inkt 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAF5F5E-36D8-7AE4-F115-D325BBB66DB3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2185560" y="962280"/>
-              <a:ext cx="18720" cy="21960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-05-06T19:20:41.070"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 0 24575,'0'5'0,"-2"1"0</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,13 +1029,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1148,7 +1051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1156,7 +1059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1164,7 +1067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1172,7 +1075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1180,7 +1083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1188,7 +1091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1196,7 +1099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1204,7 +1107,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1212,7 +1115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1220,7 +1123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1228,7 +1131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1236,7 +1139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1244,7 +1147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1252,7 +1155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1270,17 +1173,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11D0D4-19BB-4242-94B6-6D4454AC0279}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1302,7 +1205,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1315,25 +1218,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.73046875" customWidth="1"/>
-    <col min="4" max="4" width="106.1328125" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="4" max="4" width="106.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1358,441 +1260,455 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>5</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>8</v>
-      </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>160</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>13</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>14</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>15</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>41</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>17</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>20</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>167</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>25</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>26</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>28</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>29</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>11</v>
       </c>
       <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>32</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>33</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
         <v>123</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>130</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>134</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>15</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1806,20 +1722,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1853,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1867,10 +1783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1881,7 +1794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1895,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1912,7 +1825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1926,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1940,7 +1853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1954,7 +1867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1968,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1985,7 +1898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1999,7 +1912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2013,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2027,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2041,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2055,7 +1968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2069,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2083,7 +1996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2097,7 +2010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2111,7 +2024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2125,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2139,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2153,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2167,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2181,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2195,7 +2108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2209,7 +2122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2223,7 +2136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2237,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2251,7 +2164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2265,7 +2178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2279,7 +2192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2293,7 +2206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2307,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2321,7 +2234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2335,7 +2248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2349,7 +2262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2363,7 +2276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2377,7 +2290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2391,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2405,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2419,7 +2332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2433,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2450,7 +2363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2458,41 +2371,41 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2506,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2520,7 +2433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2534,7 +2447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2548,7 +2461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2562,7 +2475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2576,7 +2489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2590,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2604,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2618,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2632,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2646,7 +2559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2660,7 +2573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2674,7 +2587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2688,7 +2601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2702,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2716,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2730,7 +2643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2744,7 +2657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2758,7 +2671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2775,7 +2688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2789,7 +2702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2803,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2817,7 +2730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2831,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2845,7 +2758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2859,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2873,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2887,7 +2800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2901,7 +2814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2918,7 +2831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2935,7 +2848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2949,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2963,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2974,7 +2887,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2988,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3005,7 +2918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3019,7 +2932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3030,7 +2943,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3047,7 +2960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3061,7 +2974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3075,7 +2988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3089,7 +3002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3103,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3117,7 +3030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3131,7 +3044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3145,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3159,7 +3072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3173,7 +3086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3187,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3201,7 +3114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3215,7 +3128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3232,7 +3145,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3246,7 +3159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3260,7 +3173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3274,7 +3187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3288,7 +3201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3302,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3319,7 +3232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3333,7 +3246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3347,7 +3260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3364,7 +3277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3381,7 +3294,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="28.5">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F383E342-2F74-4A94-9771-B7515324AF5B}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -1223,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,191 +1262,191 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>141</v>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>172</v>
@@ -1454,261 +1454,247 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1723,7 +1709,7 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A110"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,6 +1770,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F383E342-2F74-4A94-9771-B7515324AF5B}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E481F1-1A8B-4504-8A9A-1C44AAD570DB}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -114,49 +114,19 @@
     <t>Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)</t>
   </si>
   <si>
-    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). De twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten, anders worden ze niet goed in beeld gebracht</t>
-  </si>
-  <si>
-    <t>Er zijn twee handmicrofoons in de zaal. Pak deze uit de doos en doe de microfoons aan (knopje aan de onderkant)</t>
-  </si>
-  <si>
-    <t>Via Crestron, tab 'Audio in' unmute de twee microfoon: Microfoon 1 en Microfoon 2</t>
-  </si>
-  <si>
     <t>MMT/Secretaris</t>
   </si>
   <si>
     <t>Secretaris/Bodes</t>
   </si>
   <si>
-    <t>Unmute de ambiancemicrofoons via Crestron via tab 'Audio in': Ambiance Mic</t>
-  </si>
-  <si>
-    <t>Laat de deelnemers harder praten. Let op: alles wat achterin gezegd wordt, wordt dan uitgezonden</t>
-  </si>
-  <si>
     <t>MVI systeem valt uit</t>
   </si>
   <si>
-    <t>Check of het stemmingsbestand 'MVI-computer bestand Vote_&lt;Ddatum&gt;_&lt;tijdstip&gt;’ in MVI klopt met de huidige stemresultaten</t>
-  </si>
-  <si>
-    <t>Stemmingen worden niet automatisch getoond (MVI of op het RIS)</t>
-  </si>
-  <si>
     <t>Stemmingen worden dan niet meer verwerkt, deze komen alleen in de notulen te staan</t>
   </si>
   <si>
-    <t>In het stemvenster laat deelnemers de hand opsteken om voor en tegen te stemmen</t>
-  </si>
-  <si>
     <t>Tel het aantal voor- en tegenstemmen</t>
-  </si>
-  <si>
-    <t>Voorzitter zegt hardop wie voor en tegen was</t>
-  </si>
-  <si>
-    <t>De afspraak is dat de stemmingen niet worden verwerkt, deze worden wel in de notulen opgenomen</t>
   </si>
   <si>
     <t>Griffier</t>
@@ -253,42 +223,21 @@
     <t xml:space="preserve">Controleer MVI opname: in MVI, tab 'Start', kijk of de camerera zichtbaar is </t>
   </si>
   <si>
-    <t>In MVI, tabblad 'Camera' de pijlen gebruiken om de camera zo te positioneren dat de deelnemer goed zichtbaar is</t>
-  </si>
-  <si>
-    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). Houd rekening mee dat de twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten</t>
-  </si>
-  <si>
-    <t>Als het goed is, is MultiTimer op je laptop geïnstalleerd en is het ingericht voor de fracties.</t>
-  </si>
-  <si>
     <t>Handleiding MultiTimer.pdf</t>
   </si>
   <si>
     <t>Controleer of de ingestelde tijd klopt, indien niet wijzig het volgens de handleiding</t>
   </si>
   <si>
-    <t>Houd de tijd in per fractie via MultiTimer en geeft dit door aan de (cie) griffier via de app</t>
-  </si>
-  <si>
     <t>Stemmmen via handen in de lucht en handmatig tellen</t>
   </si>
   <si>
     <t>Eerst openbaar deel afmaken daarna besloten deel opstarten</t>
   </si>
   <si>
-    <t>In Crestron, tab 'Opname', controleer of de opname draait</t>
-  </si>
-  <si>
-    <t>Draait de opname nog niet, druk dan in hetzelfe tab op de knop 'Start opname in Audiovisueel-recorder (audio opname start dan ook automatisch)</t>
-  </si>
-  <si>
     <t>Vraag voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
   </si>
   <si>
-    <t>Controleer of de microfoonposten nog werken, zodat mensen zich verstandbaar kunnen maken</t>
-  </si>
-  <si>
     <t>In overleg met de (cie)griffier, eerst het openbaar deel afmaken dan de vergadering via MVI afsluiten</t>
   </si>
   <si>
@@ -331,9 +280,6 @@
     <t>Er wordt geen opname gemaakt (in MVI, tab 'Start' is recorder niet zichtbaar)</t>
   </si>
   <si>
-    <t xml:space="preserve">Via iBabs, publiek informeren dat er in aagepaste vorm vergaderd wordt </t>
-  </si>
-  <si>
     <t>Geen synchronisatie met iBabs mogelijk, de knop 'Sync met iBabs' geeft een foutmelding</t>
   </si>
   <si>
@@ -346,45 +292,12 @@
     <t>Let op: er wordt in dit geval geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
   </si>
   <si>
-    <t>Op de MVI-PC in map Bureaublad/Excel/Sjablonen de sjablonen voor alle agendatypes</t>
-  </si>
-  <si>
-    <t>Kopieer het juiste sjabloon naar de map Bureaublad/Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hernoem het desnoods naar een betere naam en open het </t>
-  </si>
-  <si>
-    <t>Verwerk het volgens de handleiding, de sjablonen bevatten al extra agendapunten aangezien na het inladen geen extra agendapunten kunnen worden toegevoegd</t>
-  </si>
-  <si>
-    <t>LET OP: Tijdens de vergadering is het niet mogelijk het excel bestand te verwerken</t>
-  </si>
-  <si>
     <t>Excel bestand bewerken-V1.pdf</t>
   </si>
   <si>
-    <t>Ga in MVI naar tab ‘Start’ klik vervolgens onderaan op ‘Excel laden'</t>
-  </si>
-  <si>
-    <t>Kies het zojuist bewerkte Excel bestand om het in MVI te laden</t>
-  </si>
-  <si>
     <t>Ga verder met het voorbereiden van de vergadering in MVI</t>
   </si>
   <si>
-    <t>Bel CwC en vraag ze de stream handmatig te sarten via Online Manager. Team Informatiemanagement kan dit eventueel ook doen</t>
-  </si>
-  <si>
-    <t>Na de vergadering: ga op de MVI computer naar de map ‘MVI opname’ en zoek naar het tekstbestand met &lt;datum_tijdstip&gt;. Het bestand bevat de sprekersmarkering van de vergadering</t>
-  </si>
-  <si>
-    <t>Na de vergadering: verstuur het bestand naar CwC. Geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
-  </si>
-  <si>
-    <t>Na de vergadering:  bel Jacot met de vraag of ze de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
-  </si>
-  <si>
     <t>Agendawijzigingen rechstreeks in MVI aanbrengen</t>
   </si>
   <si>
@@ -502,27 +415,18 @@
     <t>Brandmelding.PNG</t>
   </si>
   <si>
-    <t>Handmatige camerasturing</t>
-  </si>
-  <si>
     <t>Indien meerdere microfoonposten defect zijn, is er iemand nodig om de microfoons langs te brengen</t>
   </si>
   <si>
     <t>Controleer of de stemmingsbestand in MVI klopt met de stemresultaten</t>
   </si>
   <si>
-    <t>Informeer de (cie)griffier dat er geen livestream zal zijn</t>
-  </si>
-  <si>
     <t>Via MVI, richt de camera handmatig op de spreker</t>
   </si>
   <si>
     <t>Na de vergadering: haal de opname (video/audio) via de MVI-computer op en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
   </si>
   <si>
-    <t>Meld het probleem rechtreeks aan Jacot</t>
-  </si>
-  <si>
     <t>Plotseling onstaan van een dreigende situatie</t>
   </si>
   <si>
@@ -541,25 +445,61 @@
     <t>Meld het probleem via de Wahtsapp-groep 'Incidenten RZ/SG/IPTV' zodat het probleem achter de schermen wordt opgepakt</t>
   </si>
   <si>
-    <t>MMT beldt Company Webcast en koppelt terug</t>
-  </si>
-  <si>
-    <t>Controleer of een MVI opname wordt gemaakt: in MVI, tab 'Start', kijk of de camera zichtbaar is (zie hiernaast)</t>
-  </si>
-  <si>
-    <t>Indien de camera niet zichtbaar is, ga in Crestron naar de tab 'Opname' en klik op 'Start opname in Audiovisueel-recorder' (de audio-opname start dan automatisch)</t>
-  </si>
-  <si>
+    <t>Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)</t>
+  </si>
+  <si>
+    <t>Let op: alles achter in de zaal is hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
+  </si>
+  <si>
+    <t>Controleer op minimale eis: draait de audioopname in Crestron</t>
+  </si>
+  <si>
+    <t>Bel Team Multimedia</t>
+  </si>
+  <si>
+    <t>Let op: zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
+  </si>
+  <si>
+    <t>Bij gebruik van een overzichtcamera: deze geeft alleen minimaal overzicht, geen close-up van de deelnemer als deze aan het woord is</t>
+  </si>
+  <si>
+    <t>Bel team Multimedia</t>
+  </si>
+  <si>
+    <t>Stemmingsresultaten worden later bijgewerkt door Company Webcast</t>
+  </si>
+  <si>
+    <t>Minimale eis is dat er een audiobestand van gemaakt wordt</t>
+  </si>
+  <si>
+    <t>Is spreektijd aangezet</t>
+  </si>
+  <si>
+    <t>Check of spreektijd niet gepauzeerd is</t>
+  </si>
+  <si>
+    <t>MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is, bel dan zelf Company Webcast en geef de aard van het incident, commissienaam en de zaal door</t>
+  </si>
+  <si>
+    <t>Informeer de (commissie)griffier dat er geen livestream zal zijn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Controleer of een MVI-opname wordt gemaakt: open in MVI de tab </t>
+    </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Na de vergadering</t>
+      <t>‘Start’</t>
     </r>
     <r>
       <rPr>
@@ -569,72 +509,202 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Verstuurt het video/audio bestand naar Company Webcast, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
+      <t xml:space="preserve"> en controleer of de camera zichtbaar is (zie afbeelding onder deze stap)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Via joystick de camera's richten op de spreker of </t>
-  </si>
-  <si>
-    <t>De overzichtcamera de hele zaal tonen</t>
-  </si>
-  <si>
-    <t>Als beide microfoons nodig zijn, geef dan terwijl een spreker met een microfoon praat de andere microfoon alvast aan de volgende spreker</t>
-  </si>
-  <si>
-    <t>In situaties waarbij alleen de microfoon van de discussiepost defect is, gebruik de discussiepost dan alsnog in combinatie met een handmicrofoon</t>
-  </si>
-  <si>
-    <t>Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)</t>
-  </si>
-  <si>
-    <t>Let op: alles achter in de zaal is hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
-  </si>
-  <si>
-    <t>Controleer op minimale eis: draait de audioopname in Crestron</t>
-  </si>
-  <si>
-    <t>Bel Team Multimedia</t>
-  </si>
-  <si>
-    <t>Let op: zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
-  </si>
-  <si>
-    <t>Indien MMT niet bereikbaar is dan bel jezelf Company Webcast</t>
-  </si>
-  <si>
-    <t>Bij gebruik van een overzichtcamera: deze geeft alleen minimaal overzicht, geen close-up van de deelnemer als deze aan het woord is</t>
-  </si>
-  <si>
-    <t>Bel team Multimedia</t>
-  </si>
-  <si>
-    <t>Indien MMT niet bereikbaar is dan bel je rechtstreeks Jacot</t>
-  </si>
-  <si>
-    <t>Indien MMT niet bereikbaar is dan bel Jacot zelf</t>
-  </si>
-  <si>
-    <t>Indien MMT niet bereikbaar is, beld het noodnunmer van Jacot en meld het probleem</t>
-  </si>
-  <si>
-    <t>Stemmingsresultaten worden later bijgewerkt door Company Webcast</t>
-  </si>
-  <si>
-    <t>Minimale eis is dat er een audiobestand van gemaakt wordt</t>
-  </si>
-  <si>
-    <t>Is spreektijd aangezet</t>
-  </si>
-  <si>
-    <t>Check of spreektijd niet gepauzeerd is</t>
+    <r>
+      <t xml:space="preserve">Indien de camera niet zichtbaar is, ga in Crestron naar de tab </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘Opname’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en klik op </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘Start opname in Audiovisueel-recorder’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. De audio-opname start dan automatisch</t>
+    </r>
+  </si>
+  <si>
+    <t>Vraag aan Jacot of de audio-opname (TASCAM) loopt</t>
+  </si>
+  <si>
+    <t>Via iBabs: informeer het publiek dat de webcast later wordt geplaatst</t>
+  </si>
+  <si>
+    <t>Na de vergadering: haal de opname (video/audio) van de MVI-computer en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
+  </si>
+  <si>
+    <t>Na de vergadering: als het video- of audiobestand niet compleet is, vraag dan het volledige bestand op bij Jacot</t>
+  </si>
+  <si>
+    <t>Na de vergadering: verstuur het video-/audiobestand naar Company Webcast. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte</t>
+  </si>
+  <si>
+    <t>Handmatige camerasturing of overzichtcamera</t>
+  </si>
+  <si>
+    <t>In MVI, tabblad ‘Camera’, gebruik de pijltjes om de camera zo te positioneren dat de deelnemer goed zichtbaar is</t>
+  </si>
+  <si>
+    <t>Meld het probleem via de WhatsApp-groep ‘Incidenten RZ/SG/IPTV’ zodat het achter de schermen kan worden opgepakt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meld het probleem via de WhatsApp-groep </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘Incidenten RZ/SG/IPTV’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, zodat het achter de schermen kan worden opgepakt</t>
+    </r>
+  </si>
+  <si>
+    <t>Gebruik de joystick om de camera’s op de spreker te richten</t>
+  </si>
+  <si>
+    <t>Toon via de overzichtcamera de hele zaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via iBabs: informeer het publiek dat er in aagepaste vorm vergaderd wordt </t>
+  </si>
+  <si>
+    <t>Verhuis de deelnemer naar een andere plaats in de zaal (bijvoorbeeld lege plek, katheder of plek van de wethouder). Let op: de twee plekken rechtsachter in de raadzaal zijn ingesteld voor sprekers die zittend praten</t>
+  </si>
+  <si>
+    <t>MMT neemt contact op met Jacot en koppelt terug aan de secretaris</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is, bel dan zelf Jacot en geef de aard van het incident, commissienaam en de zaal door</t>
+  </si>
+  <si>
+    <t>Pak de twee handmicrofoons uit de doos en zet ze aan (schakelaartje onderop)</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad ‘Audio in’, zet Microfoon 1 en Microfoon 2 aan (unmute)</t>
+  </si>
+  <si>
+    <t>Als beide microfoons nodig zijn, geef alvast de tweede microfoon door aan de volgende spreker</t>
+  </si>
+  <si>
+    <t>In situaties waarbij alleen de microfoon van de discussiepost defect is, gebruik dan de handmicrofoon erbij</t>
+  </si>
+  <si>
+    <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': Ambiance Mic</t>
+  </si>
+  <si>
+    <t>Laat de deelnemers harder praten. Let op: alles wat achterin gezegd wordt, is hoorbaar in de uitzending</t>
+  </si>
+  <si>
+    <t>Controleer of het stemmingsbestand ‘MVI-computer Vote_&lt;datum&gt;_&lt;tijdstip&gt;’ klopt met de actuele stemresultaten</t>
+  </si>
+  <si>
+    <t>Laat deelnemers in het stemvenster de hand opsteken om voor of tegen te stemmen</t>
+  </si>
+  <si>
+    <t>Voorzitter zegt hardop welke paartij voor en welke partij tegen was</t>
+  </si>
+  <si>
+    <t>De afspraak is dat de stemmingen niet worden verwerkt, deze worden enkel in de notulen opgenomen</t>
+  </si>
+  <si>
+    <t>De spreektijd wordt handmatig bijgehouden via MultiTimer. Deze is al op je laptop geïnstalleerd en is het ingericht voor de fracties volgens de handleiding</t>
+  </si>
+  <si>
+    <t>Controleer of de microfoonposten werken zodat mensen goed verstaanbaar zijn</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad ‘Opname’, controleer of de opname draait</t>
+  </si>
+  <si>
+    <t>Houd per fractie de spreektijd bij met MultiTimer en geef deze door aan de (cie)griffier via Whatsapp</t>
+  </si>
+  <si>
+    <t>Draait de opname niet, druk dan op ‘Start opname in Audiovisueel-recorder’ (de audio-opname start automatisch)</t>
+  </si>
+  <si>
+    <t>Verwerk het bestand volgens de handleiding. Let op: tijdens de vergadering kun je het bestand niet aanpassen daarom bevat het sjabloon al extra agendapunten zodat je deze eventueel via MVI kunt aanpassen</t>
+  </si>
+  <si>
+    <t>In MVI, tabblad ‘Start’, klik onderaan op ‘Excel laden’ en selecteer het bewerkte bestand</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en vraag of zij de stream handmatig kunnen starten via Online Manager (ook Team Informatiemanagement kan dit doen)</t>
+  </si>
+  <si>
+    <t>Na de vergadering:  bel Jacot en vraag of zij de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
+  </si>
+  <si>
+    <t>Na de vergadering: verstuur het bestand naar Company Webcast zodat ze de sprekersindexatie achteraf kunnen regelen. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte</t>
+  </si>
+  <si>
+    <t>Stemmingen worden niet automatisch getoond op het RIS</t>
+  </si>
+  <si>
+    <t>Op de MVI-PC, Bureaublad, map 'Excel' kies het juiste agendatypesjabloon:  Sjabloon &lt;agendatype&gt;.xls</t>
+  </si>
+  <si>
+    <t>Maak een kopie van het sjabloonin dezelfde map en hernoem het voeg een datum aan toe. Bijvoorbeeld: Sjabloon Commissie BWB 20250509.xls</t>
+  </si>
+  <si>
+    <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +739,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bolder"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1026,7 +1104,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1182,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1252,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,10 +1371,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,384 +1396,373 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>141</v>
+      <c r="C12" t="s">
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1706,16 +1773,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="197.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
@@ -1749,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1763,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1777,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1791,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1805,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1822,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1836,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1850,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1864,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1878,13 +1945,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,22 +1961,22 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
+      <c r="C12" t="s">
+        <v>139</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>155</v>
+      <c r="C13" t="s">
+        <v>140</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1922,8 +1989,8 @@
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
+      <c r="C14" t="s">
+        <v>142</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1937,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1950,8 +2017,8 @@
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>156</v>
+      <c r="C16" t="s">
+        <v>145</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1965,7 +2032,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1979,21 +2046,21 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
+      <c r="C19" t="s">
+        <v>148</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2007,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2021,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2035,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -2049,21 +2116,21 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
+      <c r="C24" t="s">
+        <v>148</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2077,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2090,8 +2157,8 @@
       <c r="B26">
         <v>11</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
+      <c r="C26" t="s">
+        <v>151</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2104,11 +2171,11 @@
       <c r="B27">
         <v>11</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
+      <c r="C27" t="s">
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,10 +2186,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2147,7 +2214,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2161,10 +2228,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,10 +2242,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2202,8 +2269,8 @@
       <c r="B34">
         <v>13</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>31</v>
+      <c r="C34" t="s">
+        <v>157</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2217,7 +2284,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2230,11 +2297,11 @@
       <c r="B36">
         <v>14</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>34</v>
+      <c r="C36" t="s">
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,10 +2312,10 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,10 +2326,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2273,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2287,7 +2354,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2301,7 +2368,7 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2315,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -2329,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2343,13 +2410,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,7 +2427,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2374,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2388,7 +2455,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2401,8 +2468,8 @@
       <c r="B48">
         <v>16</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>67</v>
+      <c r="C48" t="s">
+        <v>162</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2415,11 +2482,11 @@
       <c r="B49">
         <v>16</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>64</v>
+      <c r="C49" t="s">
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,11 +2496,11 @@
       <c r="B50">
         <v>16</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>65</v>
+      <c r="C50" t="s">
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,11 +2510,11 @@
       <c r="B51">
         <v>16</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>66</v>
+      <c r="C51" t="s">
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2472,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2486,7 +2553,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2500,7 +2567,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2511,10 +2578,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2527,11 +2594,11 @@
       <c r="B57">
         <v>18</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>75</v>
+      <c r="C57" t="s">
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,11 +2608,11 @@
       <c r="B58">
         <v>18</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>170</v>
+      <c r="C58" t="s">
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2620,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,10 +2637,10 @@
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2648,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>21</v>
-      </c>
-      <c r="C61" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,11 +2664,11 @@
       <c r="B62">
         <v>21</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>75</v>
+      <c r="C62" t="s">
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,11 +2678,11 @@
       <c r="B63">
         <v>21</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>170</v>
+      <c r="C63" t="s">
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,10 +2690,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>23</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>87</v>
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2639,8 +2706,8 @@
       <c r="B65">
         <v>23</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>88</v>
+      <c r="C65" t="s">
+        <v>172</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2653,8 +2720,8 @@
       <c r="B66">
         <v>23</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>89</v>
+      <c r="C66" t="s">
+        <v>173</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2667,14 +2734,14 @@
       <c r="B67">
         <v>23</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>90</v>
+      <c r="C67" t="s">
+        <v>166</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,8 +2751,8 @@
       <c r="B68">
         <v>23</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>91</v>
+      <c r="C68" t="s">
+        <v>167</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2699,7 +2766,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2712,8 +2779,8 @@
       <c r="B70">
         <v>23</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>94</v>
+      <c r="C70" t="s">
+        <v>168</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2727,7 +2794,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2741,7 +2808,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2755,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2766,10 +2833,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2780,13 +2847,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2797,10 +2867,13 @@
         <v>24</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,16 +2881,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>24</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>103</v>
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2825,16 +2895,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>24</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2842,13 +2909,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2856,13 +2920,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2870,10 +2934,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,10 +2954,10 @@
         <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,27 +2968,24 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>27</v>
       </c>
-      <c r="C84" t="s">
-        <v>16</v>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,11 +2995,14 @@
       <c r="B85">
         <v>27</v>
       </c>
-      <c r="C85" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2940,13 +3010,10 @@
         <v>27</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,10 +3021,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>27</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2968,13 +3035,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>27</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,13 +3049,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>28</v>
-      </c>
-      <c r="C89" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,13 +3063,13 @@
         <v>89</v>
       </c>
       <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" t="s">
         <v>28</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,13 +3077,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,13 +3091,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,13 +3105,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,10 +3119,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>31</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>117</v>
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3066,13 +3133,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,10 +3147,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>32</v>
-      </c>
-      <c r="C96" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3094,13 +3161,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,10 +3178,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3125,13 +3195,10 @@
         <v>34</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,7 +3209,7 @@
         <v>34</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3156,7 +3223,7 @@
         <v>34</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3169,8 +3236,8 @@
       <c r="B102">
         <v>34</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>128</v>
+      <c r="C102" t="s">
+        <v>44</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3183,11 +3250,14 @@
       <c r="B103">
         <v>34</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>129</v>
+      <c r="C103" t="s">
+        <v>113</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3197,8 +3267,8 @@
       <c r="B104">
         <v>34</v>
       </c>
-      <c r="C104" t="s">
-        <v>54</v>
+      <c r="C104" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3211,14 +3281,11 @@
       <c r="B105">
         <v>34</v>
       </c>
-      <c r="C105" t="s">
-        <v>144</v>
+      <c r="C105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,13 +3293,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>104</v>
+      </c>
+      <c r="E106" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,61 +3310,30 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>36</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>37</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E481F1-1A8B-4504-8A9A-1C44AAD570DB}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09FC923B-DBFC-49DA-968E-53996B267AB9}"/>
   <bookViews>
     <workbookView xWindow="14040" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Informeer (cie)griffier dat er geen livestream zal zijn</t>
-  </si>
-  <si>
-    <t>Meld het probleem rechtreeks aan Company Webcast</t>
   </si>
   <si>
     <t>AfbeeldingBestand</t>
@@ -301,16 +298,10 @@
     <t>Agendawijzigingen rechstreeks in MVI aanbrengen</t>
   </si>
   <si>
-    <t>Gewijzigde agendapunten zijn zichtbaar in de stream, maar er kunnen in MVI geen agendapunten worden toegevoegd of verwijderd</t>
-  </si>
-  <si>
     <t>Ga in MVI naar tab 'Agenda' en breng rechtstreeks in MVI de nodig aanpassingen aan.</t>
   </si>
   <si>
     <t>Gaat het om een agendapunt: dubbelklik op de tekst, er verschijnt een klein venster waar je de tekst kunt aanpassen</t>
-  </si>
-  <si>
-    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster en klik op het plusje en voeg de motie toe</t>
   </si>
   <si>
     <t>NOG TE CONTROLEREN WAT WORDT DOORGEGEVEN AAN IBABS NA EEN HADMATIGE AANPASSING IN MVI)</t>
@@ -698,6 +689,12 @@
   </si>
   <si>
     <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Het is niet mogelijk om agendapunten te verwijderen of toevoegen, agendapuntwijzigingen zijn wel mogelijk en deze worden zichtbaar op de streaming</t>
+  </si>
+  <si>
+    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg de motie toe</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1101,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,10 +1429,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,10 +1443,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,10 +1457,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,10 +1482,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,10 +1496,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,10 +1535,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,10 +1549,10 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,10 +1563,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,10 +1577,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,60 +1591,60 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>79</v>
@@ -1655,114 +1652,100 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1775,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,10 +1785,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1830,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1844,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1858,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1872,13 +1855,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1903,10 +1886,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1931,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1945,13 +1928,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1976,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1990,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -2004,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2018,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -2032,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2046,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2060,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2074,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2088,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2102,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -2116,7 +2099,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2130,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2144,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2158,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2172,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2186,10 +2169,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2200,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2214,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2228,10 +2211,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2242,10 +2225,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2270,7 +2253,7 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2284,7 +2267,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2298,10 +2281,10 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2312,10 +2295,10 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2354,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2368,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2382,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -2396,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2410,13 +2393,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,7 +2410,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2441,7 +2424,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2455,7 +2438,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2469,7 +2452,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2483,10 +2466,10 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,10 +2480,10 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,10 +2494,10 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,7 +2508,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2539,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2553,7 +2536,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2567,7 +2550,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2581,7 +2564,7 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2595,7 +2578,7 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2609,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2623,7 +2606,7 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2637,10 +2620,10 @@
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,10 +2634,10 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2679,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2693,7 +2676,7 @@
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2707,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2721,7 +2704,7 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2735,13 +2718,13 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2752,7 +2735,7 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2766,7 +2749,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2780,7 +2763,7 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2794,7 +2777,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2808,7 +2791,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2822,7 +2805,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2836,7 +2819,7 @@
         <v>24</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2850,13 +2833,13 @@
         <v>24</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,13 +2850,13 @@
         <v>24</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2884,7 +2867,7 @@
         <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2912,7 +2895,7 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,13 +2920,13 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,10 +2937,10 @@
         <v>27</v>
       </c>
       <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
         <v>16</v>
-      </c>
-      <c r="D82" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,7 +2951,7 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,13 +2962,13 @@
         <v>27</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,7 +2979,7 @@
         <v>27</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -3010,7 +2993,7 @@
         <v>27</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -3024,7 +3007,7 @@
         <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -3038,7 +3021,7 @@
         <v>28</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3052,10 +3035,10 @@
         <v>29</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3066,10 +3049,10 @@
         <v>29</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,7 +3063,7 @@
         <v>30</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -3094,7 +3077,7 @@
         <v>31</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3108,7 +3091,7 @@
         <v>31</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3122,7 +3105,7 @@
         <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3136,7 +3119,7 @@
         <v>32</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -3150,7 +3133,7 @@
         <v>33</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3164,13 +3147,13 @@
         <v>34</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3181,7 +3164,7 @@
         <v>34</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3195,7 +3178,7 @@
         <v>34</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3209,7 +3192,7 @@
         <v>34</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3223,7 +3206,7 @@
         <v>34</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3237,7 +3220,7 @@
         <v>34</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3251,13 +3234,13 @@
         <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,7 +3251,7 @@
         <v>34</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3282,7 +3265,7 @@
         <v>34</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3296,13 +3279,13 @@
         <v>35</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,13 +3296,13 @@
         <v>36</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3330,10 +3313,10 @@
         <v>37</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="14_{C84AACFC-2CC5-405F-9890-1DC709009800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09FC923B-DBFC-49DA-968E-53996B267AB9}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{2D4FEAD0-F11B-479F-8C5D-05197507FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1ADEE47-C621-4A37-87E7-555838D32510}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15825" yWindow="-14505" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Spreektijd via MultiTimer</t>
   </si>
   <si>
-    <t>Vereist een laptop waar MultiTimer is geïntalleerd, handmatig comminicatie over spreektijd</t>
-  </si>
-  <si>
     <t>Vergadering is gestart maar er is geen livestream op het RIS</t>
   </si>
   <si>
@@ -259,12 +256,6 @@
     <t>MMT neemt contact op met Jacot en koppelt terug</t>
   </si>
   <si>
-    <t>Meld probleem rechtsreeks aan Jacot</t>
-  </si>
-  <si>
-    <t>Alleen wanneer MMT niet beschikbaar is</t>
-  </si>
-  <si>
     <t>Beld het noodnunmer van Jacot en meld het probleem</t>
   </si>
   <si>
@@ -437,9 +428,6 @@
   </si>
   <si>
     <t>Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)</t>
-  </si>
-  <si>
-    <t>Let op: alles achter in de zaal is hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
   </si>
   <si>
     <t>Controleer op minimale eis: draait de audioopname in Crestron</t>
@@ -695,6 +683,12 @@
   </si>
   <si>
     <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg de motie toe</t>
+  </si>
+  <si>
+    <t>Let op: achter in de zaal is alles hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
+  </si>
+  <si>
+    <t>Vereist een laptop waarop MultiTimer is geïntalleerd, vereist handmatig comminicatie over spreektijd</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1181,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1298,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,12 +1326,12 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1346,37 +1340,37 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1387,18 +1381,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1409,7 +1403,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1418,46 +1412,46 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -1465,13 +1459,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,267 +1479,253 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1739,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1813,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1827,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1838,10 +1818,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1852,10 +1832,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1869,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1883,10 +1863,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1897,10 +1877,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1911,10 +1891,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1925,16 +1905,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,10 +1922,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1956,10 +1936,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1970,10 +1950,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1984,10 +1964,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1998,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -2012,10 +1992,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2026,10 +2006,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2040,10 +2020,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2054,10 +2034,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2068,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2082,10 +2062,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -2096,10 +2076,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2110,10 +2090,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2124,10 +2104,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2138,10 +2118,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2152,10 +2132,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2166,10 +2146,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2180,10 +2160,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2194,10 +2174,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2208,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2222,10 +2202,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2236,10 +2216,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2250,10 +2230,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2264,10 +2244,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2278,10 +2258,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -2292,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -2306,10 +2286,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -2320,10 +2300,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2334,10 +2314,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2348,10 +2328,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2362,10 +2342,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -2376,10 +2356,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2393,13 +2373,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2410,7 +2390,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2424,7 +2404,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2438,7 +2418,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2449,10 +2429,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2463,10 +2443,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -2477,10 +2457,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -2491,10 +2471,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -2505,10 +2485,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2519,10 +2499,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2533,10 +2513,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2547,10 +2527,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2561,10 +2541,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2575,10 +2555,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2589,10 +2569,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2603,10 +2583,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2617,10 +2597,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -2631,10 +2611,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -2645,10 +2625,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2659,10 +2639,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2673,10 +2653,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2687,10 +2667,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2701,10 +2681,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2715,16 +2695,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,10 +2712,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2746,10 +2726,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2760,10 +2740,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2774,10 +2754,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2788,10 +2768,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2802,10 +2782,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2816,10 +2796,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2830,16 +2810,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,16 +2827,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2864,10 +2844,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2878,7 +2858,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -2892,10 +2872,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2903,7 +2883,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -2917,10 +2897,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -2934,7 +2914,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -2948,10 +2928,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,7 +2939,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>18</v>
@@ -2968,7 +2948,7 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,10 +2956,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2990,10 +2970,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -3004,10 +2984,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -3018,10 +2998,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3032,10 +3012,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
         <v>28</v>
@@ -3046,10 +3026,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
@@ -3060,10 +3040,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -3074,10 +3054,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3088,10 +3068,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3102,10 +3082,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3116,10 +3096,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -3130,10 +3110,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3144,16 +3124,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,10 +3141,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3175,10 +3155,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3189,10 +3169,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3203,10 +3183,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3217,10 +3197,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3231,16 +3211,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,10 +3228,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3262,10 +3242,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3276,16 +3256,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D106" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E106" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,30 +3273,30 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{2D4FEAD0-F11B-479F-8C5D-05197507FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1ADEE47-C621-4A37-87E7-555838D32510}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{2D4FEAD0-F11B-479F-8C5D-05197507FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D263037-E559-41FE-B51C-821D9C5B973C}"/>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="-14505" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Start opname handmatig op</t>
   </si>
   <si>
-    <t>Volgens protocol: probleem telefonisch melden aan team Multimedia</t>
-  </si>
-  <si>
     <t>MMT neemt contact op met Jacot en koppelt terug</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
   </si>
   <si>
     <t>Excel-sjabloon voor de vergadering verwerken en uploaden in MVI</t>
-  </si>
-  <si>
-    <t>Let op: er wordt in dit geval geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
   </si>
   <si>
     <t>Excel bestand bewerken-V1.pdf</t>
@@ -689,6 +683,9 @@
   </si>
   <si>
     <t>Vereist een laptop waarop MultiTimer is geïntalleerd, vereist handmatig comminicatie over spreektijd</t>
+  </si>
+  <si>
+    <t>Let op: Dit kan alleen voordat voordat Pre-start wordt gebruikt. Er wordt geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1178,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1294,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,10 +1359,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1423,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,10 +1434,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,10 +1487,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,7 +1504,7 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,10 +1540,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,10 +1565,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -1599,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1613,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,10 +1618,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,10 +1632,10 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,10 +1646,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1666,10 +1660,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,10 +1671,10 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,10 +1685,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,10 +1699,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,10 +1713,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1738,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1807,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1821,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1835,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1852,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1866,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1880,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1894,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1908,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1925,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1939,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1953,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1967,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1981,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1995,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2009,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2023,7 +2014,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2037,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2065,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -2079,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2093,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2107,7 +2098,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2121,7 +2112,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2135,7 +2126,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2149,7 +2140,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2163,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2177,7 +2168,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2191,7 +2182,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2205,7 +2196,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2219,7 +2210,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2233,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2247,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2261,7 +2252,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -2289,7 +2280,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -2303,7 +2294,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2317,7 +2308,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2345,7 +2336,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -2359,7 +2350,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2373,7 +2364,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2404,7 +2395,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2418,7 +2409,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2432,7 +2423,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2446,7 +2437,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -2460,7 +2451,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -2474,7 +2465,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -2516,7 +2507,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2544,7 +2535,7 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2572,7 +2563,7 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2586,7 +2577,7 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2600,7 +2591,7 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -2642,7 +2633,7 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2656,7 +2647,7 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2670,7 +2661,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2684,7 +2675,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2698,13 +2689,13 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,7 +2706,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2729,7 +2720,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2743,7 +2734,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2757,7 +2748,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2771,7 +2762,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2785,7 +2776,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2799,7 +2790,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2813,13 +2804,13 @@
         <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,13 +2821,13 @@
         <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,7 +2838,7 @@
         <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2875,7 +2866,7 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,7 +2992,7 @@
         <v>78</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3015,7 +3006,7 @@
         <v>82</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D89" t="s">
         <v>28</v>
@@ -3029,7 +3020,7 @@
         <v>82</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
@@ -3043,7 +3034,7 @@
         <v>85</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -3057,7 +3048,7 @@
         <v>88</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3071,7 +3062,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3099,7 +3090,7 @@
         <v>91</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -3113,7 +3104,7 @@
         <v>91</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3127,13 +3118,13 @@
         <v>95</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,7 +3135,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3158,7 +3149,7 @@
         <v>95</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3172,7 +3163,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3186,7 +3177,7 @@
         <v>95</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3214,7 +3205,7 @@
         <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3259,13 +3250,13 @@
         <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3276,13 +3267,13 @@
         <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,10 +3284,10 @@
         <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{2D4FEAD0-F11B-479F-8C5D-05197507FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D263037-E559-41FE-B51C-821D9C5B973C}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{2D4FEAD0-F11B-479F-8C5D-05197507FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2109F264-A883-43A4-BC34-292164213B96}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Secretaris</t>
-  </si>
-  <si>
-    <t>MMT beldt Company Webcast</t>
   </si>
   <si>
     <t>MMT</t>
@@ -244,9 +241,6 @@
     <t>Minimale eis om te kunnen vergaderen is dat er minimaal een audio opname gemaakt wordt</t>
   </si>
   <si>
-    <t>Wachter op terugkoppeling van MMT, pas dan andere opties overwegen</t>
-  </si>
-  <si>
     <t>Start opname handmatig op</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
   </si>
   <si>
     <t>Bel een van de medewerkers van MMT en meld het probleem, geeft door dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
-  </si>
-  <si>
-    <t>Bel Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
   </si>
   <si>
     <t>Bij het noodscenario wordt een opname automatisch gestart maar MVI er kan niet geklikt worden op de agendapunten, spreekttijd en stemmingen werken niet</t>
@@ -673,9 +664,6 @@
     <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
   </si>
   <si>
-    <t>Het is niet mogelijk om agendapunten te verwijderen of toevoegen, agendapuntwijzigingen zijn wel mogelijk en deze worden zichtbaar op de streaming</t>
-  </si>
-  <si>
     <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg de motie toe</t>
   </si>
   <si>
@@ -685,7 +673,13 @@
     <t>Vereist een laptop waarop MultiTimer is geïntalleerd, vereist handmatig comminicatie over spreektijd</t>
   </si>
   <si>
-    <t>Let op: Dit kan alleen voordat voordat Pre-start wordt gebruikt. Er wordt geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
+    <t>Let op: Dit kan alleen voordat 'Pre-start' wordt gebruikt. Er wordt geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
+  </si>
+  <si>
+    <t>Agendapuntwijzigingen zijn zichtbaar op de streaming maar het is niet mogelijk om agendapunten te verwijderen of toe te voegen</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is , bel dan zelf Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1146,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1291,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,10 +1414,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,10 +1467,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,10 +1481,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1509,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,10 +1545,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,10 +1559,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,10 +1573,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,10 +1584,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,10 +1609,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,10 +1623,10 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,10 +1637,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,10 +1676,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,10 +1690,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,10 +1704,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,10 +1747,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1784,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1812,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1826,13 +1817,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1857,10 +1848,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1885,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1899,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1930,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1944,7 +1935,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1958,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1972,10 +1963,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2014,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2028,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2042,7 +2033,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2056,10 +2047,10 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2084,7 +2075,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2098,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2112,7 +2103,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2126,10 +2117,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,10 +2131,10 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2154,7 +2145,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2168,7 +2159,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2182,10 +2173,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,10 +2187,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,7 +2201,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2224,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2238,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2252,10 +2243,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,10 +2257,10 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2280,10 +2271,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,7 +2285,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2308,7 +2299,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2322,7 +2313,7 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2336,10 +2327,10 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2350,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2364,13 +2355,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,7 +2372,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2395,7 +2386,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2409,7 +2400,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2423,7 +2414,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2437,10 +2428,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2451,10 +2442,10 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2465,10 +2456,10 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2479,7 +2470,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2493,7 +2484,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2507,7 +2498,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2521,7 +2512,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2535,7 +2526,7 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2549,7 +2540,7 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2563,10 +2554,10 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2591,10 +2582,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2605,10 +2596,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2619,7 +2610,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2633,10 +2624,10 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2647,7 +2638,7 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2661,7 +2652,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2675,7 +2666,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2689,13 +2680,13 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2706,7 +2697,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2720,7 +2711,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2734,7 +2725,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2748,7 +2739,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2762,7 +2753,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2776,7 +2767,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2790,7 +2781,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2804,13 +2795,13 @@
         <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,13 +2812,13 @@
         <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2838,7 +2829,7 @@
         <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2852,10 +2843,10 @@
         <v>70</v>
       </c>
       <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s">
         <v>9</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2866,7 +2857,10 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>119</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2874,10 +2868,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2891,13 +2885,10 @@
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,10 +2899,13 @@
         <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2922,24 +2916,24 @@
         <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>74</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>18</v>
+      <c r="C84" t="s">
+        <v>41</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2949,14 +2943,14 @@
       <c r="B85">
         <v>74</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>40</v>
+      <c r="C85" t="s">
+        <v>108</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2964,10 +2958,13 @@
         <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,10 +2972,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>78</v>
-      </c>
-      <c r="C87" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2989,13 +2986,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>78</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3003,13 +3000,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>82</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3017,13 +3014,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,13 +3028,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,13 +3042,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,13 +3056,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,10 +3070,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>91</v>
-      </c>
-      <c r="C94" t="s">
-        <v>37</v>
+        <v>88</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3087,13 +3084,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3103,8 +3100,8 @@
       <c r="B96">
         <v>91</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>56</v>
+      <c r="C96" t="s">
+        <v>36</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3115,16 +3112,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,10 +3126,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3149,10 +3143,13 @@
         <v>95</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,7 +3160,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3177,7 +3174,7 @@
         <v>95</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3190,8 +3187,8 @@
       <c r="B102">
         <v>95</v>
       </c>
-      <c r="C102" t="s">
-        <v>42</v>
+      <c r="C102" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3204,14 +3201,11 @@
       <c r="B103">
         <v>95</v>
       </c>
-      <c r="C103" t="s">
-        <v>105</v>
+      <c r="C103" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3221,8 +3215,8 @@
       <c r="B104">
         <v>95</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>40</v>
+      <c r="C104" t="s">
+        <v>41</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3235,11 +3229,14 @@
       <c r="B105">
         <v>95</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>41</v>
+      <c r="C105" t="s">
+        <v>102</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,16 +3244,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E106" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,16 +3258,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,13 +3272,47 @@
         <v>107</v>
       </c>
       <c r="B108">
+        <v>99</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>103</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
         <v>107</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" t="s">
-        <v>109</v>
+      <c r="C110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{2D4FEAD0-F11B-479F-8C5D-05197507FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2109F264-A883-43A4-BC34-292164213B96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACFD218-A656-4B1B-9F2E-1A3FF3494D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="52" windowWidth="20520" windowHeight="8191" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -67,38 +67,12 @@
     <t>Secretarris</t>
   </si>
   <si>
-    <t>Vraag aan Jacot of audio-opname loopt (TASCAM)</t>
-  </si>
-  <si>
     <t>Secretaris/MMT</t>
   </si>
   <si>
     <t>Handleiding</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Na de vergadering:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Haalt video/audio via MVI computer (Zie handleiding: Bestanden beheren van vergaderingen.pdf))</t>
-    </r>
-  </si>
-  <si>
     <t>Deelnemers worden niet optimaal in beeld gebracht</t>
   </si>
   <si>
@@ -162,58 +136,6 @@
     <t>Bestanden beheren van vergaderingen.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Na de vergadering: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Indien het video/audio bestand niet compleet is, vraag het complete bestand aan Jacot</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Na de vergadering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Verstuurt het video/audio bestand naar CwC, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
-    </r>
-  </si>
-  <si>
-    <t>Via iBabs, publiek informeren dat de webcast later wordt geplaatst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controleer MVI opname: in MVI, tab 'Start', kijk of de camerera zichtbaar is </t>
-  </si>
-  <si>
     <t>Handleiding MultiTimer.pdf</t>
   </si>
   <si>
@@ -244,12 +166,6 @@
     <t>Start opname handmatig op</t>
   </si>
   <si>
-    <t>MMT neemt contact op met Jacot en koppelt terug</t>
-  </si>
-  <si>
-    <t>Beld het noodnunmer van Jacot en meld het probleem</t>
-  </si>
-  <si>
     <t>In Crestron, tab 'Opname', druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
   </si>
   <si>
@@ -307,24 +223,12 @@
     <t>Alle belangrijke momenten communiceren via Whatsapp</t>
   </si>
   <si>
-    <t>MMT probeert een of beide monitoren aan te repareren</t>
-  </si>
-  <si>
-    <t>De voorzitter of de griffier kijkt naar het ander scherm dat nog steeds werkt</t>
-  </si>
-  <si>
-    <t>Wanneer alleen het scherm van de voorzitter nog operationeel is, dan indien nodig pakt de griffier de bijbehorende muis en markeert de agendapunten</t>
-  </si>
-  <si>
     <t>MMT pakt een van de monitoren van de testruimte en koppelt op de plek van de defecte monitor</t>
   </si>
   <si>
     <t>Raads- of commissieondersteuning markeert de agendapunten</t>
   </si>
   <si>
-    <t>Spreektijden en stemmingsresultaten worden via Whatsapp doorgegeven aan de (cie)griffier</t>
-  </si>
-  <si>
     <t>Vergadering gaat door zonder livestream</t>
   </si>
   <si>
@@ -337,24 +241,9 @@
     <t>ALLEEN IN OVERLEG MET JACOT: Schakkel het noodscenario in</t>
   </si>
   <si>
-    <t>In Crestron, druk op de Home knop</t>
-  </si>
-  <si>
     <t>Home knop Crestron.png</t>
   </si>
   <si>
-    <t>Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
-  </si>
-  <si>
-    <t>Pak de twee handmicrofoons en doe deze aan via de knop aan de de achterkant van de microfoons</t>
-  </si>
-  <si>
-    <t>Laat twee bodes met de handmicrofoons rondlopen</t>
-  </si>
-  <si>
-    <t>Laat Jacot controleren of de opname loopt</t>
-  </si>
-  <si>
     <t>Verlaat direct de ruimte</t>
   </si>
   <si>
@@ -389,9 +278,6 @@
   </si>
   <si>
     <t>Via MVI, richt de camera handmatig op de spreker</t>
-  </si>
-  <si>
-    <t>Na de vergadering: haal de opname (video/audio) via de MVI-computer op en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
   </si>
   <si>
     <t>Plotseling onstaan van een dreigende situatie</t>
@@ -676,17 +562,44 @@
     <t>Let op: Dit kan alleen voordat 'Pre-start' wordt gebruikt. Er wordt geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
   </si>
   <si>
-    <t>Agendapuntwijzigingen zijn zichtbaar op de streaming maar het is niet mogelijk om agendapunten te verwijderen of toe te voegen</t>
-  </si>
-  <si>
     <t>Als MMT niet bereikbaar is , bel dan zelf Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
+  </si>
+  <si>
+    <t>Agendapuntwijzigingen zijn zichtbaar op de streaming. Het is niet mogelijk agendapunten te verwijderen of toe te voegen</t>
+  </si>
+  <si>
+    <t>De voorzitter of de griffier gebruiken beide het andere scherm dat nog wel werkt</t>
+  </si>
+  <si>
+    <t>Als alleen het scherm van de voorzitter nog werkt, pak dan indien nodig de bijbehorende muis en markeer de agendapunten op dat scherm</t>
+  </si>
+  <si>
+    <t>MMT haalt een monitor uit de testruimte en sluit deze aan op de plek van het defecte scherm</t>
+  </si>
+  <si>
+    <t>Spreektijden en stemmingsresultaten worden via Whatsapp gedeeld met de (cie)griffier</t>
+  </si>
+  <si>
+    <t>In Crestron: druk op de knop ‘Home’</t>
+  </si>
+  <si>
+    <t>Laat twee bodes met de handmicrofoons door de zaal lopen</t>
+  </si>
+  <si>
+    <t>Laat Jacot controleren of de opname loopt (TASCAM)</t>
+  </si>
+  <si>
+    <t>Jacot/Secretaris</t>
+  </si>
+  <si>
+    <t>LET OP: Laat deze handeling door Jacot op afstand uitvoeren of voer deze zelf maar alleen onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,14 +611,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -774,13 +679,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1086,16 +991,16 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,124 +1008,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1237,13 +1142,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1262,10 +1167,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1273,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1285,17 +1190,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
-    <col min="4" max="4" width="106.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.73046875" customWidth="1"/>
+    <col min="4" max="4" width="106.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1317,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1331,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1342,10 +1247,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1353,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1370,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1378,10 +1283,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1392,7 +1297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>22</v>
       </c>
@@ -1400,13 +1305,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>26</v>
       </c>
@@ -1414,13 +1319,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1428,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1442,13 +1347,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>37</v>
       </c>
@@ -1456,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1467,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>45</v>
       </c>
@@ -1481,13 +1386,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>49</v>
       </c>
@@ -1495,13 +1400,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>52</v>
       </c>
@@ -1509,10 +1414,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>56</v>
       </c>
@@ -1520,13 +1425,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>60</v>
       </c>
@@ -1534,10 +1439,10 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>64</v>
       </c>
@@ -1545,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>67</v>
       </c>
@@ -1559,13 +1464,13 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>70</v>
       </c>
@@ -1573,10 +1478,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>74</v>
       </c>
@@ -1584,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>78</v>
       </c>
@@ -1598,10 +1503,10 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>82</v>
       </c>
@@ -1609,13 +1514,13 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>85</v>
       </c>
@@ -1623,13 +1528,13 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>88</v>
       </c>
@@ -1637,13 +1542,13 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>91</v>
       </c>
@@ -1651,10 +1556,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>95</v>
       </c>
@@ -1662,13 +1567,13 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>99</v>
       </c>
@@ -1676,13 +1581,13 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>103</v>
       </c>
@@ -1690,13 +1595,13 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>107</v>
       </c>
@@ -1704,10 +1609,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1720,20 +1625,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="197.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,10 +1655,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1761,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1775,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1789,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1803,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1817,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1826,7 +1731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1834,13 +1739,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1848,13 +1753,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1862,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1876,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1890,16 +1795,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1907,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1921,13 +1826,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1935,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1949,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1963,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1977,13 +1882,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1991,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2005,13 +1910,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2019,13 +1924,13 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2033,13 +1938,13 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2047,13 +1952,13 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2061,13 +1966,13 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2075,13 +1980,13 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2089,13 +1994,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2103,13 +2008,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2117,13 +2022,13 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2131,13 +2036,13 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2145,13 +2050,13 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2159,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2173,13 +2078,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2187,13 +2092,13 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2201,13 +2106,13 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2215,13 +2120,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2229,13 +2134,13 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2243,13 +2148,13 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2257,13 +2162,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2271,13 +2176,13 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2285,13 +2190,13 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2299,13 +2204,13 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2313,13 +2218,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2327,13 +2232,13 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2341,13 +2246,13 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2355,16 +2260,16 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2372,13 +2277,13 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2386,13 +2291,13 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2400,13 +2305,13 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2414,13 +2319,13 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2428,13 +2333,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2442,13 +2347,13 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2456,13 +2361,13 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2470,13 +2375,13 @@
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2484,13 +2389,13 @@
         <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2498,13 +2403,13 @@
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2512,13 +2417,13 @@
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2526,13 +2431,13 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2540,13 +2445,13 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2554,13 +2459,13 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2568,13 +2473,13 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2582,13 +2487,13 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2596,13 +2501,13 @@
         <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2610,13 +2515,13 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2624,13 +2529,13 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2638,13 +2543,13 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2652,13 +2557,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2666,13 +2571,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2680,16 +2585,16 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2697,13 +2602,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2711,13 +2616,13 @@
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2725,13 +2630,13 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2739,13 +2644,13 @@
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2753,13 +2658,13 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2767,13 +2672,13 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2781,13 +2686,13 @@
         <v>67</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2795,16 +2700,16 @@
         <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2812,30 +2717,30 @@
         <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2843,13 +2748,13 @@
         <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2857,27 +2762,27 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2885,13 +2790,16 @@
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2899,16 +2807,13 @@
         <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2916,13 +2821,13 @@
         <v>74</v>
       </c>
       <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2930,13 +2835,13 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2944,58 +2849,58 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="17.25" customHeight="1">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>74</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
+      <c r="C86" t="s">
+        <v>108</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>74</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>39</v>
+      <c r="C87" t="s">
+        <v>109</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>74</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>40</v>
+      <c r="C88" t="s">
+        <v>110</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3003,55 +2908,55 @@
         <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>78</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>74</v>
+      <c r="C90" t="s">
+        <v>153</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>82</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>75</v>
+      <c r="C91" t="s">
+        <v>151</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>82</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>76</v>
+      <c r="C92" t="s">
+        <v>152</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3059,13 +2964,13 @@
         <v>85</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3073,13 +2978,13 @@
         <v>88</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3087,13 +2992,13 @@
         <v>88</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3101,58 +3006,58 @@
         <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>91</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>53</v>
+      <c r="C97" t="s">
+        <v>119</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>91</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>54</v>
+      <c r="C98" t="s">
+        <v>120</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>95</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>84</v>
+      <c r="C99" t="s">
+        <v>155</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3160,41 +3065,41 @@
         <v>95</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>95</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>87</v>
+      <c r="C101" t="s">
+        <v>121</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>95</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>88</v>
+      <c r="C102" t="s">
+        <v>156</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3202,13 +3107,13 @@
         <v>95</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3216,13 +3121,13 @@
         <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3230,44 +3135,44 @@
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>95</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>39</v>
+      <c r="C106" t="s">
+        <v>109</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>95</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>40</v>
+      <c r="C107" t="s">
+        <v>110</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3275,16 +3180,16 @@
         <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D108" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3292,16 +3197,16 @@
         <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3309,10 +3214,10 @@
         <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACFD218-A656-4B1B-9F2E-1A3FF3494D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F19A3-5657-4DA3-AB8D-88AB103298F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="52" windowWidth="20520" windowHeight="8191" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="52" windowWidth="20520" windowHeight="8191" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -320,12 +320,6 @@
   </si>
   <si>
     <t>Minimale eis is dat er een audiobestand van gemaakt wordt</t>
-  </si>
-  <si>
-    <t>Is spreektijd aangezet</t>
-  </si>
-  <si>
-    <t>Check of spreektijd niet gepauzeerd is</t>
   </si>
   <si>
     <t>MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
@@ -593,6 +587,12 @@
   </si>
   <si>
     <t>LET OP: Laat deze handeling door Jacot op afstand uitvoeren of voer deze zelf maar alleen onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
+  </si>
+  <si>
+    <t>Controleer of spreektijd gepauzeerd is</t>
+  </si>
+  <si>
+    <t>Controleer of spreektijd is aangezet</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11D0D4-19BB-4242-94B6-6D4454AC0279}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>95</v>
@@ -1322,7 +1322,7 @@
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1375,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1467,7 +1467,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1722,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1868,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1910,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1924,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1952,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1966,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1994,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2022,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2036,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2050,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2064,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2078,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2092,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2106,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2120,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2148,7 +2148,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2176,7 +2176,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -2190,7 +2190,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2232,7 +2232,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2246,7 +2246,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2260,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2291,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2319,7 +2319,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -2347,7 +2347,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -2361,7 +2361,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2372,10 +2372,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>49</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2389,7 +2389,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2403,7 +2403,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2417,7 +2417,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2430,8 +2430,8 @@
       <c r="B56">
         <v>49</v>
       </c>
-      <c r="C56" t="s">
-        <v>90</v>
+      <c r="C56" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2442,10 +2442,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2459,10 +2459,10 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2473,10 +2473,10 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2500,11 +2500,11 @@
       <c r="B61">
         <v>56</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>41</v>
+      <c r="C61" t="s">
+        <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2529,10 +2529,10 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2543,10 +2543,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2571,7 +2571,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2585,13 +2585,10 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2602,10 +2599,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2615,8 +2615,8 @@
       <c r="B69">
         <v>64</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>54</v>
+      <c r="C69" t="s">
+        <v>135</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2629,8 +2629,8 @@
       <c r="B70">
         <v>64</v>
       </c>
-      <c r="C70" t="s">
-        <v>138</v>
+      <c r="C70" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2643,8 +2643,8 @@
       <c r="B71">
         <v>64</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>139</v>
+      <c r="C71" t="s">
+        <v>136</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2658,7 +2658,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2672,7 +2672,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2683,10 +2683,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2700,13 +2700,10 @@
         <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2717,13 +2714,13 @@
         <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
-      <c r="G76" t="s">
-        <v>59</v>
+      <c r="G76" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2731,13 +2728,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>70</v>
-      </c>
-      <c r="C77" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2748,10 +2748,10 @@
         <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2762,10 +2762,10 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2773,10 +2773,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2790,13 +2790,10 @@
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2807,10 +2804,13 @@
         <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2821,10 +2821,10 @@
         <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2835,10 +2835,10 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2849,13 +2849,13 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" customHeight="1">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2863,16 +2863,13 @@
         <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:6" ht="17.25" customHeight="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2880,10 +2877,13 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2905,10 +2905,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2922,10 +2922,10 @@
         <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2933,13 +2933,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
         <v>151</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2950,10 +2950,10 @@
         <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2961,13 +2961,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>85</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="C93" t="s">
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2975,13 +2975,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2992,7 +2992,7 @@
         <v>88</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3003,10 +3003,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>91</v>
-      </c>
-      <c r="C96" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3020,10 +3020,10 @@
         <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3034,10 +3034,10 @@
         <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3045,16 +3045,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3064,11 +3061,14 @@
       <c r="B100">
         <v>95</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>159</v>
+      <c r="C100" t="s">
+        <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3078,11 +3078,11 @@
       <c r="B101">
         <v>95</v>
       </c>
-      <c r="C101" t="s">
-        <v>121</v>
+      <c r="C101" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3093,7 +3093,7 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3106,8 +3106,8 @@
       <c r="B103">
         <v>95</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>157</v>
+      <c r="C103" t="s">
+        <v>154</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3120,8 +3120,8 @@
       <c r="B104">
         <v>95</v>
       </c>
-      <c r="C104" t="s">
-        <v>107</v>
+      <c r="C104" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3135,13 +3135,10 @@
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3152,10 +3149,13 @@
         <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3177,16 +3177,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>99</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="C108" t="s">
+        <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
-      </c>
-      <c r="E108" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3194,16 +3191,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3211,12 +3208,29 @@
         <v>109</v>
       </c>
       <c r="B110">
+        <v>103</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="28.5">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
         <v>107</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>88</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F19A3-5657-4DA3-AB8D-88AB103298F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D1905-3DFB-46D6-8F5C-A8422D323EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="52" windowWidth="20520" windowHeight="8191" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>Bel een van de medewerkers van MMT en meld het probleem, geeft door dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
-  </si>
-  <si>
-    <t>Bij het noodscenario wordt een opname automatisch gestart maar MVI er kan niet geklikt worden op de agendapunten, spreekttijd en stemmingen werken niet</t>
   </si>
   <si>
     <t>ALLEEN IN OVERLEG MET JACOT: Schakkel het noodscenario in</t>
@@ -593,6 +590,9 @@
   </si>
   <si>
     <t>Controleer of spreektijd is aangezet</t>
+  </si>
+  <si>
+    <t>Bij het noodscenario wordt een opname automatisch gestart. MVI werkt niet: er kan niet worden geklikt op de agendapunten. Spreekttijd en stemmingen werken niet</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11D0D4-19BB-4242-94B6-6D4454AC0279}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1236,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1258,10 +1258,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1283,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1308,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1319,10 +1319,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1333,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1375,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1386,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1403,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1467,7 +1467,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1503,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1556,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1567,10 +1567,10 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1581,10 +1581,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1595,10 +1595,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1609,10 +1609,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1625,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A111"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1722,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1868,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1910,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1924,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1952,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1966,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1994,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2022,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2036,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2050,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2064,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2078,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2092,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2106,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2120,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2134,7 +2134,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2148,7 +2148,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2176,7 +2176,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -2190,7 +2190,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2232,7 +2232,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2246,7 +2246,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2260,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2291,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2305,7 +2305,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2319,7 +2319,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -2347,7 +2347,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -2361,7 +2361,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2375,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2445,7 +2445,7 @@
         <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2473,7 +2473,7 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -2487,7 +2487,7 @@
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2543,7 +2543,7 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -2557,7 +2557,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2571,7 +2571,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2585,7 +2585,7 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2599,7 +2599,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2616,7 +2616,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2644,7 +2644,7 @@
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2658,7 +2658,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2672,7 +2672,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2686,7 +2686,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2731,7 +2731,7 @@
         <v>67</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2762,7 +2762,7 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2776,7 +2776,7 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2804,7 +2804,7 @@
         <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -2821,7 +2821,7 @@
         <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -2835,7 +2835,7 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -2849,7 +2849,7 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2863,7 +2863,7 @@
         <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -2877,7 +2877,7 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2894,7 +2894,7 @@
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2908,7 +2908,7 @@
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2936,7 +2936,7 @@
         <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2950,7 +2950,7 @@
         <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" t="s">
         <v>25</v>
@@ -2964,7 +2964,7 @@
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -3006,7 +3006,7 @@
         <v>88</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3034,7 +3034,7 @@
         <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -3048,7 +3048,7 @@
         <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3062,13 +3062,13 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3079,10 +3079,10 @@
         <v>95</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3093,7 +3093,7 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3107,7 +3107,7 @@
         <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3121,7 +3121,7 @@
         <v>95</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3135,7 +3135,7 @@
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3149,7 +3149,7 @@
         <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3166,7 +3166,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3194,13 +3194,13 @@
         <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" t="s">
         <v>75</v>
       </c>
-      <c r="D109" t="s">
-        <v>76</v>
-      </c>
       <c r="E109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3211,13 +3211,13 @@
         <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="28.5">
@@ -3228,10 +3228,10 @@
         <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D1905-3DFB-46D6-8F5C-A8422D323EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB317B-6E84-4632-A335-830A3E916AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -454,12 +454,6 @@
     <t>Gebruik de joystick om de camera’s op de spreker te richten</t>
   </si>
   <si>
-    <t>Toon via de overzichtcamera de hele zaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via iBabs: informeer het publiek dat er in aagepaste vorm vergaderd wordt </t>
-  </si>
-  <si>
     <t>Verhuis de deelnemer naar een andere plaats in de zaal (bijvoorbeeld lege plek, katheder of plek van de wethouder). Let op: de twee plekken rechtsachter in de raadzaal zijn ingesteld voor sprekers die zittend praten</t>
   </si>
   <si>
@@ -593,13 +587,19 @@
   </si>
   <si>
     <t>Bij het noodscenario wordt een opname automatisch gestart. MVI werkt niet: er kan niet worden geklikt op de agendapunten. Spreekttijd en stemmingen werken niet</t>
+  </si>
+  <si>
+    <t>Als de overzichtcamera moest worden ingeschakeld, informeer het publiek dan via iBabs dat er in aangepaste vorm wordt vergaderd</t>
+  </si>
+  <si>
+    <t>Indien de vorige stap niet lukt, toon dan het overzicht van de hele zaal met de overzichtcamera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,11 +620,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Bolder"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Bolder"/>
     </font>
     <font>
@@ -671,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -685,7 +680,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1037,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1167,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1178,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1316,7 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1375,7 +1369,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1453,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1467,7 +1461,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1570,7 +1564,7 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1625,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1881,8 +1875,8 @@
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>113</v>
+      <c r="C17" t="s">
+        <v>159</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1895,8 +1889,8 @@
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>114</v>
+      <c r="C18" t="s">
+        <v>158</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1910,7 +1904,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1952,7 +1946,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1966,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1980,7 +1974,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2008,7 +2002,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2022,7 +2016,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2036,7 +2030,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2050,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2078,7 +2072,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2092,7 +2086,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2120,7 +2114,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2148,7 +2142,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2176,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -2190,7 +2184,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2232,7 +2226,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2246,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2260,7 +2254,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2291,7 +2285,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2319,7 +2313,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2333,7 +2327,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -2347,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -2473,7 +2467,7 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -2487,7 +2481,7 @@
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2543,7 +2537,7 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -2557,7 +2551,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2571,7 +2565,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2585,7 +2579,7 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2599,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2616,7 +2610,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2644,7 +2638,7 @@
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2658,7 +2652,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2672,7 +2666,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2686,7 +2680,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2731,7 +2725,7 @@
         <v>67</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -2776,7 +2770,7 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2936,7 +2930,7 @@
         <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2950,7 +2944,7 @@
         <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
         <v>25</v>
@@ -2964,7 +2958,7 @@
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -3006,7 +3000,7 @@
         <v>88</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3034,7 +3028,7 @@
         <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -3048,7 +3042,7 @@
         <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3062,7 +3056,7 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3079,10 +3073,10 @@
         <v>95</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3093,7 +3087,7 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3107,7 +3101,7 @@
         <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3121,7 +3115,7 @@
         <v>95</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB317B-6E84-4632-A335-830A3E916AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165A583-1C30-4F78-AD63-E932A55CE369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -541,9 +541,6 @@
     <t>Let op: achter in de zaal is alles hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
   </si>
   <si>
-    <t>Vereist een laptop waarop MultiTimer is geïntalleerd, vereist handmatig comminicatie over spreektijd</t>
-  </si>
-  <si>
     <t>Let op: Dit kan alleen voordat 'Pre-start' wordt gebruikt. Er wordt geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
   </si>
   <si>
@@ -593,6 +590,9 @@
   </si>
   <si>
     <t>Indien de vorige stap niet lukt, toon dan het overzicht van de hele zaal met de overzichtcamera</t>
+  </si>
+  <si>
+    <t>Vereist een laptop waarop MultiTimer is geïntalleerd. Vereist handmatig comminicatie met de (cie)griffier, over spreektijd</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1369,7 +1369,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1447,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1461,7 +1461,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1619,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1876,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2930,7 +2930,7 @@
         <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2944,7 +2944,7 @@
         <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
         <v>25</v>
@@ -2958,7 +2958,7 @@
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -3000,7 +3000,7 @@
         <v>88</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3056,7 +3056,7 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3073,10 +3073,10 @@
         <v>95</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3101,7 +3101,7 @@
         <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3115,7 +3115,7 @@
         <v>95</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165A583-1C30-4F78-AD63-E932A55CE369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5843C6EE-74A5-4547-B412-9ABF0EC20053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -154,9 +154,6 @@
     <t>In overleg met de (cie)griffier, eerst het openbaar deel afmaken dan de vergadering via MVI afsluiten</t>
   </si>
   <si>
-    <t>Start het AV-systeem op en start een Reguliere vergadering (microfoons kunnen dan gebruikt worden en er gaat niet naar buiten)</t>
-  </si>
-  <si>
     <t>Knop 'Besloten' werkt niet</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>Stemmingsresultaten worden later bijgewerkt door Company Webcast</t>
-  </si>
-  <si>
-    <t>Minimale eis is dat er een audiobestand van gemaakt wordt</t>
   </si>
   <si>
     <t>MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
@@ -574,9 +568,6 @@
     <t>Jacot/Secretaris</t>
   </si>
   <si>
-    <t>LET OP: Laat deze handeling door Jacot op afstand uitvoeren of voer deze zelf maar alleen onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
-  </si>
-  <si>
     <t>Controleer of spreektijd gepauzeerd is</t>
   </si>
   <si>
@@ -593,6 +584,21 @@
   </si>
   <si>
     <t>Vereist een laptop waarop MultiTimer is geïntalleerd. Vereist handmatig comminicatie met de (cie)griffier, over spreektijd</t>
+  </si>
+  <si>
+    <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
+  </si>
+  <si>
+    <t>Minimale eis is dat er een audiobestand van gemaakt wordt (ivm notulen)</t>
+  </si>
+  <si>
+    <t>Start het AV-systeem op en start in Crestron een 'Besloten evenement' op (microfoons kunnen dan gebruikt worden en er gaat geen beeld of geluid naar buiten)</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad 'Audio uit' controleer dat er geen geluid naar IPTV, Koffie en leeskamer of Webcast CWC gaat</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad 'Beeld MMT' controleer dat er geen beeld naar IPTV of naar de Webcast gaat</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1047,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1055,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1063,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1071,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1119,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1172,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1184,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1216,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1230,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1241,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1252,10 +1258,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1277,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1302,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1313,10 +1319,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1327,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1355,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1369,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1380,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1397,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1408,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1419,10 +1425,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1433,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1444,10 +1450,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1458,10 +1464,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1472,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1483,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1497,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1508,10 +1514,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1522,10 +1528,10 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1536,10 +1542,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1550,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1561,10 +1567,10 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1575,10 +1581,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1589,10 +1595,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1603,10 +1609,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1617,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1674,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1688,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1702,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1716,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1733,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1747,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1761,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1775,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1789,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1806,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1820,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1834,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1848,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1862,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1876,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1890,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1904,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1918,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1946,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1960,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1974,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1988,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2002,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2016,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2030,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2044,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2058,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2072,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2086,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2100,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2114,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2128,7 +2134,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2142,7 +2148,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2170,7 +2176,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -2184,7 +2190,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2198,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2226,7 +2232,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2240,7 +2246,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2254,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2285,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2299,7 +2305,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2313,7 +2319,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2327,35 +2333,29 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50">
-        <v>49</v>
-      </c>
       <c r="B50">
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2363,41 +2363,41 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>49</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>49</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2405,13 +2405,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>49</v>
       </c>
-      <c r="C57" t="s">
-        <v>89</v>
+      <c r="C57" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2447,13 +2447,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>52</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2461,27 +2461,27 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2489,69 +2489,69 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>56</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>114</v>
+        <v>56</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2559,27 +2559,27 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2587,30 +2587,27 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2618,27 +2615,30 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>64</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>54</v>
+      <c r="C70" t="s">
+        <v>129</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>64</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>139</v>
+      <c r="C73" t="s">
+        <v>131</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -2702,75 +2702,75 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>67</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
-      </c>
-      <c r="G77" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>70</v>
-      </c>
-      <c r="C78" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>70</v>
-      </c>
-      <c r="C79" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2778,44 +2778,41 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -2823,27 +2820,30 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2851,72 +2851,72 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17.25" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="17.25" customHeight="1">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -2924,97 +2924,97 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>85</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="C94" t="s">
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>88</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>91</v>
-      </c>
-      <c r="C97" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3022,27 +3022,27 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>91</v>
-      </c>
-      <c r="C98" t="s">
-        <v>114</v>
+        <v>88</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3050,72 +3050,72 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>95</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>153</v>
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>95</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" t="s">
         <v>150</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>95</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>151</v>
+      <c r="C104" t="s">
+        <v>114</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3123,13 +3123,13 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3137,30 +3137,27 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>95</v>
       </c>
-      <c r="C106" t="s">
-        <v>105</v>
+      <c r="C106" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3168,64 +3165,95 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>99</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
       </c>
       <c r="D109" t="s">
-        <v>75</v>
-      </c>
-      <c r="E109" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>95</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B111">
+        <v>99</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D111" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
         <v>103</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
         <v>78</v>
       </c>
-      <c r="D110" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="28.5">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
+    </row>
+    <row r="113" spans="1:4" ht="28.5">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
         <v>107</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C113" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="D113" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5843C6EE-74A5-4547-B412-9ABF0EC20053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDB3EF-814A-4EC3-8070-6E5B6939A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)</t>
-  </si>
-  <si>
-    <t>Controleer op minimale eis: draait de audioopname in Crestron</t>
   </si>
   <si>
     <t>Bel Team Multimedia</t>
@@ -599,6 +596,9 @@
   </si>
   <si>
     <t>In Crestron, tabblad 'Beeld MMT' controleer dat er geen beeld naar IPTV of naar de Webcast gaat</t>
+  </si>
+  <si>
+    <t>Vergader alleen door als de audio-opname loopt</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1236,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1258,10 +1258,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1283,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1322,7 +1322,7 @@
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1336,7 +1336,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1375,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1386,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1403,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1467,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1503,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1556,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1570,7 +1570,7 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1625,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1722,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1868,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1910,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1924,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1952,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1966,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1994,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2022,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2036,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2050,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2064,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2078,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2092,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2106,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2120,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2148,7 +2148,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2176,7 +2176,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -2190,7 +2190,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2232,7 +2232,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2246,7 +2246,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2260,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2291,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2319,7 +2319,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -2344,7 +2344,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2355,7 +2355,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2369,7 +2369,7 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -2383,7 +2383,7 @@
         <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -2425,7 +2425,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2495,7 +2495,7 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2509,7 +2509,7 @@
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -2579,7 +2579,7 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2607,7 +2607,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2621,7 +2621,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2638,7 +2638,7 @@
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2666,7 +2666,7 @@
         <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2680,7 +2680,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2694,7 +2694,7 @@
         <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -2708,7 +2708,7 @@
         <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -2753,7 +2753,7 @@
         <v>67</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -2784,7 +2784,7 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2798,7 +2798,7 @@
         <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -2826,7 +2826,7 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -2843,7 +2843,7 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2857,7 +2857,7 @@
         <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -2871,7 +2871,7 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2885,7 +2885,7 @@
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2899,7 +2899,7 @@
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2916,7 +2916,7 @@
         <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -2930,7 +2930,7 @@
         <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -2958,7 +2958,7 @@
         <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2972,7 +2972,7 @@
         <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
@@ -2986,7 +2986,7 @@
         <v>82</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -3028,7 +3028,7 @@
         <v>88</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3056,7 +3056,7 @@
         <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -3070,7 +3070,7 @@
         <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3084,7 +3084,7 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3101,10 +3101,10 @@
         <v>95</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3115,7 +3115,7 @@
         <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3129,7 +3129,7 @@
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3143,7 +3143,7 @@
         <v>95</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3157,7 +3157,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3171,7 +3171,7 @@
         <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3188,7 +3188,7 @@
         <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3202,7 +3202,7 @@
         <v>95</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDB3EF-814A-4EC3-8070-6E5B6939A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B5C30-23E0-4DCB-B770-5CDD8FCB4DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Klik in MVI op de knop 'Schorsing'. De knop is beschikbaar in alle tabbladen (geen probleem als er meemalen of door verschillende mensen op de knop wordt geklikt)</t>
-  </si>
-  <si>
-    <t>Meld het probleem via de Wahtsapp-groep 'Incidenten RZ/SG/IPTV' zodat het probleem achter de schermen wordt opgepakt</t>
   </si>
   <si>
     <t>Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)</t>
@@ -413,7 +410,163 @@
     <t>In MVI, tabblad ‘Camera’, gebruik de pijltjes om de camera zo te positioneren dat de deelnemer goed zichtbaar is</t>
   </si>
   <si>
-    <t>Meld het probleem via de WhatsApp-groep ‘Incidenten RZ/SG/IPTV’ zodat het achter de schermen kan worden opgepakt</t>
+    <t>Gebruik de joystick om de camera’s op de spreker te richten</t>
+  </si>
+  <si>
+    <t>Verhuis de deelnemer naar een andere plaats in de zaal (bijvoorbeeld lege plek, katheder of plek van de wethouder). Let op: de twee plekken rechtsachter in de raadzaal zijn ingesteld voor sprekers die zittend praten</t>
+  </si>
+  <si>
+    <t>MMT neemt contact op met Jacot en koppelt terug aan de secretaris</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is, bel dan zelf Jacot en geef de aard van het incident, commissienaam en de zaal door</t>
+  </si>
+  <si>
+    <t>Pak de twee handmicrofoons uit de doos en zet ze aan (schakelaartje onderop)</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad ‘Audio in’, zet Microfoon 1 en Microfoon 2 aan (unmute)</t>
+  </si>
+  <si>
+    <t>Als beide microfoons nodig zijn, geef alvast de tweede microfoon door aan de volgende spreker</t>
+  </si>
+  <si>
+    <t>In situaties waarbij alleen de microfoon van de discussiepost defect is, gebruik dan de handmicrofoon erbij</t>
+  </si>
+  <si>
+    <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': Ambiance Mic</t>
+  </si>
+  <si>
+    <t>Laat de deelnemers harder praten. Let op: alles wat achterin gezegd wordt, is hoorbaar in de uitzending</t>
+  </si>
+  <si>
+    <t>Controleer of het stemmingsbestand ‘MVI-computer Vote_&lt;datum&gt;_&lt;tijdstip&gt;’ klopt met de actuele stemresultaten</t>
+  </si>
+  <si>
+    <t>Laat deelnemers in het stemvenster de hand opsteken om voor of tegen te stemmen</t>
+  </si>
+  <si>
+    <t>Voorzitter zegt hardop welke paartij voor en welke partij tegen was</t>
+  </si>
+  <si>
+    <t>De afspraak is dat de stemmingen niet worden verwerkt, deze worden enkel in de notulen opgenomen</t>
+  </si>
+  <si>
+    <t>De spreektijd wordt handmatig bijgehouden via MultiTimer. Deze is al op je laptop geïnstalleerd en is het ingericht voor de fracties volgens de handleiding</t>
+  </si>
+  <si>
+    <t>Controleer of de microfoonposten werken zodat mensen goed verstaanbaar zijn</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad ‘Opname’, controleer of de opname draait</t>
+  </si>
+  <si>
+    <t>Houd per fractie de spreektijd bij met MultiTimer en geef deze door aan de (cie)griffier via Whatsapp</t>
+  </si>
+  <si>
+    <t>Draait de opname niet, druk dan op ‘Start opname in Audiovisueel-recorder’ (de audio-opname start automatisch)</t>
+  </si>
+  <si>
+    <t>Verwerk het bestand volgens de handleiding. Let op: tijdens de vergadering kun je het bestand niet aanpassen daarom bevat het sjabloon al extra agendapunten zodat je deze eventueel via MVI kunt aanpassen</t>
+  </si>
+  <si>
+    <t>In MVI, tabblad ‘Start’, klik onderaan op ‘Excel laden’ en selecteer het bewerkte bestand</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en vraag of zij de stream handmatig kunnen starten via Online Manager (ook Team Informatiemanagement kan dit doen)</t>
+  </si>
+  <si>
+    <t>Na de vergadering:  bel Jacot en vraag of zij de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
+  </si>
+  <si>
+    <t>Na de vergadering: verstuur het bestand naar Company Webcast zodat ze de sprekersindexatie achteraf kunnen regelen. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte</t>
+  </si>
+  <si>
+    <t>Stemmingen worden niet automatisch getoond op het RIS</t>
+  </si>
+  <si>
+    <t>Op de MVI-PC, Bureaublad, map 'Excel' kies het juiste agendatypesjabloon:  Sjabloon &lt;agendatype&gt;.xls</t>
+  </si>
+  <si>
+    <t>Maak een kopie van het sjabloonin dezelfde map en hernoem het voeg een datum aan toe. Bijvoorbeeld: Sjabloon Commissie BWB 20250509.xls</t>
+  </si>
+  <si>
+    <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg de motie toe</t>
+  </si>
+  <si>
+    <t>Let op: achter in de zaal is alles hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
+  </si>
+  <si>
+    <t>Let op: Dit kan alleen voordat 'Pre-start' wordt gebruikt. Er wordt geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is , bel dan zelf Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
+  </si>
+  <si>
+    <t>Agendapuntwijzigingen zijn zichtbaar op de streaming. Het is niet mogelijk agendapunten te verwijderen of toe te voegen</t>
+  </si>
+  <si>
+    <t>De voorzitter of de griffier gebruiken beide het andere scherm dat nog wel werkt</t>
+  </si>
+  <si>
+    <t>Als alleen het scherm van de voorzitter nog werkt, pak dan indien nodig de bijbehorende muis en markeer de agendapunten op dat scherm</t>
+  </si>
+  <si>
+    <t>MMT haalt een monitor uit de testruimte en sluit deze aan op de plek van het defecte scherm</t>
+  </si>
+  <si>
+    <t>Spreektijden en stemmingsresultaten worden via Whatsapp gedeeld met de (cie)griffier</t>
+  </si>
+  <si>
+    <t>In Crestron: druk op de knop ‘Home’</t>
+  </si>
+  <si>
+    <t>Laat twee bodes met de handmicrofoons door de zaal lopen</t>
+  </si>
+  <si>
+    <t>Laat Jacot controleren of de opname loopt (TASCAM)</t>
+  </si>
+  <si>
+    <t>Jacot/Secretaris</t>
+  </si>
+  <si>
+    <t>Controleer of spreektijd gepauzeerd is</t>
+  </si>
+  <si>
+    <t>Controleer of spreektijd is aangezet</t>
+  </si>
+  <si>
+    <t>Bij het noodscenario wordt een opname automatisch gestart. MVI werkt niet: er kan niet worden geklikt op de agendapunten. Spreekttijd en stemmingen werken niet</t>
+  </si>
+  <si>
+    <t>Als de overzichtcamera moest worden ingeschakeld, informeer het publiek dan via iBabs dat er in aangepaste vorm wordt vergaderd</t>
+  </si>
+  <si>
+    <t>Indien de vorige stap niet lukt, toon dan het overzicht van de hele zaal met de overzichtcamera</t>
+  </si>
+  <si>
+    <t>Vereist een laptop waarop MultiTimer is geïntalleerd. Vereist handmatig comminicatie met de (cie)griffier, over spreektijd</t>
+  </si>
+  <si>
+    <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
+  </si>
+  <si>
+    <t>Minimale eis is dat er een audiobestand van gemaakt wordt (ivm notulen)</t>
+  </si>
+  <si>
+    <t>Start het AV-systeem op en start in Crestron een 'Besloten evenement' op (microfoons kunnen dan gebruikt worden en er gaat geen beeld of geluid naar buiten)</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad 'Audio uit' controleer dat er geen geluid naar IPTV, Koffie en leeskamer of Webcast CWC gaat</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad 'Beeld MMT' controleer dat er geen beeld naar IPTV of naar de Webcast gaat</t>
+  </si>
+  <si>
+    <t>Vergader alleen door als de audio-opname loopt</t>
   </si>
   <si>
     <r>
@@ -438,167 +591,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, zodat het achter de schermen kan worden opgepakt</t>
+      <t>, zodat het probleem later achter de schermen kan worden opgepakt</t>
     </r>
   </si>
   <si>
-    <t>Gebruik de joystick om de camera’s op de spreker te richten</t>
-  </si>
-  <si>
-    <t>Verhuis de deelnemer naar een andere plaats in de zaal (bijvoorbeeld lege plek, katheder of plek van de wethouder). Let op: de twee plekken rechtsachter in de raadzaal zijn ingesteld voor sprekers die zittend praten</t>
-  </si>
-  <si>
-    <t>MMT neemt contact op met Jacot en koppelt terug aan de secretaris</t>
-  </si>
-  <si>
-    <t>Als MMT niet bereikbaar is, bel dan zelf Jacot en geef de aard van het incident, commissienaam en de zaal door</t>
-  </si>
-  <si>
-    <t>Pak de twee handmicrofoons uit de doos en zet ze aan (schakelaartje onderop)</t>
-  </si>
-  <si>
-    <t>In Crestron, tabblad ‘Audio in’, zet Microfoon 1 en Microfoon 2 aan (unmute)</t>
-  </si>
-  <si>
-    <t>Als beide microfoons nodig zijn, geef alvast de tweede microfoon door aan de volgende spreker</t>
-  </si>
-  <si>
-    <t>In situaties waarbij alleen de microfoon van de discussiepost defect is, gebruik dan de handmicrofoon erbij</t>
-  </si>
-  <si>
-    <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': Ambiance Mic</t>
-  </si>
-  <si>
-    <t>Laat de deelnemers harder praten. Let op: alles wat achterin gezegd wordt, is hoorbaar in de uitzending</t>
-  </si>
-  <si>
-    <t>Controleer of het stemmingsbestand ‘MVI-computer Vote_&lt;datum&gt;_&lt;tijdstip&gt;’ klopt met de actuele stemresultaten</t>
-  </si>
-  <si>
-    <t>Laat deelnemers in het stemvenster de hand opsteken om voor of tegen te stemmen</t>
-  </si>
-  <si>
-    <t>Voorzitter zegt hardop welke paartij voor en welke partij tegen was</t>
-  </si>
-  <si>
-    <t>De afspraak is dat de stemmingen niet worden verwerkt, deze worden enkel in de notulen opgenomen</t>
-  </si>
-  <si>
-    <t>De spreektijd wordt handmatig bijgehouden via MultiTimer. Deze is al op je laptop geïnstalleerd en is het ingericht voor de fracties volgens de handleiding</t>
-  </si>
-  <si>
-    <t>Controleer of de microfoonposten werken zodat mensen goed verstaanbaar zijn</t>
-  </si>
-  <si>
-    <t>In Crestron, tabblad ‘Opname’, controleer of de opname draait</t>
-  </si>
-  <si>
-    <t>Houd per fractie de spreektijd bij met MultiTimer en geef deze door aan de (cie)griffier via Whatsapp</t>
-  </si>
-  <si>
-    <t>Draait de opname niet, druk dan op ‘Start opname in Audiovisueel-recorder’ (de audio-opname start automatisch)</t>
-  </si>
-  <si>
-    <t>Verwerk het bestand volgens de handleiding. Let op: tijdens de vergadering kun je het bestand niet aanpassen daarom bevat het sjabloon al extra agendapunten zodat je deze eventueel via MVI kunt aanpassen</t>
-  </si>
-  <si>
-    <t>In MVI, tabblad ‘Start’, klik onderaan op ‘Excel laden’ en selecteer het bewerkte bestand</t>
-  </si>
-  <si>
-    <t>Bel Company Webcast en vraag of zij de stream handmatig kunnen starten via Online Manager (ook Team Informatiemanagement kan dit doen)</t>
-  </si>
-  <si>
-    <t>Na de vergadering:  bel Jacot en vraag of zij de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
-  </si>
-  <si>
-    <t>Na de vergadering: verstuur het bestand naar Company Webcast zodat ze de sprekersindexatie achteraf kunnen regelen. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte</t>
-  </si>
-  <si>
-    <t>Stemmingen worden niet automatisch getoond op het RIS</t>
-  </si>
-  <si>
-    <t>Op de MVI-PC, Bureaublad, map 'Excel' kies het juiste agendatypesjabloon:  Sjabloon &lt;agendatype&gt;.xls</t>
-  </si>
-  <si>
-    <t>Maak een kopie van het sjabloonin dezelfde map en hernoem het voeg een datum aan toe. Bijvoorbeeld: Sjabloon Commissie BWB 20250509.xls</t>
-  </si>
-  <si>
-    <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
-  </si>
-  <si>
-    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg de motie toe</t>
-  </si>
-  <si>
-    <t>Let op: achter in de zaal is alles hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
-  </si>
-  <si>
-    <t>Let op: Dit kan alleen voordat 'Pre-start' wordt gebruikt. Er wordt geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
-  </si>
-  <si>
-    <t>Als MMT niet bereikbaar is , bel dan zelf Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
-  </si>
-  <si>
-    <t>Agendapuntwijzigingen zijn zichtbaar op de streaming. Het is niet mogelijk agendapunten te verwijderen of toe te voegen</t>
-  </si>
-  <si>
-    <t>De voorzitter of de griffier gebruiken beide het andere scherm dat nog wel werkt</t>
-  </si>
-  <si>
-    <t>Als alleen het scherm van de voorzitter nog werkt, pak dan indien nodig de bijbehorende muis en markeer de agendapunten op dat scherm</t>
-  </si>
-  <si>
-    <t>MMT haalt een monitor uit de testruimte en sluit deze aan op de plek van het defecte scherm</t>
-  </si>
-  <si>
-    <t>Spreektijden en stemmingsresultaten worden via Whatsapp gedeeld met de (cie)griffier</t>
-  </si>
-  <si>
-    <t>In Crestron: druk op de knop ‘Home’</t>
-  </si>
-  <si>
-    <t>Laat twee bodes met de handmicrofoons door de zaal lopen</t>
-  </si>
-  <si>
-    <t>Laat Jacot controleren of de opname loopt (TASCAM)</t>
-  </si>
-  <si>
-    <t>Jacot/Secretaris</t>
-  </si>
-  <si>
-    <t>Controleer of spreektijd gepauzeerd is</t>
-  </si>
-  <si>
-    <t>Controleer of spreektijd is aangezet</t>
-  </si>
-  <si>
-    <t>Bij het noodscenario wordt een opname automatisch gestart. MVI werkt niet: er kan niet worden geklikt op de agendapunten. Spreekttijd en stemmingen werken niet</t>
-  </si>
-  <si>
-    <t>Als de overzichtcamera moest worden ingeschakeld, informeer het publiek dan via iBabs dat er in aangepaste vorm wordt vergaderd</t>
-  </si>
-  <si>
-    <t>Indien de vorige stap niet lukt, toon dan het overzicht van de hele zaal met de overzichtcamera</t>
-  </si>
-  <si>
-    <t>Vereist een laptop waarop MultiTimer is geïntalleerd. Vereist handmatig comminicatie met de (cie)griffier, over spreektijd</t>
-  </si>
-  <si>
-    <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
-  </si>
-  <si>
-    <t>Minimale eis is dat er een audiobestand van gemaakt wordt (ivm notulen)</t>
-  </si>
-  <si>
-    <t>Start het AV-systeem op en start in Crestron een 'Besloten evenement' op (microfoons kunnen dan gebruikt worden en er gaat geen beeld of geluid naar buiten)</t>
-  </si>
-  <si>
-    <t>In Crestron, tabblad 'Audio uit' controleer dat er geen geluid naar IPTV, Koffie en leeskamer of Webcast CWC gaat</t>
-  </si>
-  <si>
-    <t>In Crestron, tabblad 'Beeld MMT' controleer dat er geen beeld naar IPTV of naar de Webcast gaat</t>
-  </si>
-  <si>
-    <t>Vergader alleen door als de audio-opname loopt</t>
+    <t>Meld het probleem via de WhatsApp-groep ‘Incidenten RZ/SG/IPTV’, zodat het probleem later achter de schermen kan worden opgepakt</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1167,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1178,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1222,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1236,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1258,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1283,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1319,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1336,7 +1333,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1361,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1375,7 +1372,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1386,10 +1383,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1403,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1414,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1439,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1453,7 +1450,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1467,7 +1464,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1478,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1503,7 +1500,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1556,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1570,7 +1567,7 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1625,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1680,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1694,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1708,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1722,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1739,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1753,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1767,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1781,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1795,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1812,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1826,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1840,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1854,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1868,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1882,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1896,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1910,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1924,7 +1921,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1952,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1966,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1980,7 +1977,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1994,7 +1991,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2008,7 +2005,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2022,7 +2019,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2036,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2050,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2064,7 +2061,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2078,7 +2075,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2092,7 +2089,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2106,7 +2103,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2120,7 +2117,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2134,7 +2131,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2148,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2176,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -2190,7 +2187,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2204,7 +2201,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2232,7 +2229,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2246,7 +2243,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2260,7 +2257,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2291,7 +2288,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2305,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2319,7 +2316,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2333,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -2344,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2355,7 +2352,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2369,7 +2366,7 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -2383,7 +2380,7 @@
         <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -2397,7 +2394,7 @@
         <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2425,7 +2422,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2467,7 +2464,7 @@
         <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2495,7 +2492,7 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2509,7 +2506,7 @@
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2565,7 +2562,7 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -2579,7 +2576,7 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2593,7 +2590,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2607,7 +2604,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2621,7 +2618,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2638,7 +2635,7 @@
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2666,7 +2663,7 @@
         <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2680,7 +2677,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2694,7 +2691,7 @@
         <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -2708,7 +2705,7 @@
         <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -2753,7 +2750,7 @@
         <v>67</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -2784,7 +2781,7 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2798,7 +2795,7 @@
         <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -2826,7 +2823,7 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -2843,7 +2840,7 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2857,7 +2854,7 @@
         <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -2871,7 +2868,7 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2885,7 +2882,7 @@
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2899,7 +2896,7 @@
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2916,7 +2913,7 @@
         <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -2930,7 +2927,7 @@
         <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -2958,7 +2955,7 @@
         <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2972,7 +2969,7 @@
         <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
@@ -2986,7 +2983,7 @@
         <v>82</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -3028,7 +3025,7 @@
         <v>88</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3056,7 +3053,7 @@
         <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -3070,7 +3067,7 @@
         <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3084,7 +3081,7 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3101,10 +3098,10 @@
         <v>95</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3115,7 +3112,7 @@
         <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3129,7 +3126,7 @@
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3143,7 +3140,7 @@
         <v>95</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3157,7 +3154,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3171,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3188,7 +3185,7 @@
         <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3202,7 +3199,7 @@
         <v>95</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B5C30-23E0-4DCB-B770-5CDD8FCB4DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A3E2F-1141-4BCA-8439-AB40925F4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -1622,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2343,6 +2343,9 @@
       <c r="C50" t="s">
         <v>157</v>
       </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A3E2F-1141-4BCA-8439-AB40925F4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20520" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1493" windowWidth="20520" windowHeight="8137" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -596,6 +596,36 @@
   </si>
   <si>
     <t>Meld het probleem via de WhatsApp-groep ‘Incidenten RZ/SG/IPTV’, zodat het probleem later achter de schermen kan worden opgepakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volg v erder de aanwijzingen van </t>
+  </si>
+  <si>
+    <t>Het AV-systeem gaat over op de noordvoorziening, deze duurt ongeveer 10 minuten. Wacht ongeveer 5 minuten op eventuele terugkeer van de stroom</t>
+  </si>
+  <si>
+    <t>Via iBabs: informeer het publiek dat vanwege een stroomstoring de vergadering niet verder doorgaat</t>
+  </si>
+  <si>
+    <t>Komt de stroom na 5 minuten niet terug dan begin meteen met het afsluiten van de vergadering zodat er geen gegevens verloren gaan. Ga naar MVI en sluit de vergadering af door in tab ‘Start’ op de knop ‘Vergadering stoppen’ te drukken</t>
+  </si>
+  <si>
+    <t>Komt de stroom binnen de 5 minuten weer terug (voordat de vergadering werd afgesloten), dan kan worden doorvergaderd en zijn onderstaande stappen niet meer nodig</t>
+  </si>
+  <si>
+    <t>Komt de stroom na het afsluiten van de vergadering weer terug, dan start het systeem weer automatisch op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel Company Webcast en vraag of zij een nieuwen stream willen aanmaken en deze willen koppelen aan de bestaande vergadering  </t>
+  </si>
+  <si>
+    <t>Start de vergadering op in MVI door op de knop 'Start vergadering' te klikken</t>
+  </si>
+  <si>
+    <t>Na de vergadering: vraag aan Company Webcast of ze over beide opnames beschikken en of ze beide opnames kunnen samenvoegen tot één vergadering</t>
+  </si>
+  <si>
+    <t>Via iBabs: informeer het publiek dat er wordt gewerkt aan het samenvoegen van dem uitzending na de stroomstoring</t>
   </si>
 </sst>
 </file>
@@ -669,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -682,6 +712,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3242,18 +3275,267 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="28.5">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
+        <v>103</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>103</v>
+      </c>
+      <c r="C114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>103</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>103</v>
+      </c>
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>103</v>
+      </c>
+      <c r="C119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>103</v>
+      </c>
+      <c r="C121" t="s">
+        <v>98</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>103</v>
+      </c>
+      <c r="C122" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>103</v>
+      </c>
+      <c r="C123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>103</v>
+      </c>
+      <c r="C124" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>103</v>
+      </c>
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>103</v>
+      </c>
+      <c r="C126" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>103</v>
+      </c>
+      <c r="C127" t="s">
+        <v>101</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>103</v>
+      </c>
+      <c r="C128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>103</v>
+      </c>
+      <c r="C129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="28.5">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="7">
         <v>107</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D130" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>107</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F28568B5-4BE1-4106-86F9-92564286A7A3}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1493" windowWidth="20520" windowHeight="8137" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Wacht max 5 minuten, indien geen stroom sluit de vergadering af</t>
-  </si>
-  <si>
-    <t>Er is stroom voor maximaal 15 minuten, als de vergadering niet op tijd afgesloten dan gaat de opname tot dan toe verloren</t>
   </si>
   <si>
     <t>Bij een stroomstoring waarbij het systeem overgaat naar noodstroom, wordt deze melding zichtbaar in Crestron</t>
@@ -601,15 +598,9 @@
     <t xml:space="preserve">Volg v erder de aanwijzingen van </t>
   </si>
   <si>
-    <t>Het AV-systeem gaat over op de noordvoorziening, deze duurt ongeveer 10 minuten. Wacht ongeveer 5 minuten op eventuele terugkeer van de stroom</t>
-  </si>
-  <si>
     <t>Via iBabs: informeer het publiek dat vanwege een stroomstoring de vergadering niet verder doorgaat</t>
   </si>
   <si>
-    <t>Komt de stroom na 5 minuten niet terug dan begin meteen met het afsluiten van de vergadering zodat er geen gegevens verloren gaan. Ga naar MVI en sluit de vergadering af door in tab ‘Start’ op de knop ‘Vergadering stoppen’ te drukken</t>
-  </si>
-  <si>
     <t>Komt de stroom binnen de 5 minuten weer terug (voordat de vergadering werd afgesloten), dan kan worden doorvergaderd en zijn onderstaande stappen niet meer nodig</t>
   </si>
   <si>
@@ -626,13 +617,25 @@
   </si>
   <si>
     <t>Via iBabs: informeer het publiek dat er wordt gewerkt aan het samenvoegen van dem uitzending na de stroomstoring</t>
+  </si>
+  <si>
+    <t>Het AV-systeem gaat over op de noordvoorziening, deze duurt maximaal 15 minuten. Wacht ongeveer 5 minuten op eventuele terugkeer van de stroom</t>
+  </si>
+  <si>
+    <t>Komt de stroom na 5 minuten niet terug dan begin direct met het afsluiten van de vergadering . Ga naar MVI en sluit de vergadering af door in tab ‘Start’ op de knop ‘Vergadering stoppen’ te drukken</t>
+  </si>
+  <si>
+    <t>Er is stroom voor maximaal 15 minuten, als de vergadering niet op tijd is wordt afgesloten dan gaat de opname tot dan toe verloren</t>
+  </si>
+  <si>
+    <t>Vergadering hervatten nadat deze gesloten werd wegens stroomstoring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,13 +1027,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1062,15 +1065,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1150,12 +1153,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1172,13 +1175,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1197,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1218,19 +1221,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.73046875" customWidth="1"/>
-    <col min="4" max="4" width="106.1328125" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="4" max="4" width="106.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1252,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1266,10 +1269,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1277,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1288,13 +1291,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1313,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -1338,10 +1341,10 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26</v>
       </c>
@@ -1349,13 +1352,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1363,13 +1366,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>37</v>
       </c>
@@ -1391,10 +1394,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1405,10 +1408,10 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>45</v>
       </c>
@@ -1416,13 +1419,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>49</v>
       </c>
@@ -1433,10 +1436,10 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>52</v>
       </c>
@@ -1444,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>60</v>
       </c>
@@ -1469,10 +1472,10 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -1483,10 +1486,10 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>67</v>
       </c>
@@ -1497,10 +1500,10 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>70</v>
       </c>
@@ -1508,10 +1511,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>74</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>78</v>
       </c>
@@ -1533,10 +1536,10 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>82</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>85</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>91</v>
       </c>
@@ -1586,10 +1589,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>95</v>
       </c>
@@ -1600,10 +1603,10 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>99</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>103</v>
       </c>
@@ -1628,21 +1631,32 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>107</v>
       </c>
       <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>110</v>
+      </c>
+      <c r="B33">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1653,22 +1667,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:A131"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="126.59765625" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1702,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1710,13 +1724,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1724,13 +1738,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1738,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1752,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1761,7 +1775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1769,13 +1783,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1783,13 +1797,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1797,13 +1811,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1811,13 +1825,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1834,7 +1848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1842,13 +1856,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1856,13 +1870,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1870,13 +1884,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1884,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1898,13 +1912,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1912,13 +1926,13 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1926,13 +1940,13 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1940,13 +1954,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1954,13 +1968,13 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1974,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1982,13 +1996,13 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1996,13 +2010,13 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2010,13 +2024,13 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2024,13 +2038,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2038,13 +2052,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2052,13 +2066,13 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2066,13 +2080,13 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2080,13 +2094,13 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2094,13 +2108,13 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2108,13 +2122,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2122,13 +2136,13 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2136,13 +2150,13 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2150,13 +2164,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2164,13 +2178,13 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2178,13 +2192,13 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2206,13 +2220,13 @@
         <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2220,13 +2234,13 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2234,13 +2248,13 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2254,7 +2268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2262,13 +2276,13 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2276,13 +2290,13 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2290,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2299,7 +2313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2321,13 +2335,13 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2335,13 +2349,13 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2349,13 +2363,13 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2363,24 +2377,24 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2388,13 +2402,13 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2402,13 +2416,13 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2416,13 +2430,13 @@
         <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2430,13 +2444,13 @@
         <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2450,7 +2464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2458,13 +2472,13 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2478,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2492,7 +2506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2500,13 +2514,13 @@
         <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2528,13 +2542,13 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2542,13 +2556,13 @@
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2562,7 +2576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2576,7 +2590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2590,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2598,13 +2612,13 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2612,13 +2626,13 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2626,13 +2640,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2640,13 +2654,13 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2654,7 +2668,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2663,7 +2677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2671,13 +2685,13 @@
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2699,13 +2713,13 @@
         <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2713,13 +2727,13 @@
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2727,13 +2741,13 @@
         <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2741,13 +2755,13 @@
         <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2761,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2778,7 +2792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2786,7 +2800,7 @@
         <v>67</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -2795,7 +2809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2809,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2817,13 +2831,13 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2831,13 +2845,13 @@
         <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2851,7 +2865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2859,7 +2873,7 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -2868,7 +2882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2876,13 +2890,13 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2890,13 +2904,13 @@
         <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2904,13 +2918,13 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2918,13 +2932,13 @@
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" customHeight="1">
+    <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2932,7 +2946,7 @@
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2941,7 +2955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2949,13 +2963,13 @@
         <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2963,13 +2977,13 @@
         <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2983,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2991,13 +3005,13 @@
         <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3005,13 +3019,13 @@
         <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3019,13 +3033,13 @@
         <v>82</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3039,7 +3053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3053,7 +3067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3061,13 +3075,13 @@
         <v>88</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3081,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3089,13 +3103,13 @@
         <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3103,13 +3117,13 @@
         <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3117,7 +3131,7 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3126,7 +3140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3134,13 +3148,13 @@
         <v>95</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3148,13 +3162,13 @@
         <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3162,13 +3176,13 @@
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3176,13 +3190,13 @@
         <v>95</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3190,13 +3204,13 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3204,7 +3218,7 @@
         <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3213,7 +3227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3221,13 +3235,13 @@
         <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3235,13 +3249,13 @@
         <v>95</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3255,10 +3269,10 @@
         <v>74</v>
       </c>
       <c r="E111" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3266,16 +3280,16 @@
         <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3283,13 +3297,13 @@
         <v>103</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3297,10 +3311,13 @@
         <v>103</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3308,13 +3325,13 @@
         <v>103</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3322,63 +3339,63 @@
         <v>103</v>
       </c>
       <c r="C116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C117" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C118" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -3387,155 +3404,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="28.5">
-      <c r="A130">
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>128</v>
       </c>
-      <c r="B130" s="7">
-        <v>107</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="B131" s="7">
+        <v>110</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131">
+      <c r="D131" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>129</v>
       </c>
-      <c r="B131">
-        <v>107</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>161</v>
+      <c r="B132">
+        <v>110</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F28568B5-4BE1-4106-86F9-92564286A7A3}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56D1C05-ED88-48AF-A3FA-44E718DFFFD0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -610,9 +610,6 @@
     <t xml:space="preserve">Bel Company Webcast en vraag of zij een nieuwen stream willen aanmaken en deze willen koppelen aan de bestaande vergadering  </t>
   </si>
   <si>
-    <t>Start de vergadering op in MVI door op de knop 'Start vergadering' te klikken</t>
-  </si>
-  <si>
     <t>Na de vergadering: vraag aan Company Webcast of ze over beide opnames beschikken en of ze beide opnames kunnen samenvoegen tot één vergadering</t>
   </si>
   <si>
@@ -629,6 +626,62 @@
   </si>
   <si>
     <t>Vergadering hervatten nadat deze gesloten werd wegens stroomstoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start de vergadering op in MVI door op de knop 'Start vergadering' te klikken </t>
+  </si>
+  <si>
+    <t>Klik dan op de knop 'Pre-start vergadering' in dezelfde vergadering</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indien de camera niet zichtbaar is ofbij besloten vergaderingen, ga in Crestron naar de tab </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘Opname’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en klik op </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘Start opname in Audiovisueel-recorder’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. De audio-opname start dan ook automatisch</t>
+    </r>
+  </si>
+  <si>
+    <t>Na de vergadering: indien Company webcast niet over beide opnames beschikt haal de opname (video/audio) van de MVI-computer en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1631,7 +1684,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3297,13 +3350,13 @@
         <v>103</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3317,7 +3370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3325,13 +3378,13 @@
         <v>103</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3345,7 +3398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3359,7 +3412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3373,7 +3426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3381,13 +3434,13 @@
         <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3404,7 +3457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3412,13 +3465,13 @@
         <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3432,35 +3485,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>121</v>
-      </c>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124">
         <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3468,90 +3518,51 @@
         <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>107</v>
-      </c>
-      <c r="C127" t="s">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="B127" s="7">
+        <v>110</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B128">
-        <v>107</v>
-      </c>
-      <c r="C128" t="s">
-        <v>101</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>107</v>
-      </c>
-      <c r="C129" t="s">
-        <v>102</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>128</v>
-      </c>
-      <c r="B131" s="7">
         <v>110</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D131" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>129</v>
-      </c>
-      <c r="B132">
-        <v>110</v>
-      </c>
-      <c r="C132" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>160</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56D1C05-ED88-48AF-A3FA-44E718DFFFD0}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA6F20D-47B3-417C-AC1B-CD9C89C46FD0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Na de vergadering: indien Company webcast niet over beide opnames beschikt haal de opname (video/audio) van de MVI-computer en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
+  </si>
+  <si>
+    <t>Controleer op het RIS dat de streaming wordt uitgezonden</t>
   </si>
 </sst>
 </file>
@@ -1720,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,6 +3489,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
       <c r="B123">
         <v>107</v>
       </c>
@@ -3498,13 +3504,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>107</v>
       </c>
-      <c r="C124" t="s">
-        <v>166</v>
+      <c r="C124" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3518,7 +3524,7 @@
         <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3526,43 +3532,57 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>107</v>
       </c>
       <c r="C126" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>107</v>
+      </c>
+      <c r="C127" t="s">
         <v>174</v>
       </c>
-      <c r="D126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>128</v>
-      </c>
-      <c r="B127" s="7">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="7">
         <v>110</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>129</v>
-      </c>
-      <c r="B128">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
         <v>110</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>160</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\157294\OneDrive - Gemeente Rotterdam\2025\Belangrijke docs\Protocollen\Naar app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{F8A13F0F-099A-47A3-9577-A87CB8E17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA6F20D-47B3-417C-AC1B-CD9C89C46FD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21555" yWindow="-13410" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -595,9 +595,6 @@
     <t>Meld het probleem via de WhatsApp-groep ‘Incidenten RZ/SG/IPTV’, zodat het probleem later achter de schermen kan worden opgepakt</t>
   </si>
   <si>
-    <t xml:space="preserve">Volg v erder de aanwijzingen van </t>
-  </si>
-  <si>
     <t>Via iBabs: informeer het publiek dat vanwege een stroomstoring de vergadering niet verder doorgaat</t>
   </si>
   <si>
@@ -685,6 +682,59 @@
   </si>
   <si>
     <t>Controleer op het RIS dat de streaming wordt uitgezonden</t>
+  </si>
+  <si>
+    <t>Controleer of de vergadering niet op Geschorst staat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indien genoeg tijd: vergadering stoppen en in iBabs aanpassen </t>
+  </si>
+  <si>
+    <t>Een niet gebruikte pas aanpassen met gegevens deelnemer</t>
+  </si>
+  <si>
+    <t>Let op: Bij stemmingen moet jacot controleer of deelnemer met de nieuwe pas kan stemmen en eventueel rechten toevoegen</t>
+  </si>
+  <si>
+    <t>Pajesapparaat-2.png</t>
+  </si>
+  <si>
+    <t>Kies een pas waarvan je zeker weet dat deze niet wordt gebruikt  is (bijvoorbeeld van een inspreker of adviseur) en leg deze op het pasjesapparaat</t>
+  </si>
+  <si>
+    <t>Pas de velden: 'Naam' (Achternaam, voorvoelgsels, voorletters (voornaam)), 'Functie' en 'Partij' aan. 'Naam' en 'Functie' worden op de streaming zichtbaar. 
+De Partij bepaalt (indien van toepassing) bij welke fractie de spreektijd wordt opgeteld.</t>
+  </si>
+  <si>
+    <t>Pasgegevens.png</t>
+  </si>
+  <si>
+    <t>Moet de deelnemer stemmen? Bel Jacot om te laten controleren of deze deelnemer stemrechten heeft.
+Stemrechten op de pasjes worden in principe beheerd via iBabs en doorgegeven aan MVI via de koppeling, maar in geval van nood kan Jacot dit rechtstreeks in MVI aanpassen terwijl de vergadering gaande is.</t>
+  </si>
+  <si>
+    <t>Vergadering is gestart maar er ontbreken deelnemers (niet in lijst 'Uitgenodigd' in iBabs)</t>
+  </si>
+  <si>
+    <t>Streaming is dan niet meer gekoppeld. Coompany Webcast  moet een nieuwe streaming aanmaken en aan de vergadering koppelen</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en vraag ze een nieuwe stream aan te maken en deze te koppelen aan de vergadering</t>
+  </si>
+  <si>
+    <t>In iBabs voeg alle deelnemers aan de vergadering toe in vel Genodigden. In de Gemeenteraad en Actualiteitenraad moeten deze ook toegevoegd zijn aan het veld 'Aanwezigen/Afwezigen'</t>
+  </si>
+  <si>
+    <t>Stop de vergadering via MVI</t>
+  </si>
+  <si>
+    <t>Klik dan op de knop 'Pre-start vergadering' in dezelfde vergadering en na de voorbereidingen klik op de knop 'Vergadering starten'</t>
+  </si>
+  <si>
+    <t>Controleer op het RIS of de streaming daadwerkelijk wordt uitgezonden</t>
+  </si>
+  <si>
+    <t>Volg verder de aanwijzingen van de voorzitter of andere bevoegden (afhankelijk van de stituatie)</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,15 +1184,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,15 +1224,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,6 +1264,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1225,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11D0D4-19BB-4242-94B6-6D4454AC0279}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,9 +1322,20 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1277,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,54 +1399,60 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1388,141 +1463,138 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>91</v>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1533,60 +1605,60 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1597,121 +1669,146 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B32">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>15</v>
       </c>
       <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1723,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,41 +2034,47 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,24 +2082,24 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2007,10 +2110,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2021,10 +2124,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2035,10 +2138,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2049,13 +2152,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,10 +2166,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2077,13 +2180,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,13 +2194,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,10 +2208,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2119,13 +2222,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,13 +2236,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,10 +2250,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2161,13 +2264,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,13 +2278,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>113</v>
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,21 +2292,21 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>26</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>114</v>
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
         <v>159</v>
@@ -2212,926 +2315,929 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>34</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>117</v>
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s">
-        <v>159</v>
+        <v>26</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>41</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>41</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>159</v>
+        <v>34</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>41</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>45</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
         <v>155</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>45</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C58" t="s">
         <v>156</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="C63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>49</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>49</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>49</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>49</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>49</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>49</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>49</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>56</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>49</v>
-      </c>
-      <c r="C59" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>52</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+      <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>52</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
         <v>107</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>52</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="C75" t="s">
         <v>108</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>56</v>
-      </c>
-      <c r="C63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>56</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>64</v>
-      </c>
-      <c r="C68" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>64</v>
-      </c>
-      <c r="C69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>64</v>
-      </c>
-      <c r="C70" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>64</v>
-      </c>
-      <c r="C71" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>64</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>64</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>64</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>64</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>64</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>64</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>64</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>64</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>64</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
         <v>67</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
         <v>67</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
         <v>67</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
         <v>70</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C88" t="s">
         <v>68</v>
       </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
         <v>70</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C89" t="s">
         <v>93</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
         <v>70</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C90" t="s">
         <v>136</v>
       </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>74</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>74</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>74</v>
-      </c>
-      <c r="C85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>74</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>74</v>
-      </c>
-      <c r="C87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>74</v>
-      </c>
-      <c r="C90" t="s">
-        <v>101</v>
-      </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>85</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="C96" t="s">
+        <v>159</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>88</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>88</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>141</v>
+        <v>74</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3139,13 +3245,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3153,86 +3259,83 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>95</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>152</v>
+        <v>82</v>
+      </c>
+      <c r="C103" t="s">
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>95</v>
-      </c>
-      <c r="C104" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>95</v>
-      </c>
-      <c r="C105" t="s">
-        <v>143</v>
+        <v>88</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3240,13 +3343,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3254,13 +3357,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3268,30 +3371,27 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3299,61 +3399,58 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>95</v>
       </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>99</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
-      </c>
-      <c r="E111" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>103</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="C112" t="s">
+        <v>109</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>103</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
+      </c>
+      <c r="C113" t="s">
+        <v>143</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -3361,13 +3458,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>103</v>
-      </c>
-      <c r="C114" t="s">
-        <v>162</v>
+        <v>95</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3375,13 +3472,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>103</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>168</v>
+        <v>95</v>
+      </c>
+      <c r="C115" t="s">
+        <v>99</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -3389,27 +3486,30 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3417,13 +3517,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3431,44 +3531,47 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>107</v>
-      </c>
-      <c r="C119" t="s">
-        <v>172</v>
+        <v>99</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>74</v>
+      </c>
+      <c r="E119" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>107</v>
-      </c>
-      <c r="C120" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>107</v>
-      </c>
-      <c r="C121" t="s">
-        <v>173</v>
+        <v>103</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3476,27 +3579,27 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>107</v>
-      </c>
-      <c r="C123" t="s">
-        <v>171</v>
+        <v>103</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3504,13 +3607,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>107</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>175</v>
+        <v>103</v>
+      </c>
+      <c r="C124" t="s">
+        <v>160</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3518,13 +3621,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3532,13 +3635,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -3546,44 +3649,162 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>107</v>
       </c>
       <c r="C127" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>107</v>
+      </c>
+      <c r="C128" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>107</v>
+      </c>
+      <c r="C129" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>107</v>
+      </c>
+      <c r="C130" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>107</v>
+      </c>
+      <c r="C131" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>107</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>107</v>
+      </c>
+      <c r="C133" t="s">
+        <v>165</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>107</v>
+      </c>
+      <c r="C134" t="s">
+        <v>164</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>107</v>
+      </c>
+      <c r="C135" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>126</v>
-      </c>
-      <c r="B128" s="7">
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="7">
         <v>110</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D136" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
         <v>110</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>160</v>
+      <c r="C137" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\157294\OneDrive - Gemeente Rotterdam\2025\Belangrijke docs\Protocollen\Naar app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC94C73-64A9-4CF7-A4B4-A00AE53DE8FE}"/>
   <bookViews>
-    <workbookView xWindow="21555" yWindow="-13410" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17250" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -696,9 +696,6 @@
     <t>Let op: Bij stemmingen moet jacot controleer of deelnemer met de nieuwe pas kan stemmen en eventueel rechten toevoegen</t>
   </si>
   <si>
-    <t>Pajesapparaat-2.png</t>
-  </si>
-  <si>
     <t>Kies een pas waarvan je zeker weet dat deze niet wordt gebruikt  is (bijvoorbeeld van een inspreker of adviseur) en leg deze op het pasjesapparaat</t>
   </si>
   <si>
@@ -735,6 +732,9 @@
   </si>
   <si>
     <t>Volg verder de aanwijzingen van de voorzitter of andere bevoegden (afhankelijk van de stituatie)</t>
+  </si>
+  <si>
+    <t>Pasjesapparaat-2</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,13 +2037,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2054,13 +2054,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>181</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2113,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2127,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2141,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -3801,7 +3801,7 @@
         <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D137" t="s">
         <v>74</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC94C73-64A9-4CF7-A4B4-A00AE53DE8FE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E05503-33F9-4CCE-96DD-3CC8ED1B0270}"/>
   <bookViews>
     <workbookView xWindow="17250" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
     <t>Volg verder de aanwijzingen van de voorzitter of andere bevoegden (afhankelijk van de stituatie)</t>
   </si>
   <si>
-    <t>Pasjesapparaat-2</t>
+    <t>Pasjesapparaat</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E05503-33F9-4CCE-96DD-3CC8ED1B0270}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61BC5BA-5D8C-4487-A47E-810EA858E870}"/>
   <bookViews>
     <workbookView xWindow="17250" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
     <t>Volg verder de aanwijzingen van de voorzitter of andere bevoegden (afhankelijk van de stituatie)</t>
   </si>
   <si>
-    <t>Pasjesapparaat</t>
+    <t>Pasjesapparaat.png</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{87999092-830F-4FAF-9F26-F0EACBB55C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61BC5BA-5D8C-4487-A47E-810EA858E870}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59209F3-29EF-45C1-BA50-BED1A875C9CB}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5595" yWindow="-15225" windowWidth="23115" windowHeight="14025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Handleiding</t>
   </si>
   <si>
-    <t>Deelnemers worden niet optimaal in beeld gebracht</t>
-  </si>
-  <si>
     <t>Sprekers zijn niet goed te horen of te verstaan</t>
   </si>
   <si>
@@ -196,33 +193,18 @@
     <t>Gaat het om een agendapunt: dubbelklik op de tekst, er verschijnt een klein venster waar je de tekst kunt aanpassen</t>
   </si>
   <si>
-    <t>NOG TE CONTROLEREN WAT WORDT DOORGEGEVEN AAN IBABS NA EEN HADMATIGE AANPASSING IN MVI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunnen moties echt worden toegevoegd? Of alleen </t>
-  </si>
-  <si>
     <t>Bij één defect monitor: kijkt voorzitter en (cie)griffier naar één monitor</t>
   </si>
   <si>
     <t xml:space="preserve">In dit geval moet de muis indien nodig gedeeld worden </t>
   </si>
   <si>
-    <t>Bij twee defecte monitoren: Team Multimedia vervangt een monitor</t>
-  </si>
-  <si>
     <t>Ondersteuning neemt bediening MVI over en communiceert via de app met (cie)griffier</t>
   </si>
   <si>
-    <t>Als het lukt dan is er één werkend monitor, de muis wordt indien nodig gedeeld door voorzitten en (cie)griffier</t>
-  </si>
-  <si>
     <t>Alle belangrijke momenten communiceren via Whatsapp</t>
   </si>
   <si>
-    <t>MMT pakt een van de monitoren van de testruimte en koppelt op de plek van de defecte monitor</t>
-  </si>
-  <si>
     <t>Raads- of commissieondersteuning markeert de agendapunten</t>
   </si>
   <si>
@@ -305,9 +287,6 @@
   </si>
   <si>
     <t>MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
-  </si>
-  <si>
-    <t>Als MMT niet bereikbaar is, bel dan zelf Company Webcast en geef de aard van het incident, commissienaam en de zaal door</t>
   </si>
   <si>
     <t>Informeer de (commissie)griffier dat er geen livestream zal zijn</t>
@@ -491,9 +470,6 @@
     <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
   </si>
   <si>
-    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg de motie toe</t>
-  </si>
-  <si>
     <t>Let op: achter in de zaal is alles hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
   </si>
   <si>
@@ -518,9 +494,6 @@
     <t>Spreektijden en stemmingsresultaten worden via Whatsapp gedeeld met de (cie)griffier</t>
   </si>
   <si>
-    <t>In Crestron: druk op de knop ‘Home’</t>
-  </si>
-  <si>
     <t>Laat twee bodes met de handmicrofoons door de zaal lopen</t>
   </si>
   <si>
@@ -548,9 +521,6 @@
     <t>Vereist een laptop waarop MultiTimer is geïntalleerd. Vereist handmatig comminicatie met de (cie)griffier, over spreektijd</t>
   </si>
   <si>
-    <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
-  </si>
-  <si>
     <t>Minimale eis is dat er een audiobestand van gemaakt wordt (ivm notulen)</t>
   </si>
   <si>
@@ -561,9 +531,6 @@
   </si>
   <si>
     <t>In Crestron, tabblad 'Beeld MMT' controleer dat er geen beeld naar IPTV of naar de Webcast gaat</t>
-  </si>
-  <si>
-    <t>Vergader alleen door als de audio-opname loopt</t>
   </si>
   <si>
     <r>
@@ -684,16 +651,10 @@
     <t>Controleer op het RIS dat de streaming wordt uitgezonden</t>
   </si>
   <si>
-    <t>Controleer of de vergadering niet op Geschorst staat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indien genoeg tijd: vergadering stoppen en in iBabs aanpassen </t>
   </si>
   <si>
     <t>Een niet gebruikte pas aanpassen met gegevens deelnemer</t>
-  </si>
-  <si>
-    <t>Let op: Bij stemmingen moet jacot controleer of deelnemer met de nieuwe pas kan stemmen en eventueel rechten toevoegen</t>
   </si>
   <si>
     <t>Kies een pas waarvan je zeker weet dat deze niet wordt gebruikt  is (bijvoorbeeld van een inspreker of adviseur) en leg deze op het pasjesapparaat</t>
@@ -713,9 +674,6 @@
     <t>Vergadering is gestart maar er ontbreken deelnemers (niet in lijst 'Uitgenodigd' in iBabs)</t>
   </si>
   <si>
-    <t>Streaming is dan niet meer gekoppeld. Coompany Webcast  moet een nieuwe streaming aanmaken en aan de vergadering koppelen</t>
-  </si>
-  <si>
     <t>Bel Company Webcast en vraag ze een nieuwe stream aan te maken en deze te koppelen aan de vergadering</t>
   </si>
   <si>
@@ -735,13 +693,106 @@
   </si>
   <si>
     <t>Pasjesapparaat.png</t>
+  </si>
+  <si>
+    <t>Streaming is dan niet meer gekoppeld. Company Webcast  moet een nieuwe streaming aanmaken en aan de vergadering koppelen</t>
+  </si>
+  <si>
+    <t>Let op: Bij stemmingen moet jacot controleren of deelnemer met de nieuwe pas kan stemmen en eventueel rechten toevoegen</t>
+  </si>
+  <si>
+    <t>Deelnemers worden niet optimaal in beeld gebracht (niet in beeld of te hoog/laag)</t>
+  </si>
+  <si>
+    <t>Start de streaming handmatig via Online Manager van Company Webcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is, bel dan zelf Company Webcast en geef de aard van het incident, commissienaam en de zaal door. Laat daarbij Company Webcast controleren of de webcast automatisch is opgestart. Indien niet, opstarten</t>
+  </si>
+  <si>
+    <t>Alleen als je toegang hebt tot Online Manager</t>
+  </si>
+  <si>
+    <t>Laat vervolgens door Company Webcast controleren of de webcast automatisch is opgestart. Is dit niet het geval, vraag hen dan om de webcast op te starten</t>
+  </si>
+  <si>
+    <t>Als je zelf toegang hebt tot channel.royalcast.com van Company Webcast, ga naar de webcast van je vergadering. Kies in de lijst 'Open other applications' voor 'Live manager page'. Controleer of de streaming loopt en start deze indien nodig</t>
+  </si>
+  <si>
+    <t>Let op: wanneer de streaming handmatig wordt opgestart, wordt er niet live geïndexeerd, dit moet Company Webcast later toevoegen</t>
+  </si>
+  <si>
+    <t>Na de vergadering: Let wel op dat de webcast wel stopt nadat de vergadering is gestopt via MVI. Is dit niet het geval dan kun je dit zelf doen via channel.royalcast.com of bel Company Webcast en vraag ze de vergadering te stoppen</t>
+  </si>
+  <si>
+    <t>Indien geluid te zacht/hard: volume aanpassen</t>
+  </si>
+  <si>
+    <t>Bel team Multimedia en geef door welke microfoon stuk is</t>
+  </si>
+  <si>
+    <t>Normaal heeft MMT microfoons op voorraad</t>
+  </si>
+  <si>
+    <t>MMT haalt een microfoon uit de voorraad of uit de testruimte en vervangt deze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Crestron, tab 'Audio in' bij 'Discussie', de groene balk rechts omhoog (harder) of omlaag (zachter) schuiven. De aanpassing geldt voor alle microfoonposten, het is op dit moment (nog) niet mogelijk het geluid per microfoonpost aan te passen </t>
+  </si>
+  <si>
+    <t>VolumeCrestron.png</t>
+  </si>
+  <si>
+    <t>Bel team Multimedia en geef door dat de knop 'Besloten' niet werkt</t>
+  </si>
+  <si>
+    <t>Indien microfoon gebroken: microfoon vervangen</t>
+  </si>
+  <si>
+    <t>Jacot zet op afstand de vergadering op 'Besloten'</t>
+  </si>
+  <si>
+    <t>Indien MMT niet bereikbaar is, bel je Jacot met de vraag of ze de vergadering op 'Besloten' willen zetten</t>
+  </si>
+  <si>
+    <t>MMT vraagt Jacot op afstand de vergadering op 'Besloten' te zetten en koppelt terug aan de secretaris</t>
+  </si>
+  <si>
+    <t>Gaat het om motie, amendement, raadsvoorstel, etc. waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg het item toe. Let wel op dat het resultaat van de stemming niet doorgegeven wordt aan iBabs</t>
+  </si>
+  <si>
+    <t>Gaat het om een motie, amendement, raadsvoorstel, etc.? Het toevoegen in MVI is dan niet voldoende. Zelfs wanneer synchronisatie met iBabs niet mogelijk is, blijft het noodzakelijk om deze items handmatig in iBabs toe te voegen</t>
+  </si>
+  <si>
+    <t>Jacot maakt in overleg met de (cie)griffier de overweging of het gegeven de omstandigheden, verstandig is door te vergaderen</t>
+  </si>
+  <si>
+    <t>Jacot/(cie)griffier</t>
+  </si>
+  <si>
+    <t>Indien doorvergaderen: In Crestron: druk op de knop ‘Home’</t>
+  </si>
+  <si>
+    <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'  of laat Jacot dit doen op afstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andere optie is dat je Company Webcast belt (ook Team Informatiemanagement kan dit doen) en hen vraagt de webcast op te starten, geef daarbij de naam van de vergadering en de vergaderlokaal door </t>
+  </si>
+  <si>
+    <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Meeting&lt;datum_tijdstip&gt;.pdf' verwerk de stemminge handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
+  </si>
+  <si>
+    <t>Let op: als je wilt controleren of de deelnemer inderdaad kan stemmen met de aangepast pas, kun je dit NIET doen tijdens 'Schorsing'. Als de vergadering is geschorst werkt het stemmen wel maar deze zijn niet geldig en dus wordt niets doorgegeven aan iBabs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +822,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -808,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -824,6 +880,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,7 +1189,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1216,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1307,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1331,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1283,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11D0D4-19BB-4242-94B6-6D4454AC0279}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,31 +1384,21 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,436 +1429,461 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>103</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>110</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>16</v>
       </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>84</v>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1820,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1877,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1891,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1902,10 +1976,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1916,16 +1990,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,10 +2004,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1947,13 +2018,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,10 +2032,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1975,10 +2046,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1992,13 +2063,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,10 +2077,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,7 +2094,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2034,492 +2105,495 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>182</v>
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>187</v>
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>186</v>
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>188</v>
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>159</v>
+      <c r="C23" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>149</v>
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>26</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>26</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>114</v>
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>34</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>34</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>117</v>
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>34</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2530,13 +2604,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>37</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,13 +2618,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>37</v>
-      </c>
-      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2558,10 +2632,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2572,16 +2646,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>41</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>119</v>
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2589,10 +2660,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2603,13 +2674,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2617,13 +2688,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
+        <v>34</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,13 +2702,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>120</v>
+        <v>34</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2645,13 +2716,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s">
-        <v>155</v>
+        <v>34</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,13 +2730,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,13 +2744,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2687,13 +2758,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,13 +2772,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,13 +2786,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>45</v>
-      </c>
-      <c r="C62" t="s">
-        <v>159</v>
+        <v>41</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,10 +2803,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>49</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2743,700 +2817,689 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>49</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>154</v>
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>49</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>49</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>56</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>64</v>
-      </c>
-      <c r="C76" t="s">
-        <v>130</v>
+        <v>49</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s">
-        <v>131</v>
+        <v>49</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>64</v>
-      </c>
-      <c r="C78" t="s">
-        <v>124</v>
+        <v>49</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="F78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>64</v>
-      </c>
-      <c r="C79" t="s">
-        <v>125</v>
+        <v>49</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>64</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>148</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>64</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>64</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>64</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>67</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>67</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>74</v>
-      </c>
-      <c r="C93" t="s">
-        <v>97</v>
+        <v>64</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>74</v>
-      </c>
-      <c r="C96" t="s">
-        <v>159</v>
+        <v>64</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>74</v>
-      </c>
-      <c r="C97" t="s">
-        <v>100</v>
+        <v>64</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="F97" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>74</v>
-      </c>
-      <c r="C98" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>74</v>
-      </c>
-      <c r="C99" t="s">
-        <v>102</v>
+        <v>67</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>78</v>
-      </c>
-      <c r="C100" t="s">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>78</v>
-      </c>
-      <c r="C101" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>82</v>
-      </c>
-      <c r="C103" t="s">
-        <v>139</v>
+        <v>67</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>88</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>141</v>
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>148</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
-      <c r="E110" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>95</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>152</v>
+        <v>74</v>
+      </c>
+      <c r="C111" t="s">
+        <v>89</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3447,13 +3510,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,10 +3524,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>95</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>144</v>
+        <v>74</v>
+      </c>
+      <c r="C114" t="s">
+        <v>92</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3475,30 +3538,30 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3506,10 +3569,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3520,10 +3583,10 @@
         <v>117</v>
       </c>
       <c r="B118">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
         <v>95</v>
-      </c>
-      <c r="C118" t="s">
-        <v>102</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3534,16 +3597,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>99</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>74</v>
-      </c>
-      <c r="E119" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3551,16 +3611,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>103</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="C120" t="s">
+        <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,13 +3625,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>103</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>166</v>
+        <v>82</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3582,13 +3639,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3596,10 +3653,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3610,10 +3667,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>103</v>
-      </c>
-      <c r="C124" t="s">
-        <v>160</v>
+        <v>88</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3624,10 +3681,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3638,13 +3695,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,10 +3709,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -3666,16 +3723,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3683,13 +3737,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3697,13 +3754,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>107</v>
-      </c>
-      <c r="C130" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3711,10 +3768,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -3725,10 +3782,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>107</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>174</v>
+        <v>95</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3739,10 +3796,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>107</v>
-      </c>
-      <c r="C133" t="s">
-        <v>165</v>
+        <v>95</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3753,10 +3810,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3767,30 +3824,30 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="7">
-        <v>110</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>86</v>
+      <c r="B136">
+        <v>95</v>
+      </c>
+      <c r="C136" t="s">
+        <v>94</v>
       </c>
       <c r="D136" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3798,13 +3855,291 @@
         <v>136</v>
       </c>
       <c r="B137">
+        <v>95</v>
+      </c>
+      <c r="C137" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>99</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D138" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>103</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>103</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>103</v>
+      </c>
+      <c r="C141" t="s">
+        <v>150</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>103</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>103</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>107</v>
+      </c>
+      <c r="C144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>107</v>
+      </c>
+      <c r="C145" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>107</v>
+      </c>
+      <c r="C146" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>107</v>
+      </c>
+      <c r="C147" t="s">
+        <v>89</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>107</v>
+      </c>
+      <c r="C148" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>107</v>
+      </c>
+      <c r="C149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>107</v>
+      </c>
+      <c r="C150" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>107</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>107</v>
+      </c>
+      <c r="C152" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>107</v>
+      </c>
+      <c r="C153" t="s">
+        <v>153</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>107</v>
+      </c>
+      <c r="C154" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="7">
         <v>110</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D137" t="s">
-        <v>74</v>
+      <c r="C155" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D155" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>110</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59209F3-29EF-45C1-BA50-BED1A875C9CB}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C02215-B253-4F94-91F4-C6AA080E3E7E}"/>
   <bookViews>
-    <workbookView xWindow="-5595" yWindow="-15225" windowWidth="23115" windowHeight="14025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -710,24 +710,12 @@
     <t xml:space="preserve"> MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
   </si>
   <si>
-    <t>Als MMT niet bereikbaar is, bel dan zelf Company Webcast en geef de aard van het incident, commissienaam en de zaal door. Laat daarbij Company Webcast controleren of de webcast automatisch is opgestart. Indien niet, opstarten</t>
-  </si>
-  <si>
-    <t>Alleen als je toegang hebt tot Online Manager</t>
-  </si>
-  <si>
     <t>Laat vervolgens door Company Webcast controleren of de webcast automatisch is opgestart. Is dit niet het geval, vraag hen dan om de webcast op te starten</t>
   </si>
   <si>
-    <t>Als je zelf toegang hebt tot channel.royalcast.com van Company Webcast, ga naar de webcast van je vergadering. Kies in de lijst 'Open other applications' voor 'Live manager page'. Controleer of de streaming loopt en start deze indien nodig</t>
-  </si>
-  <si>
     <t>Let op: wanneer de streaming handmatig wordt opgestart, wordt er niet live geïndexeerd, dit moet Company Webcast later toevoegen</t>
   </si>
   <si>
-    <t>Na de vergadering: Let wel op dat de webcast wel stopt nadat de vergadering is gestopt via MVI. Is dit niet het geval dan kun je dit zelf doen via channel.royalcast.com of bel Company Webcast en vraag ze de vergadering te stoppen</t>
-  </si>
-  <si>
     <t>Indien geluid te zacht/hard: volume aanpassen</t>
   </si>
   <si>
@@ -779,20 +767,38 @@
     <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'  of laat Jacot dit doen op afstand</t>
   </si>
   <si>
-    <t xml:space="preserve">Andere optie is dat je Company Webcast belt (ook Team Informatiemanagement kan dit doen) en hen vraagt de webcast op te starten, geef daarbij de naam van de vergadering en de vergaderlokaal door </t>
-  </si>
-  <si>
     <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Meeting&lt;datum_tijdstip&gt;.pdf' verwerk de stemminge handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
   </si>
   <si>
     <t>Let op: als je wilt controleren of de deelnemer inderdaad kan stemmen met de aangepast pas, kun je dit NIET doen tijdens 'Schorsing'. Als de vergadering is geschorst werkt het stemmen wel maar deze zijn niet geldig en dus wordt niets doorgegeven aan iBabs</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is, bel dan zelf met Company Webcast en geef de aard van het incident, de commissienaam en de zaal door</t>
+  </si>
+  <si>
+    <t>StartenWebcast.png</t>
+  </si>
+  <si>
+    <t>Als je zelf toegang hebt tot channel.royalcast.com van Company Webcast, ga naar de webcast van je vergadering. Kies in de lijst 'Open other applications' (1) voor 'Live manager page' (2), klik op 'Start recording'(3) en bevestig door te klikken op 'Yes, start recording' (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controleer of de streaming loopt en start deze indien nodig door </t>
+  </si>
+  <si>
+    <t>Andere optie is dat je Company Webcast belt en hen vraagt de webcast op te starten, geef daarbij de naam van de vergadering en de vergaderlokaal door. Team Informatiemanagment kan dit eventueel ook doen.</t>
+  </si>
+  <si>
+    <t>StopWebcast.png</t>
+  </si>
+  <si>
+    <t>Na de vergadering: Controleer in iBabs dat de webcast is stopt nadat de vergadering is gestopt via MVI. Is dit niet het geval dan kun je dit zelf doen via channel.royalcast.com door op 'Stop recording'  te klikken of bel Company Webcast en vraag ze de vergadering te stoppen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +832,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -864,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -884,6 +896,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1189,7 +1202,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1411,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,9 +1455,6 @@
       <c r="C3" t="s">
         <v>181</v>
       </c>
-      <c r="D3" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1543,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
         <v>143</v>
@@ -1894,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1979,13 +1989,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1993,13 +2003,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2007,11 +2020,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2021,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2035,24 +2049,27 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>147</v>
+      <c r="C10" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,10 +2077,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2077,13 +2094,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,10 +2108,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,10 +2125,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,10 +2139,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2136,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -2150,13 +2167,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,10 +2181,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2192,33 +2209,30 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>167</v>
+      <c r="C21" t="s">
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2229,38 +2243,41 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2268,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2282,7 +2299,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2296,7 +2313,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2310,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2321,13 +2338,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,7 +2355,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -2352,10 +2369,10 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,10 +2380,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -2380,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2391,10 +2408,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2408,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2419,10 +2436,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2436,10 +2453,10 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2450,10 +2467,10 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2461,10 +2478,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2478,10 +2495,10 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,16 +2506,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2506,13 +2520,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,7 +2540,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2534,10 +2551,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2551,10 +2568,10 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,10 +2582,10 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2579,10 +2596,10 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2593,7 +2610,7 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2604,13 +2621,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>26</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,7 +2638,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2634,11 +2651,11 @@
       <c r="B51">
         <v>26</v>
       </c>
-      <c r="C51" t="s">
-        <v>148</v>
+      <c r="C51" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2646,10 +2663,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2663,7 +2680,7 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2674,13 +2691,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2690,11 +2707,11 @@
       <c r="B55">
         <v>34</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>22</v>
+      <c r="C55" t="s">
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2705,10 +2722,10 @@
         <v>34</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,10 +2736,10 @@
         <v>34</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,8 +2749,8 @@
       <c r="B58">
         <v>34</v>
       </c>
-      <c r="C58" t="s">
-        <v>148</v>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2744,10 +2761,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2761,10 +2778,10 @@
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,10 +2792,10 @@
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,16 +2803,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>41</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,11 +2819,14 @@
       <c r="B63">
         <v>41</v>
       </c>
-      <c r="C63" t="s">
-        <v>37</v>
+      <c r="C63" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2834,7 +2851,7 @@
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2845,10 +2862,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2862,10 +2879,10 @@
         <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2876,10 +2893,10 @@
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2890,7 +2907,7 @@
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2904,10 +2921,10 @@
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,7 +2935,7 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -2932,7 +2949,7 @@
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2946,7 +2963,7 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2960,7 +2977,7 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2974,10 +2991,10 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,10 +3002,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>49</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>148</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3002,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3016,7 +3033,7 @@
         <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3030,7 +3047,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3043,8 +3060,8 @@
       <c r="B80">
         <v>49</v>
       </c>
-      <c r="C80" t="s">
-        <v>148</v>
+      <c r="C80" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3055,10 +3072,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3072,10 +3089,10 @@
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,10 +3103,10 @@
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,13 +3114,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,11 +3130,11 @@
       <c r="B85">
         <v>56</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>40</v>
+      <c r="C85" t="s">
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,13 +3142,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>60</v>
-      </c>
-      <c r="C86" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,10 +3159,10 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,10 +3173,10 @@
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3167,10 +3184,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3184,7 +3201,7 @@
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -3198,13 +3215,10 @@
         <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,10 +3229,13 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,8 +3245,8 @@
       <c r="B93">
         <v>64</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>52</v>
+      <c r="C93" t="s">
+        <v>118</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3242,8 +3259,8 @@
       <c r="B94">
         <v>64</v>
       </c>
-      <c r="C94" t="s">
-        <v>119</v>
+      <c r="C94" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3257,7 +3274,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3270,8 +3287,8 @@
       <c r="B96">
         <v>64</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>120</v>
+      <c r="C96" t="s">
+        <v>148</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3285,7 +3302,7 @@
         <v>64</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3299,7 +3316,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3310,10 +3327,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3327,12 +3344,11 @@
         <v>67</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -3342,11 +3358,12 @@
         <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -3355,8 +3372,8 @@
       <c r="B102">
         <v>67</v>
       </c>
-      <c r="C102" t="s">
-        <v>201</v>
+      <c r="C102" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3369,8 +3386,8 @@
       <c r="B103">
         <v>67</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>125</v>
+      <c r="C103" t="s">
+        <v>197</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3384,7 +3401,7 @@
         <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3398,7 +3415,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3411,8 +3428,8 @@
       <c r="B106">
         <v>67</v>
       </c>
-      <c r="C106" t="s">
-        <v>148</v>
+      <c r="C106" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3423,10 +3440,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3440,10 +3457,10 @@
         <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3454,10 +3471,10 @@
         <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,10 +3482,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3482,13 +3499,10 @@
         <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,10 +3513,13 @@
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,10 +3530,10 @@
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,10 +3544,10 @@
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3541,13 +3558,13 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3555,16 +3572,13 @@
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
-      <c r="F116" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3572,10 +3586,13 @@
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3586,7 +3603,7 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3597,10 +3614,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3614,10 +3631,10 @@
         <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,13 +3642,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3642,10 +3659,10 @@
         <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3653,13 +3670,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>88</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3670,7 +3687,7 @@
         <v>88</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3681,10 +3698,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>91</v>
-      </c>
-      <c r="C125" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3698,10 +3715,10 @@
         <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,10 +3729,10 @@
         <v>91</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,13 +3740,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C128" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D128" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,13 +3757,10 @@
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3756,11 +3770,14 @@
       <c r="B130">
         <v>95</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>205</v>
+      <c r="C130" t="s">
+        <v>200</v>
       </c>
       <c r="D130" t="s">
-        <v>136</v>
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3770,11 +3787,11 @@
       <c r="B131">
         <v>95</v>
       </c>
-      <c r="C131" t="s">
-        <v>102</v>
+      <c r="C131" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3785,7 +3802,7 @@
         <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3798,8 +3815,8 @@
       <c r="B133">
         <v>95</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>135</v>
+      <c r="C133" t="s">
+        <v>134</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3812,8 +3829,8 @@
       <c r="B134">
         <v>95</v>
       </c>
-      <c r="C134" t="s">
-        <v>92</v>
+      <c r="C134" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3827,13 +3844,10 @@
         <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3844,10 +3858,13 @@
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,7 +3875,7 @@
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3869,16 +3886,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>99</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="C138" t="s">
+        <v>95</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
-      </c>
-      <c r="E138" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3886,16 +3900,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E139" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,11 +3919,14 @@
       <c r="B140">
         <v>103</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>155</v>
+      <c r="C140" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,8 +3936,8 @@
       <c r="B141">
         <v>103</v>
       </c>
-      <c r="C141" t="s">
-        <v>150</v>
+      <c r="C141" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -3933,8 +3950,8 @@
       <c r="B142">
         <v>103</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>156</v>
+      <c r="C142" t="s">
+        <v>150</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3947,8 +3964,8 @@
       <c r="B143">
         <v>103</v>
       </c>
-      <c r="C143" t="s">
-        <v>149</v>
+      <c r="C143" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -3959,10 +3976,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3976,7 +3993,7 @@
         <v>107</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -3990,7 +4007,7 @@
         <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4004,13 +4021,10 @@
         <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4021,10 +4035,13 @@
         <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,10 +4052,10 @@
         <v>107</v>
       </c>
       <c r="C149" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4049,10 +4066,10 @@
         <v>107</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4062,8 +4079,8 @@
       <c r="B151">
         <v>107</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>163</v>
+      <c r="C151" t="s">
+        <v>159</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4076,8 +4093,8 @@
       <c r="B152">
         <v>107</v>
       </c>
-      <c r="C152" t="s">
-        <v>154</v>
+      <c r="C152" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4091,7 +4108,7 @@
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4105,40 +4122,54 @@
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
       </c>
-      <c r="F154" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="7">
-        <v>110</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>80</v>
+      <c r="B155">
+        <v>107</v>
+      </c>
+      <c r="C155" t="s">
+        <v>162</v>
       </c>
       <c r="D155" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="7">
         <v>110</v>
       </c>
       <c r="C156" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D156" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>110</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>68</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C02215-B253-4F94-91F4-C6AA080E3E7E}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{067D35ED-B26D-4376-92FC-10E9675DACC8}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14010" yWindow="-15660" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>Als je zelf toegang hebt tot channel.royalcast.com van Company Webcast, ga naar de webcast van je vergadering. Kies in de lijst 'Open other applications' (1) voor 'Live manager page' (2), klik op 'Start recording'(3) en bevestig door te klikken op 'Yes, start recording' (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controleer of de streaming loopt en start deze indien nodig door </t>
   </si>
   <si>
     <t>Andere optie is dat je Company Webcast belt en hen vraagt de webcast op te starten, geef daarbij de naam van de vergadering en de vergaderlokaal door. Team Informatiemanagment kan dit eventueel ook doen.</t>
@@ -1904,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,9 +2009,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2025,62 +2022,61 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E9" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>210</v>
+      <c r="C10" t="s">
+        <v>147</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2088,72 +2084,72 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -2161,44 +2157,44 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2206,100 +2202,100 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>166</v>
+      <c r="C21" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2307,13 +2303,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2321,13 +2317,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2335,27 +2331,27 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -2363,27 +2359,27 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -2391,13 +2387,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2405,13 +2401,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2419,13 +2415,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2433,13 +2429,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2447,41 +2443,41 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2489,58 +2485,58 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2548,13 +2544,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2562,55 +2558,55 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2618,27 +2614,27 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>148</v>
+        <v>26</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2646,27 +2642,27 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>26</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>107</v>
+      <c r="C51" t="s">
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2674,13 +2670,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2688,69 +2684,69 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>34</v>
       </c>
-      <c r="C55" t="s">
-        <v>109</v>
+      <c r="C55" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>34</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>34</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>34</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>111</v>
+      <c r="C58" t="s">
+        <v>148</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2758,13 +2754,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2772,72 +2768,72 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>37</v>
-      </c>
-      <c r="C62" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>41</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>112</v>
+      <c r="C63" t="s">
+        <v>37</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2845,13 +2841,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2859,13 +2855,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2873,41 +2869,41 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2915,27 +2911,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -2943,13 +2939,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2957,13 +2953,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2971,13 +2967,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2985,27 +2981,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>45</v>
-      </c>
-      <c r="C76" t="s">
-        <v>148</v>
+        <v>49</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3013,13 +3009,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3027,13 +3023,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3041,13 +3037,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3055,13 +3051,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>49</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>40</v>
+      <c r="C80" t="s">
+        <v>148</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3069,13 +3065,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3083,111 +3079,111 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>56</v>
       </c>
-      <c r="C85" t="s">
-        <v>46</v>
+      <c r="C85" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>56</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3195,13 +3191,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -3209,44 +3205,44 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>64</v>
       </c>
-      <c r="C93" t="s">
-        <v>118</v>
+      <c r="C93" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3254,13 +3250,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>64</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>52</v>
+      <c r="C94" t="s">
+        <v>119</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3268,13 +3264,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3282,13 +3278,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>64</v>
       </c>
-      <c r="C96" t="s">
-        <v>148</v>
+      <c r="C96" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3296,13 +3292,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>64</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3310,13 +3306,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3324,13 +3320,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3338,42 +3334,42 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>67</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>67</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>196</v>
+      <c r="C102" t="s">
+        <v>197</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3381,13 +3377,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>67</v>
       </c>
-      <c r="C103" t="s">
-        <v>197</v>
+      <c r="C103" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3395,13 +3391,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3409,13 +3405,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3423,13 +3419,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>67</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>202</v>
+      <c r="C106" t="s">
+        <v>148</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3437,13 +3433,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3451,41 +3447,41 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3493,117 +3489,117 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3611,13 +3607,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3625,69 +3621,69 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>82</v>
-      </c>
-      <c r="C123" t="s">
-        <v>131</v>
+        <v>88</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>88</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3695,13 +3691,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>88</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3709,100 +3705,100 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>91</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>95</v>
       </c>
-      <c r="C130" t="s">
-        <v>200</v>
+      <c r="C130" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>95</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>201</v>
+      <c r="C131" t="s">
+        <v>102</v>
       </c>
       <c r="D131" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3810,13 +3806,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>95</v>
       </c>
-      <c r="C133" t="s">
-        <v>134</v>
+      <c r="C133" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3824,13 +3820,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>95</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>135</v>
+      <c r="C134" t="s">
+        <v>92</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3838,44 +3834,44 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3883,61 +3879,61 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>95</v>
-      </c>
-      <c r="C138" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="E138" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>103</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>70</v>
+      <c r="C140" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
-      </c>
-      <c r="E140" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>103</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>155</v>
+      <c r="C141" t="s">
+        <v>150</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -3945,13 +3941,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>103</v>
       </c>
-      <c r="C142" t="s">
-        <v>150</v>
+      <c r="C142" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3959,13 +3955,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>103</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>156</v>
+      <c r="C143" t="s">
+        <v>149</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -3973,13 +3969,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C144" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3987,13 +3983,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>107</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4001,13 +3997,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4015,72 +4011,72 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>107</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>107</v>
       </c>
       <c r="C150" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>107</v>
       </c>
-      <c r="C151" t="s">
-        <v>159</v>
+      <c r="C151" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4088,13 +4084,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>107</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>163</v>
+      <c r="C152" t="s">
+        <v>154</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4102,13 +4098,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4116,60 +4112,46 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <v>107</v>
-      </c>
-      <c r="C155" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="B155" s="7">
+        <v>110</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" s="7">
+        <v>156</v>
+      </c>
+      <c r="B156">
         <v>110</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="D156" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <v>110</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D157" t="s">
         <v>68</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{067D35ED-B26D-4376-92FC-10E9675DACC8}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAF3DD2-8361-45CF-AC5B-B1867FB2E9E2}"/>
   <bookViews>
     <workbookView xWindow="14010" yWindow="-15660" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -713,9 +713,6 @@
     <t>Laat vervolgens door Company Webcast controleren of de webcast automatisch is opgestart. Is dit niet het geval, vraag hen dan om de webcast op te starten</t>
   </si>
   <si>
-    <t>Let op: wanneer de streaming handmatig wordt opgestart, wordt er niet live geïndexeerd, dit moet Company Webcast later toevoegen</t>
-  </si>
-  <si>
     <t>Indien geluid te zacht/hard: volume aanpassen</t>
   </si>
   <si>
@@ -789,6 +786,12 @@
   </si>
   <si>
     <t>Na de vergadering: Controleer in iBabs dat de webcast is stopt nadat de vergadering is gestopt via MVI. Is dit niet het geval dan kun je dit zelf doen via channel.royalcast.com door op 'Stop recording'  te klikken of bel Company Webcast en vraag ze de vergadering te stoppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let op: wanneer de streaming handmatig wordt opgestart, wordt er niet live geïndexeerd, dit moet Company Webcast later toevoegen. </t>
+  </si>
+  <si>
+    <t>Na de vergadering: Controleer na een paar dagen of de vergadering is geïndexeerd. Is dit niet het geval geef dit door aan team Informatiemanagement</t>
   </si>
 </sst>
 </file>
@@ -1550,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
         <v>143</v>
@@ -1901,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A2" sqref="A2:A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2000,24 +2003,24 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2025,13 +2028,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>184</v>
+      <c r="C8" t="s">
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2039,30 +2042,30 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>147</v>
+      <c r="C10" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2070,13 +2073,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2084,72 +2087,72 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -2157,44 +2160,44 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2202,100 +2205,100 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>167</v>
+      <c r="C21" t="s">
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2303,13 +2306,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2317,13 +2320,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2331,27 +2334,27 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -2359,27 +2362,27 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -2387,13 +2390,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2401,13 +2404,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2415,13 +2418,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2429,13 +2432,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2443,41 +2446,41 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2485,58 +2488,58 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2544,13 +2547,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2558,55 +2561,55 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2614,27 +2617,27 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>26</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2642,27 +2645,27 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>26</v>
       </c>
-      <c r="C51" t="s">
-        <v>148</v>
+      <c r="C51" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2670,13 +2673,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2684,69 +2687,69 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>34</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>22</v>
+      <c r="C55" t="s">
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>34</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>34</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>34</v>
       </c>
-      <c r="C58" t="s">
-        <v>148</v>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2754,13 +2757,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2768,72 +2771,72 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>41</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>41</v>
       </c>
-      <c r="C63" t="s">
-        <v>37</v>
+      <c r="C63" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2841,13 +2844,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2855,13 +2858,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2869,21 +2872,21 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>45</v>
@@ -2892,18 +2895,18 @@
         <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2911,27 +2914,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -2939,13 +2942,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2953,13 +2956,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2967,13 +2970,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2981,27 +2984,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>49</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>148</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3009,13 +3012,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3023,13 +3026,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3037,13 +3040,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3051,13 +3054,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>49</v>
       </c>
-      <c r="C80" t="s">
-        <v>148</v>
+      <c r="C80" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3065,13 +3068,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3079,111 +3082,111 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>56</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>40</v>
+      <c r="C85" t="s">
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>60</v>
-      </c>
-      <c r="C86" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3191,13 +3194,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -3205,44 +3208,44 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>64</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>52</v>
+      <c r="C93" t="s">
+        <v>118</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3250,13 +3253,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>64</v>
       </c>
-      <c r="C94" t="s">
-        <v>119</v>
+      <c r="C94" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3264,13 +3267,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3278,13 +3281,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>64</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>120</v>
+      <c r="C96" t="s">
+        <v>148</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3292,13 +3295,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>64</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3306,13 +3309,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3320,13 +3323,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3334,42 +3337,42 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>67</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>67</v>
       </c>
-      <c r="C102" t="s">
-        <v>197</v>
+      <c r="C102" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3377,13 +3380,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>67</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>125</v>
+      <c r="C103" t="s">
+        <v>196</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3391,13 +3394,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3405,13 +3408,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3419,13 +3422,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>67</v>
       </c>
-      <c r="C106" t="s">
-        <v>148</v>
+      <c r="C106" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3433,13 +3436,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3447,41 +3450,41 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3489,117 +3492,117 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
-      <c r="F116" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3607,13 +3610,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3621,69 +3624,69 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>88</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>88</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3691,13 +3694,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>91</v>
-      </c>
-      <c r="C125" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3705,100 +3708,100 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>91</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C128" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D128" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>95</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>201</v>
+      <c r="C130" t="s">
+        <v>199</v>
       </c>
       <c r="D130" t="s">
-        <v>136</v>
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>95</v>
       </c>
-      <c r="C131" t="s">
-        <v>102</v>
+      <c r="C131" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3806,13 +3809,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>95</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>135</v>
+      <c r="C133" t="s">
+        <v>134</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3820,13 +3823,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>95</v>
       </c>
-      <c r="C134" t="s">
-        <v>92</v>
+      <c r="C134" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3834,44 +3837,44 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3879,61 +3882,61 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>99</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="C138" t="s">
+        <v>95</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
-      </c>
-      <c r="E138" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E139" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>103</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>155</v>
+      <c r="C140" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>103</v>
       </c>
-      <c r="C141" t="s">
-        <v>150</v>
+      <c r="C141" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -3941,13 +3944,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>103</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>156</v>
+      <c r="C142" t="s">
+        <v>150</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3955,13 +3958,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>103</v>
       </c>
-      <c r="C143" t="s">
-        <v>149</v>
+      <c r="C143" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -3969,13 +3972,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3983,13 +3986,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>107</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -3997,13 +4000,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4011,72 +4014,72 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>107</v>
       </c>
       <c r="C149" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>107</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>107</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>163</v>
+      <c r="C151" t="s">
+        <v>159</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4084,13 +4087,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>107</v>
       </c>
-      <c r="C152" t="s">
-        <v>154</v>
+      <c r="C152" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4098,13 +4101,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4112,46 +4115,60 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>107</v>
       </c>
       <c r="C154" t="s">
+        <v>153</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>107</v>
+      </c>
+      <c r="C155" t="s">
         <v>162</v>
       </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B156" s="7">
         <v>110</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>110</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>68</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAF3DD2-8361-45CF-AC5B-B1867FB2E9E2}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BE2B86-A310-404F-8BCA-F62174072BDF}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="-15660" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1560" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -785,13 +785,16 @@
     <t>StopWebcast.png</t>
   </si>
   <si>
-    <t>Na de vergadering: Controleer in iBabs dat de webcast is stopt nadat de vergadering is gestopt via MVI. Is dit niet het geval dan kun je dit zelf doen via channel.royalcast.com door op 'Stop recording'  te klikken of bel Company Webcast en vraag ze de vergadering te stoppen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Let op: wanneer de streaming handmatig wordt opgestart, wordt er niet live geïndexeerd, dit moet Company Webcast later toevoegen. </t>
   </si>
   <si>
     <t>Na de vergadering: Controleer na een paar dagen of de vergadering is geïndexeerd. Is dit niet het geval geef dit door aan team Informatiemanagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na de vergadering: Controleer in iBabs dat de webcast is stopt nadat de vergadering is gestopt via MVI. Is dit niet het geval dan kun je dit zelf doen via channel.royalcast.com door in de 'Live manager page' op  'Stop recording'  te klikken. </t>
+  </si>
+  <si>
+    <t>Andere optie is dat je Company Webcast terugbelt en vraag de vergadering te stoppen, geef daarbij om welke vergadering en om welke vergaderzaal het gaat</t>
   </si>
 </sst>
 </file>
@@ -1904,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A157"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -2057,29 +2060,27 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2087,13 +2088,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2101,72 +2102,72 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2174,44 +2175,44 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2219,100 +2220,100 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>167</v>
+      <c r="C22" t="s">
+        <v>166</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2320,13 +2321,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2334,13 +2335,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2348,27 +2349,27 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2376,27 +2377,27 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2404,13 +2405,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2418,13 +2419,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2432,13 +2433,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2446,13 +2447,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2460,41 +2461,41 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2502,58 +2503,58 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2561,13 +2562,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2575,55 +2576,55 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2631,27 +2632,27 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>26</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -2659,27 +2660,27 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>26</v>
       </c>
-      <c r="C52" t="s">
-        <v>148</v>
+      <c r="C52" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2687,13 +2688,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2701,69 +2702,69 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>34</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>22</v>
+      <c r="C56" t="s">
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>34</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>34</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>34</v>
       </c>
-      <c r="C59" t="s">
-        <v>148</v>
+      <c r="C59" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2771,13 +2772,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2785,72 +2786,72 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>41</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>101</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>41</v>
       </c>
-      <c r="C64" t="s">
-        <v>37</v>
+      <c r="C64" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2858,13 +2859,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2872,13 +2873,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2886,41 +2887,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2928,27 +2929,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2956,13 +2957,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2970,13 +2971,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2984,13 +2985,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -2998,27 +2999,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>49</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>148</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3026,13 +3027,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3040,13 +3041,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3054,13 +3055,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3068,13 +3069,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>49</v>
       </c>
-      <c r="C81" t="s">
-        <v>148</v>
+      <c r="C81" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3082,13 +3083,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3096,111 +3097,111 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>56</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>40</v>
+      <c r="C86" t="s">
+        <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -3208,13 +3209,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3222,44 +3223,44 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>64</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>52</v>
+      <c r="C94" t="s">
+        <v>118</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3267,13 +3268,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>64</v>
       </c>
-      <c r="C95" t="s">
-        <v>119</v>
+      <c r="C95" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3281,13 +3282,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3295,13 +3296,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>64</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>120</v>
+      <c r="C97" t="s">
+        <v>148</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3309,13 +3310,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3323,13 +3324,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3337,13 +3338,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3351,42 +3352,42 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>67</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>67</v>
       </c>
-      <c r="C103" t="s">
-        <v>196</v>
+      <c r="C103" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3394,13 +3395,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>67</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>125</v>
+      <c r="C104" t="s">
+        <v>196</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3408,13 +3409,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3422,13 +3423,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>67</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3436,13 +3437,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>67</v>
       </c>
-      <c r="C107" t="s">
-        <v>148</v>
+      <c r="C107" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3450,13 +3451,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3464,41 +3465,41 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -3506,117 +3507,117 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
-      <c r="F117" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3624,13 +3625,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3638,69 +3639,69 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>88</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>88</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3708,13 +3709,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>91</v>
-      </c>
-      <c r="C126" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -3722,100 +3723,100 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>91</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>91</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="D129" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>95</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>200</v>
+      <c r="C131" t="s">
+        <v>199</v>
       </c>
       <c r="D131" t="s">
-        <v>136</v>
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>95</v>
       </c>
-      <c r="C132" t="s">
-        <v>102</v>
+      <c r="C132" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3823,13 +3824,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>95</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>135</v>
+      <c r="C134" t="s">
+        <v>134</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3837,13 +3838,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>95</v>
       </c>
-      <c r="C135" t="s">
-        <v>92</v>
+      <c r="C135" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -3851,44 +3852,44 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -3896,61 +3897,61 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
-        <v>99</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="C139" t="s">
+        <v>95</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
-      </c>
-      <c r="E139" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E140" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>103</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>155</v>
+      <c r="C141" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>103</v>
       </c>
-      <c r="C142" t="s">
-        <v>150</v>
+      <c r="C142" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3958,13 +3959,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>103</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>156</v>
+      <c r="C143" t="s">
+        <v>150</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -3972,13 +3973,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>103</v>
       </c>
-      <c r="C144" t="s">
-        <v>149</v>
+      <c r="C144" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3986,13 +3987,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4000,13 +4001,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4014,13 +4015,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -4028,72 +4029,72 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>107</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>107</v>
       </c>
       <c r="C150" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>107</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>107</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>163</v>
+      <c r="C152" t="s">
+        <v>159</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4101,13 +4102,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>107</v>
       </c>
-      <c r="C153" t="s">
-        <v>154</v>
+      <c r="C153" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4115,13 +4116,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -4129,46 +4130,60 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>107</v>
       </c>
       <c r="C155" t="s">
+        <v>153</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>107</v>
+      </c>
+      <c r="C156" t="s">
         <v>162</v>
       </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>155</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B157" s="7">
         <v>110</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>110</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>68</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BE2B86-A310-404F-8BCA-F62174072BDF}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A930C313-FCDA-4656-AC06-A70D33456D42}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1560" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1620" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -401,16 +401,7 @@
     <t>Pak de twee handmicrofoons uit de doos en zet ze aan (schakelaartje onderop)</t>
   </si>
   <si>
-    <t>In Crestron, tabblad ‘Audio in’, zet Microfoon 1 en Microfoon 2 aan (unmute)</t>
-  </si>
-  <si>
     <t>Als beide microfoons nodig zijn, geef alvast de tweede microfoon door aan de volgende spreker</t>
-  </si>
-  <si>
-    <t>In situaties waarbij alleen de microfoon van de discussiepost defect is, gebruik dan de handmicrofoon erbij</t>
-  </si>
-  <si>
-    <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': Ambiance Mic</t>
   </si>
   <si>
     <t>Laat de deelnemers harder praten. Let op: alles wat achterin gezegd wordt, is hoorbaar in de uitzending</t>
@@ -657,144 +648,159 @@
     <t>Een niet gebruikte pas aanpassen met gegevens deelnemer</t>
   </si>
   <si>
-    <t>Kies een pas waarvan je zeker weet dat deze niet wordt gebruikt  is (bijvoorbeeld van een inspreker of adviseur) en leg deze op het pasjesapparaat</t>
-  </si>
-  <si>
-    <t>Pas de velden: 'Naam' (Achternaam, voorvoelgsels, voorletters (voornaam)), 'Functie' en 'Partij' aan. 'Naam' en 'Functie' worden op de streaming zichtbaar. 
-De Partij bepaalt (indien van toepassing) bij welke fractie de spreektijd wordt opgeteld.</t>
-  </si>
-  <si>
     <t>Pasgegevens.png</t>
   </si>
   <si>
-    <t>Moet de deelnemer stemmen? Bel Jacot om te laten controleren of deze deelnemer stemrechten heeft.
+    <t>Vergadering is gestart maar er ontbreken deelnemers (niet in lijst 'Uitgenodigd' in iBabs)</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en vraag ze een nieuwe stream aan te maken en deze te koppelen aan de vergadering</t>
+  </si>
+  <si>
+    <t>In iBabs voeg alle deelnemers aan de vergadering toe in vel Genodigden. In de Gemeenteraad en Actualiteitenraad moeten deze ook toegevoegd zijn aan het veld 'Aanwezigen/Afwezigen'</t>
+  </si>
+  <si>
+    <t>Stop de vergadering via MVI</t>
+  </si>
+  <si>
+    <t>Klik dan op de knop 'Pre-start vergadering' in dezelfde vergadering en na de voorbereidingen klik op de knop 'Vergadering starten'</t>
+  </si>
+  <si>
+    <t>Controleer op het RIS of de streaming daadwerkelijk wordt uitgezonden</t>
+  </si>
+  <si>
+    <t>Volg verder de aanwijzingen van de voorzitter of andere bevoegden (afhankelijk van de stituatie)</t>
+  </si>
+  <si>
+    <t>Pasjesapparaat.png</t>
+  </si>
+  <si>
+    <t>Streaming is dan niet meer gekoppeld. Company Webcast  moet een nieuwe streaming aanmaken en aan de vergadering koppelen</t>
+  </si>
+  <si>
+    <t>Let op: Bij stemmingen moet jacot controleren of deelnemer met de nieuwe pas kan stemmen en eventueel rechten toevoegen</t>
+  </si>
+  <si>
+    <t>Deelnemers worden niet optimaal in beeld gebracht (niet in beeld of te hoog/laag)</t>
+  </si>
+  <si>
+    <t>Start de streaming handmatig via Online Manager van Company Webcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
+  </si>
+  <si>
+    <t>Laat vervolgens door Company Webcast controleren of de webcast automatisch is opgestart. Is dit niet het geval, vraag hen dan om de webcast op te starten</t>
+  </si>
+  <si>
+    <t>Indien geluid te zacht/hard: volume aanpassen</t>
+  </si>
+  <si>
+    <t>Bel team Multimedia en geef door welke microfoon stuk is</t>
+  </si>
+  <si>
+    <t>Normaal heeft MMT microfoons op voorraad</t>
+  </si>
+  <si>
+    <t>MMT haalt een microfoon uit de voorraad of uit de testruimte en vervangt deze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Crestron, tab 'Audio in' bij 'Discussie', de groene balk rechts omhoog (harder) of omlaag (zachter) schuiven. De aanpassing geldt voor alle microfoonposten, het is op dit moment (nog) niet mogelijk het geluid per microfoonpost aan te passen </t>
+  </si>
+  <si>
+    <t>VolumeCrestron.png</t>
+  </si>
+  <si>
+    <t>Bel team Multimedia en geef door dat de knop 'Besloten' niet werkt</t>
+  </si>
+  <si>
+    <t>Indien microfoon gebroken: microfoon vervangen</t>
+  </si>
+  <si>
+    <t>Jacot zet op afstand de vergadering op 'Besloten'</t>
+  </si>
+  <si>
+    <t>Indien MMT niet bereikbaar is, bel je Jacot met de vraag of ze de vergadering op 'Besloten' willen zetten</t>
+  </si>
+  <si>
+    <t>MMT vraagt Jacot op afstand de vergadering op 'Besloten' te zetten en koppelt terug aan de secretaris</t>
+  </si>
+  <si>
+    <t>Gaat het om motie, amendement, raadsvoorstel, etc. waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg het item toe. Let wel op dat het resultaat van de stemming niet doorgegeven wordt aan iBabs</t>
+  </si>
+  <si>
+    <t>Gaat het om een motie, amendement, raadsvoorstel, etc.? Het toevoegen in MVI is dan niet voldoende. Zelfs wanneer synchronisatie met iBabs niet mogelijk is, blijft het noodzakelijk om deze items handmatig in iBabs toe te voegen</t>
+  </si>
+  <si>
+    <t>Jacot maakt in overleg met de (cie)griffier de overweging of het gegeven de omstandigheden, verstandig is door te vergaderen</t>
+  </si>
+  <si>
+    <t>Jacot/(cie)griffier</t>
+  </si>
+  <si>
+    <t>Indien doorvergaderen: In Crestron: druk op de knop ‘Home’</t>
+  </si>
+  <si>
+    <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'  of laat Jacot dit doen op afstand</t>
+  </si>
+  <si>
+    <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Meeting&lt;datum_tijdstip&gt;.pdf' verwerk de stemminge handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
+  </si>
+  <si>
+    <t>Let op: als je wilt controleren of de deelnemer inderdaad kan stemmen met de aangepast pas, kun je dit NIET doen tijdens 'Schorsing'. Als de vergadering is geschorst werkt het stemmen wel maar deze zijn niet geldig en dus wordt niets doorgegeven aan iBabs</t>
+  </si>
+  <si>
+    <t>Als MMT niet bereikbaar is, bel dan zelf met Company Webcast en geef de aard van het incident, de commissienaam en de zaal door</t>
+  </si>
+  <si>
+    <t>StartenWebcast.png</t>
+  </si>
+  <si>
+    <t>Als je zelf toegang hebt tot channel.royalcast.com van Company Webcast, ga naar de webcast van je vergadering. Kies in de lijst 'Open other applications' (1) voor 'Live manager page' (2), klik op 'Start recording'(3) en bevestig door te klikken op 'Yes, start recording' (4)</t>
+  </si>
+  <si>
+    <t>Andere optie is dat je Company Webcast belt en hen vraagt de webcast op te starten, geef daarbij de naam van de vergadering en de vergaderlokaal door. Team Informatiemanagment kan dit eventueel ook doen.</t>
+  </si>
+  <si>
+    <t>StopWebcast.png</t>
+  </si>
+  <si>
+    <t>Andere optie voor de vorige handeling is om Company Webcast terug te bellen en te vragen de webcast te stoppen. Geef daarbij om welke vergadering en om welke vergaderzaal het gaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na de vergadering: Controleer na het stoppen van de vergadering in MVI dat de streaming in iBabs daadwerkelijk is gestopt. Is dit niet het geval dan kun je de webcast zelf stoppen  via channel.royalcast.com door in de 'Live manager page' op  'Stop recording'  te klikken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let op: wanneer de streaming handmatig wordt opgestart, wordt de vergadering niet automatisch geïndexeerd, dit moet Company Webcast later toevoegen. </t>
+  </si>
+  <si>
+    <t>Kies een pas waarvan je zeker weet dat deze niet tijdens de vergadering wordt gebruikt  (bijvoorbeeld van een inspreker of adviseur) en leg deze op het pasjesapparaat</t>
+  </si>
+  <si>
+    <t>In MVI tab 'Pasbeheer' pas de velden: 'Naam' (Achternaam, voorvoelgsels, voorletters (voornaam)), 'Functie' en 'Partij' aan. 'Naam' en 'Functie' worden op de streaming zichtbaar. 
+'Partij' bepaalt (indien van toepassing) bij welke fractie de spreektijd wordt opgeteld.</t>
+  </si>
+  <si>
+    <t>Moet de deelnemer stemmen? Bel Jacot om te laten controleren of de deelnemer (met de door jou aangemaakte pas), stemrechten heeft.
 Stemrechten op de pasjes worden in principe beheerd via iBabs en doorgegeven aan MVI via de koppeling, maar in geval van nood kan Jacot dit rechtstreeks in MVI aanpassen terwijl de vergadering gaande is.</t>
   </si>
   <si>
-    <t>Vergadering is gestart maar er ontbreken deelnemers (niet in lijst 'Uitgenodigd' in iBabs)</t>
-  </si>
-  <si>
-    <t>Bel Company Webcast en vraag ze een nieuwe stream aan te maken en deze te koppelen aan de vergadering</t>
-  </si>
-  <si>
-    <t>In iBabs voeg alle deelnemers aan de vergadering toe in vel Genodigden. In de Gemeenteraad en Actualiteitenraad moeten deze ook toegevoegd zijn aan het veld 'Aanwezigen/Afwezigen'</t>
-  </si>
-  <si>
-    <t>Stop de vergadering via MVI</t>
-  </si>
-  <si>
-    <t>Klik dan op de knop 'Pre-start vergadering' in dezelfde vergadering en na de voorbereidingen klik op de knop 'Vergadering starten'</t>
-  </si>
-  <si>
-    <t>Controleer op het RIS of de streaming daadwerkelijk wordt uitgezonden</t>
-  </si>
-  <si>
-    <t>Volg verder de aanwijzingen van de voorzitter of andere bevoegden (afhankelijk van de stituatie)</t>
-  </si>
-  <si>
-    <t>Pasjesapparaat.png</t>
-  </si>
-  <si>
-    <t>Streaming is dan niet meer gekoppeld. Company Webcast  moet een nieuwe streaming aanmaken en aan de vergadering koppelen</t>
-  </si>
-  <si>
-    <t>Let op: Bij stemmingen moet jacot controleren of deelnemer met de nieuwe pas kan stemmen en eventueel rechten toevoegen</t>
-  </si>
-  <si>
-    <t>Deelnemers worden niet optimaal in beeld gebracht (niet in beeld of te hoog/laag)</t>
-  </si>
-  <si>
-    <t>Start de streaming handmatig via Online Manager van Company Webcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MMT neemt contact op met Company Webcast en koppelt terug aan de secretaris</t>
-  </si>
-  <si>
-    <t>Laat vervolgens door Company Webcast controleren of de webcast automatisch is opgestart. Is dit niet het geval, vraag hen dan om de webcast op te starten</t>
-  </si>
-  <si>
-    <t>Indien geluid te zacht/hard: volume aanpassen</t>
-  </si>
-  <si>
-    <t>Bel team Multimedia en geef door welke microfoon stuk is</t>
-  </si>
-  <si>
-    <t>Normaal heeft MMT microfoons op voorraad</t>
-  </si>
-  <si>
-    <t>MMT haalt een microfoon uit de voorraad of uit de testruimte en vervangt deze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Crestron, tab 'Audio in' bij 'Discussie', de groene balk rechts omhoog (harder) of omlaag (zachter) schuiven. De aanpassing geldt voor alle microfoonposten, het is op dit moment (nog) niet mogelijk het geluid per microfoonpost aan te passen </t>
-  </si>
-  <si>
-    <t>VolumeCrestron.png</t>
-  </si>
-  <si>
-    <t>Bel team Multimedia en geef door dat de knop 'Besloten' niet werkt</t>
-  </si>
-  <si>
-    <t>Indien microfoon gebroken: microfoon vervangen</t>
-  </si>
-  <si>
-    <t>Jacot zet op afstand de vergadering op 'Besloten'</t>
-  </si>
-  <si>
-    <t>Indien MMT niet bereikbaar is, bel je Jacot met de vraag of ze de vergadering op 'Besloten' willen zetten</t>
-  </si>
-  <si>
-    <t>MMT vraagt Jacot op afstand de vergadering op 'Besloten' te zetten en koppelt terug aan de secretaris</t>
-  </si>
-  <si>
-    <t>Gaat het om motie, amendement, raadsvoorstel, etc. waarop gestemd moet worden: ga in de stemmingsvenster, klik op het plusje en voeg het item toe. Let wel op dat het resultaat van de stemming niet doorgegeven wordt aan iBabs</t>
-  </si>
-  <si>
-    <t>Gaat het om een motie, amendement, raadsvoorstel, etc.? Het toevoegen in MVI is dan niet voldoende. Zelfs wanneer synchronisatie met iBabs niet mogelijk is, blijft het noodzakelijk om deze items handmatig in iBabs toe te voegen</t>
-  </si>
-  <si>
-    <t>Jacot maakt in overleg met de (cie)griffier de overweging of het gegeven de omstandigheden, verstandig is door te vergaderen</t>
-  </si>
-  <si>
-    <t>Jacot/(cie)griffier</t>
-  </si>
-  <si>
-    <t>Indien doorvergaderen: In Crestron: druk op de knop ‘Home’</t>
-  </si>
-  <si>
-    <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'  of laat Jacot dit doen op afstand</t>
-  </si>
-  <si>
-    <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Meeting&lt;datum_tijdstip&gt;.pdf' verwerk de stemminge handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
-  </si>
-  <si>
-    <t>Let op: als je wilt controleren of de deelnemer inderdaad kan stemmen met de aangepast pas, kun je dit NIET doen tijdens 'Schorsing'. Als de vergadering is geschorst werkt het stemmen wel maar deze zijn niet geldig en dus wordt niets doorgegeven aan iBabs</t>
-  </si>
-  <si>
-    <t>Als MMT niet bereikbaar is, bel dan zelf met Company Webcast en geef de aard van het incident, de commissienaam en de zaal door</t>
-  </si>
-  <si>
-    <t>StartenWebcast.png</t>
-  </si>
-  <si>
-    <t>Als je zelf toegang hebt tot channel.royalcast.com van Company Webcast, ga naar de webcast van je vergadering. Kies in de lijst 'Open other applications' (1) voor 'Live manager page' (2), klik op 'Start recording'(3) en bevestig door te klikken op 'Yes, start recording' (4)</t>
-  </si>
-  <si>
-    <t>Andere optie is dat je Company Webcast belt en hen vraagt de webcast op te starten, geef daarbij de naam van de vergadering en de vergaderlokaal door. Team Informatiemanagment kan dit eventueel ook doen.</t>
-  </si>
-  <si>
-    <t>StopWebcast.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let op: wanneer de streaming handmatig wordt opgestart, wordt er niet live geïndexeerd, dit moet Company Webcast later toevoegen. </t>
-  </si>
-  <si>
-    <t>Na de vergadering: Controleer na een paar dagen of de vergadering is geïndexeerd. Is dit niet het geval geef dit door aan team Informatiemanagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na de vergadering: Controleer in iBabs dat de webcast is stopt nadat de vergadering is gestopt via MVI. Is dit niet het geval dan kun je dit zelf doen via channel.royalcast.com door in de 'Live manager page' op  'Stop recording'  te klikken. </t>
-  </si>
-  <si>
-    <t>Andere optie is dat je Company Webcast terugbelt en vraag de vergadering te stoppen, geef daarbij om welke vergadering en om welke vergaderzaal het gaat</t>
+    <t>In situaties waarbij alleen de microfoon van de discussiepost defect is, kan de deelnemer de microfoonpost blijven gebruiken mét de handmicrofoon erbij</t>
+  </si>
+  <si>
+    <t>Micr12Unmute.png</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad ‘Audio in’, zet indien van toepassing, 'Microfoon 1' en 'Microfoon 2' aan (unmute, dan zijn ze groen)</t>
+  </si>
+  <si>
+    <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': 'Ambiance Mic' (unmute dan is het groen)</t>
+  </si>
+  <si>
+    <t>AmbMicUnmute.png</t>
+  </si>
+  <si>
+    <t>Na de vergadering: Geef door aan team Informatiemanagement dat de webcast handmatig is opgestart zodat ze de indexatie aanvragen. Geef daarbij de commissienaam, datum/tijdstip en vergaderzaal door</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1420,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,10 +1487,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1501,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,10 +1562,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,7 +1615,7 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,7 +1668,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,10 +1679,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,7 +1696,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,7 +1746,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,7 +1760,7 @@
         <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,7 +1849,7 @@
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,7 +1877,7 @@
         <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1910,7 +1916,7 @@
   <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1978,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1992,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2006,13 +2012,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2037,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2051,21 +2057,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2074,13 +2083,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2088,13 +2097,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2102,7 +2111,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2116,7 +2125,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2133,7 +2142,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2147,7 +2156,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2161,7 +2170,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2175,13 +2184,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2189,7 +2198,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2206,7 +2215,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -2220,7 +2229,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2234,47 +2243,47 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2282,10 +2291,10 @@
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2293,13 +2302,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2307,13 +2316,13 @@
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2321,13 +2330,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2335,13 +2344,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2349,13 +2358,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2363,7 +2372,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2377,13 +2386,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2391,13 +2400,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2405,7 +2414,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -2419,13 +2428,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2433,7 +2442,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>13</v>
@@ -2447,13 +2456,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2461,7 +2470,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -2475,7 +2484,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -2489,7 +2498,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -2503,13 +2512,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2517,13 +2526,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2531,24 +2540,24 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>19</v>
@@ -2562,13 +2571,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2576,7 +2585,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>22</v>
@@ -2590,27 +2599,30 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
+      <c r="E47" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -2618,13 +2630,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2632,13 +2644,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -2646,27 +2658,30 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
+      <c r="E51" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -2674,13 +2689,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2688,13 +2703,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2702,13 +2717,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2716,13 +2731,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -2730,7 +2745,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>34</v>
@@ -2744,13 +2759,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>34</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -2758,13 +2773,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>34</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2772,13 +2787,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2786,7 +2801,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>37</v>
@@ -2800,7 +2815,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>37</v>
@@ -2814,7 +2829,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>37</v>
@@ -2828,13 +2843,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>41</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2845,7 +2860,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>41</v>
@@ -2859,13 +2874,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2873,13 +2888,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2887,13 +2902,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2901,13 +2916,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2915,13 +2930,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2929,13 +2944,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2943,13 +2958,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2957,13 +2972,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2971,13 +2986,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2985,13 +3000,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -2999,7 +3014,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>45</v>
@@ -3013,13 +3028,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3027,7 +3042,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>49</v>
@@ -3041,13 +3056,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3055,7 +3070,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>49</v>
@@ -3069,7 +3084,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>49</v>
@@ -3083,13 +3098,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3097,7 +3112,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>52</v>
@@ -3111,7 +3126,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>52</v>
@@ -3125,7 +3140,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>52</v>
@@ -3139,7 +3154,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>56</v>
@@ -3153,7 +3168,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>56</v>
@@ -3167,7 +3182,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>60</v>
@@ -3181,7 +3196,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>60</v>
@@ -3195,7 +3210,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>60</v>
@@ -3209,13 +3224,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3223,13 +3238,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3237,13 +3252,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3254,13 +3269,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3268,7 +3283,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>64</v>
@@ -3282,13 +3297,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3296,13 +3311,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3310,13 +3325,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3324,13 +3339,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3338,13 +3353,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3352,7 +3367,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>67</v>
@@ -3366,7 +3381,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>67</v>
@@ -3381,13 +3396,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>67</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3395,13 +3410,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3409,13 +3424,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3423,13 +3438,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>67</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3437,13 +3452,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>67</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3451,13 +3466,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3465,7 +3480,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>70</v>
@@ -3479,7 +3494,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>70</v>
@@ -3493,13 +3508,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -3507,7 +3522,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>74</v>
@@ -3521,7 +3536,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>74</v>
@@ -3538,7 +3553,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>74</v>
@@ -3552,7 +3567,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>74</v>
@@ -3566,7 +3581,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>74</v>
@@ -3580,13 +3595,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3594,7 +3609,7 @@
     </row>
     <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>74</v>
@@ -3611,7 +3626,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>74</v>
@@ -3625,7 +3640,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>74</v>
@@ -3639,7 +3654,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>78</v>
@@ -3653,13 +3668,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -3667,13 +3682,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -3681,13 +3696,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -3695,7 +3710,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>88</v>
@@ -3709,13 +3724,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>88</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -3723,7 +3738,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>91</v>
@@ -3737,7 +3752,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>91</v>
@@ -3751,7 +3766,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>91</v>
@@ -3765,27 +3780,27 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D130" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -3796,21 +3811,21 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>95</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D132" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>95</v>
@@ -3824,13 +3839,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3838,13 +3853,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>95</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -3852,7 +3867,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>95</v>
@@ -3866,7 +3881,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>95</v>
@@ -3883,7 +3898,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>95</v>
@@ -3897,7 +3912,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>95</v>
@@ -3911,7 +3926,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>99</v>
@@ -3928,7 +3943,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>103</v>
@@ -3945,13 +3960,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>103</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3959,13 +3974,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>103</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -3973,13 +3988,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>103</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3987,13 +4002,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>103</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4001,13 +4016,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4015,13 +4030,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -4029,13 +4044,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4043,7 +4058,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>107</v>
@@ -4060,13 +4075,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>107</v>
       </c>
       <c r="C150" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4074,7 +4089,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>107</v>
@@ -4088,13 +4103,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4102,13 +4117,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>107</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4116,13 +4131,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -4130,13 +4145,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
@@ -4144,13 +4159,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -4161,7 +4176,7 @@
     </row>
     <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="7">
         <v>110</v>
@@ -4175,13 +4190,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>110</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D158" t="s">
         <v>68</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A930C313-FCDA-4656-AC06-A70D33456D42}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7D2940-48DC-4F9F-BD64-2311D7BAC920}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1620" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Eerst openbaar deel afmaken daarna besloten deel opstarten</t>
-  </si>
-  <si>
-    <t>Vraag voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
   </si>
   <si>
     <t>In overleg met de (cie)griffier, eerst het openbaar deel afmaken dan de vergadering via MVI afsluiten</t>
@@ -446,16 +443,10 @@
     <t>Na de vergadering:  bel Jacot en vraag of zij de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
   </si>
   <si>
-    <t>Na de vergadering: verstuur het bestand naar Company Webcast zodat ze de sprekersindexatie achteraf kunnen regelen. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte</t>
-  </si>
-  <si>
     <t>Stemmingen worden niet automatisch getoond op het RIS</t>
   </si>
   <si>
     <t>Op de MVI-PC, Bureaublad, map 'Excel' kies het juiste agendatypesjabloon:  Sjabloon &lt;agendatype&gt;.xls</t>
-  </si>
-  <si>
-    <t>Maak een kopie van het sjabloonin dezelfde map en hernoem het voeg een datum aan toe. Bijvoorbeeld: Sjabloon Commissie BWB 20250509.xls</t>
   </si>
   <si>
     <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
@@ -744,9 +735,6 @@
     <t>LET OP: Onder strikte begeleiding van Jacot: Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'  of laat Jacot dit doen op afstand</t>
   </si>
   <si>
-    <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Meeting&lt;datum_tijdstip&gt;.pdf' verwerk de stemminge handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
-  </si>
-  <si>
     <t>Let op: als je wilt controleren of de deelnemer inderdaad kan stemmen met de aangepast pas, kun je dit NIET doen tijdens 'Schorsing'. Als de vergadering is geschorst werkt het stemmen wel maar deze zijn niet geldig en dus wordt niets doorgegeven aan iBabs</t>
   </si>
   <si>
@@ -801,6 +789,30 @@
   </si>
   <si>
     <t>Na de vergadering: Geef door aan team Informatiemanagement dat de webcast handmatig is opgestart zodat ze de indexatie aanvragen. Geef daarbij de commissienaam, datum/tijdstip en vergaderzaal door</t>
+  </si>
+  <si>
+    <t>Vraag voor de zekerheid aan Jacot of audio-opname loopt (TASCAM). Dan voldoen we aan de minimumeis dat er minimaal een audio-opname wordt gemaakt</t>
+  </si>
+  <si>
+    <t>Let op: er moet door indexatie worden aangevraagd door IM</t>
+  </si>
+  <si>
+    <t>Na de vergadering: verstuur het bestand naar team Informatiemanagement, vermeld daarbij: CIE-naam, datum, tijdstip en ruimte. IM zorgt ervoor dat de sprekersindexatie bij Company Webcast wordt aangevraagd</t>
+  </si>
+  <si>
+    <t>Maak een kopie van het sjabloon in dezelfde map en hernoem het voeg een datum aan toe. Bijvoorbeeld: Sjabloon Commissie BWB 20250509.xls</t>
+  </si>
+  <si>
+    <t>Na de vergadering: verstuur het video-/audiobestand naar Company Webcast zodat het geplaatst wordt op het RIS. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte</t>
+  </si>
+  <si>
+    <t>Vraag aan Jacot of de audio-opname (TASCAM) loopt. Dan voldoen we aan de minimum eis dat er een audiobestand wordt gemaakt</t>
+  </si>
+  <si>
+    <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Meeting&lt;datum_tijdstip&gt;.pdf' verwerk de stemmingen handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na de vergadering: verstuur het video-/audiobestand naar Company Webcast. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte. </t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1432,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,7 +1474,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,10 +1502,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,10 +1516,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,10 +1577,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,7 +1616,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,10 +1641,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,7 +1683,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,10 +1694,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +1711,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,10 +1758,10 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,7 +1797,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -1796,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,10 +1822,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,10 +1836,10 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,7 +1850,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,10 +1861,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,10 +1875,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
         <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,10 +1889,10 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,10 +1914,10 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1915,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1984,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1998,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2012,13 +2027,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2043,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2057,13 +2072,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2074,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2089,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2103,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2117,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2131,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2148,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2162,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2176,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2190,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2204,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2221,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2235,7 +2250,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2249,13 +2264,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2266,13 +2281,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2283,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2294,7 +2309,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2308,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2322,7 +2337,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2336,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2350,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2364,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2378,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2392,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2406,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2420,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2434,7 +2449,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2448,7 +2463,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2462,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2490,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -2504,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2518,7 +2533,7 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2532,7 +2547,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2546,13 +2561,13 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,7 +2578,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2577,7 +2592,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2591,7 +2606,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2605,13 +2620,13 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -2636,7 +2651,7 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2650,7 +2665,7 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -2664,13 +2679,13 @@
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2681,7 +2696,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -2695,7 +2710,7 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2709,7 +2724,7 @@
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2723,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2737,7 +2752,7 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -2765,7 +2780,7 @@
         <v>34</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -2779,7 +2794,7 @@
         <v>34</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2793,7 +2808,7 @@
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2821,7 +2836,7 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2835,7 +2850,7 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2849,7 +2864,7 @@
         <v>41</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2880,7 +2895,7 @@
         <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2894,7 +2909,7 @@
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2908,7 +2923,7 @@
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2922,7 +2937,7 @@
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2936,7 +2951,7 @@
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2950,7 +2965,7 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2964,7 +2979,7 @@
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2978,7 +2993,7 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2992,7 +3007,7 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -3006,7 +3021,7 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -3020,10 +3035,10 @@
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,10 +3046,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>45</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
+        <v>49</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3048,7 +3063,7 @@
         <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3062,7 +3077,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3075,8 +3090,8 @@
       <c r="B80">
         <v>49</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>45</v>
+      <c r="C80" t="s">
+        <v>142</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3087,10 +3102,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>49</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3101,13 +3116,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,7 +3133,7 @@
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3129,13 +3144,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3143,13 +3158,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>52</v>
-      </c>
-      <c r="C85" t="s">
-        <v>101</v>
+        <v>56</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3157,13 +3172,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,13 +3186,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>56</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,7 +3203,7 @@
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -3199,13 +3214,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,10 +3228,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -3230,10 +3245,13 @@
         <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3244,7 +3262,7 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3257,14 +3275,11 @@
       <c r="B93">
         <v>64</v>
       </c>
-      <c r="C93" t="s">
-        <v>114</v>
+      <c r="C93" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,8 +3303,8 @@
       <c r="B95">
         <v>64</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>52</v>
+      <c r="C95" t="s">
+        <v>142</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3302,7 +3317,7 @@
       <c r="B96">
         <v>64</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D96" t="s">
@@ -3316,8 +3331,8 @@
       <c r="B97">
         <v>64</v>
       </c>
-      <c r="C97" t="s">
-        <v>145</v>
+      <c r="C97" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3331,7 +3346,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3342,10 +3357,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3356,14 +3371,15 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -3373,7 +3389,7 @@
         <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3386,13 +3402,12 @@
       <c r="B102">
         <v>67</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>55</v>
+      <c r="C102" t="s">
+        <v>187</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -3401,8 +3416,8 @@
       <c r="B103">
         <v>67</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>189</v>
+      <c r="C103" t="s">
+        <v>142</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3415,11 +3430,14 @@
       <c r="B104">
         <v>67</v>
       </c>
-      <c r="C104" t="s">
-        <v>190</v>
+      <c r="C104" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3430,7 +3448,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3444,7 +3462,7 @@
         <v>67</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3455,10 +3473,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>67</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>195</v>
+        <v>70</v>
+      </c>
+      <c r="C107" t="s">
+        <v>61</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3469,13 +3487,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3486,7 +3504,7 @@
         <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3497,13 +3515,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3511,13 +3529,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3528,7 +3549,7 @@
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3542,13 +3563,10 @@
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,7 +3577,7 @@
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3573,13 +3591,13 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3591,6 +3609,9 @@
       </c>
       <c r="D116" t="s">
         <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3601,13 +3622,13 @@
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3615,13 +3636,10 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
-      </c>
-      <c r="F118" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,8 +3649,8 @@
       <c r="B119">
         <v>74</v>
       </c>
-      <c r="C119" t="s">
-        <v>94</v>
+      <c r="C119" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3645,8 +3663,8 @@
       <c r="B120">
         <v>74</v>
       </c>
-      <c r="C120" t="s">
-        <v>95</v>
+      <c r="C120" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3674,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -3688,7 +3706,7 @@
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -3702,7 +3720,7 @@
         <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -3716,7 +3734,7 @@
         <v>88</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3730,7 +3748,7 @@
         <v>88</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -3758,7 +3776,7 @@
         <v>91</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -3772,7 +3790,7 @@
         <v>91</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3786,10 +3804,10 @@
         <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D130" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3800,13 +3818,13 @@
         <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,10 +3835,10 @@
         <v>95</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D132" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3831,7 +3849,7 @@
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3845,7 +3863,7 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3859,7 +3877,7 @@
         <v>95</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -3873,7 +3891,7 @@
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -3887,7 +3905,7 @@
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3904,7 +3922,7 @@
         <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -3918,7 +3936,7 @@
         <v>95</v>
       </c>
       <c r="C139" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3932,13 +3950,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D140" t="s">
         <v>67</v>
       </c>
-      <c r="D140" t="s">
-        <v>68</v>
-      </c>
       <c r="E140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3949,13 +3967,13 @@
         <v>103</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3966,7 +3984,7 @@
         <v>103</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3980,7 +3998,7 @@
         <v>103</v>
       </c>
       <c r="C143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -3994,7 +4012,7 @@
         <v>103</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4008,7 +4026,7 @@
         <v>103</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4022,7 +4040,7 @@
         <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4036,7 +4054,7 @@
         <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -4050,7 +4068,7 @@
         <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4064,7 +4082,7 @@
         <v>107</v>
       </c>
       <c r="C149" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
@@ -4081,7 +4099,7 @@
         <v>107</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4095,7 +4113,7 @@
         <v>107</v>
       </c>
       <c r="C151" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
@@ -4109,7 +4127,7 @@
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4123,7 +4141,7 @@
         <v>107</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4137,7 +4155,7 @@
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -4151,7 +4169,7 @@
         <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
@@ -4165,7 +4183,7 @@
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -4182,10 +4200,10 @@
         <v>110</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4196,10 +4214,10 @@
         <v>110</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7D2940-48DC-4F9F-BD64-2311D7BAC920}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E302B24-1494-454D-AB7B-8A443692ED66}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1620" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>Brandmelding.PNG</t>
-  </si>
-  <si>
-    <t>Indien meerdere microfoonposten defect zijn, is er iemand nodig om de microfoons langs te brengen</t>
   </si>
   <si>
     <t>Controleer of de stemmingsbestand in MVI klopt met de stemresultaten</t>
@@ -386,9 +383,6 @@
     <t>Gebruik de joystick om de camera’s op de spreker te richten</t>
   </si>
   <si>
-    <t>Verhuis de deelnemer naar een andere plaats in de zaal (bijvoorbeeld lege plek, katheder of plek van de wethouder). Let op: de twee plekken rechtsachter in de raadzaal zijn ingesteld voor sprekers die zittend praten</t>
-  </si>
-  <si>
     <t>MMT neemt contact op met Jacot en koppelt terug aan de secretaris</t>
   </si>
   <si>
@@ -479,9 +473,6 @@
     <t>Laat twee bodes met de handmicrofoons door de zaal lopen</t>
   </si>
   <si>
-    <t>Laat Jacot controleren of de opname loopt (TASCAM)</t>
-  </si>
-  <si>
     <t>Jacot/Secretaris</t>
   </si>
   <si>
@@ -489,9 +480,6 @@
   </si>
   <si>
     <t>Controleer of spreektijd is aangezet</t>
-  </si>
-  <si>
-    <t>Bij het noodscenario wordt een opname automatisch gestart. MVI werkt niet: er kan niet worden geklikt op de agendapunten. Spreekttijd en stemmingen werken niet</t>
   </si>
   <si>
     <t>Als de overzichtcamera moest worden ingeschakeld, informeer het publiek dan via iBabs dat er in aangepaste vorm wordt vergaderd</t>
@@ -557,9 +545,6 @@
   </si>
   <si>
     <t>Na de vergadering: vraag aan Company Webcast of ze over beide opnames beschikken en of ze beide opnames kunnen samenvoegen tot één vergadering</t>
-  </si>
-  <si>
-    <t>Via iBabs: informeer het publiek dat er wordt gewerkt aan het samenvoegen van dem uitzending na de stroomstoring</t>
   </si>
   <si>
     <t>Het AV-systeem gaat over op de noordvoorziening, deze duurt maximaal 15 minuten. Wacht ongeveer 5 minuten op eventuele terugkeer van de stroom</t>
@@ -779,12 +764,6 @@
     <t>Micr12Unmute.png</t>
   </si>
   <si>
-    <t>In Crestron, tabblad ‘Audio in’, zet indien van toepassing, 'Microfoon 1' en 'Microfoon 2' aan (unmute, dan zijn ze groen)</t>
-  </si>
-  <si>
-    <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': 'Ambiance Mic' (unmute dan is het groen)</t>
-  </si>
-  <si>
     <t>AmbMicUnmute.png</t>
   </si>
   <si>
@@ -813,6 +792,39 @@
   </si>
   <si>
     <t xml:space="preserve">Na de vergadering: verstuur het video-/audiobestand naar Company Webcast. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte. </t>
+  </si>
+  <si>
+    <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': 'Ambiance Mic' door de mute/unmute knop (middelste) aan te raken</t>
+  </si>
+  <si>
+    <t>In Crestron, tabblad ‘Audio in’, zet indien van toepassing, 'Microfoon 1' en 'Microfoon 2' aan door de mute/unmute knop (middelste) aan te raken</t>
+  </si>
+  <si>
+    <t>Indien daarbij ook de handmicrofoons gebruikt gaan worden, ga hier terug en kies vervolgens voor de optie: 'Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)' voor de instructies</t>
+  </si>
+  <si>
+    <t>Indien daarbij ook de ambiance microfoons gebruikt gaan worden, ga hier terug en kies vervolgens voor de optie: 'Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)' voor de instructies</t>
+  </si>
+  <si>
+    <t>Verhuis de deelnemer naar een andere plaats in de zaal (bijvoorbeeld lege plek, katheder of plek van de wethouder). Let op: de twee plekken linksachter in de raadzaal zijn ingesteld voor sprekers die zittend praten</t>
+  </si>
+  <si>
+    <t>Indien meerdere microfoonposten defect zijn, is er iemand (jezelf/bode) nodig om de microfoons langs te brengen</t>
+  </si>
+  <si>
+    <t>Audiopname(TASCAM) wordt automatisch gestart. Als MVI niet werkt kan er niet worden geklikt op de agendapunten. Spreekttijd en stemmingen werken ook niet</t>
+  </si>
+  <si>
+    <t>Bel Jacot en geef aan dat MVI niet werkt</t>
+  </si>
+  <si>
+    <t>Laat Jacot controleren of de opname loopt (TASCAM). Hiermee wordt voldaan aan de minimum eis dat er minimal een audiopname wordt gemaakt</t>
+  </si>
+  <si>
+    <t>Via iBabs: informeer het publiek dat er wordt gewerkt aan het samenvoegen van de uitzending na de stroomstoring</t>
+  </si>
+  <si>
+    <t>Na de vergadering (alleen indien je de opname naar Company webcast moest versturen): ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1431,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,10 +1514,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,10 +1542,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,10 +1589,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,7 +1628,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,7 +1695,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,10 +1706,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,7 +1773,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,7 +1787,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,7 +1876,7 @@
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,7 +1915,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,10 +1926,10 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1928,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1999,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2013,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2027,13 +2039,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2058,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2072,13 +2084,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2089,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2104,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2118,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2132,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2146,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2163,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2177,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2191,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2205,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2219,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2236,7 +2248,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2250,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2264,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2281,13 +2293,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2298,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2309,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2323,7 +2335,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2337,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2351,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2365,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2379,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2393,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2407,7 +2419,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2421,7 +2433,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2435,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2449,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2463,7 +2475,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2477,7 +2489,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2505,7 +2517,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -2519,7 +2531,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2533,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2547,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2561,13 +2573,13 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2592,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2606,7 +2618,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2620,13 +2632,10 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,13 +2646,16 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2651,13 +2663,13 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2665,30 +2677,27 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>26</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>207</v>
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2696,97 +2705,100 @@
         <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>26</v>
       </c>
-      <c r="C53" t="s">
-        <v>142</v>
+      <c r="C53" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>34</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>34</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>106</v>
+      <c r="C58" t="s">
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2794,55 +2806,55 @@
         <v>34</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>34</v>
       </c>
-      <c r="C60" t="s">
-        <v>142</v>
+      <c r="C60" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>37</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2850,58 +2862,58 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>41</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>108</v>
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>41</v>
       </c>
-      <c r="C66" t="s">
-        <v>111</v>
+      <c r="C66" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2909,41 +2921,41 @@
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2951,13 +2963,13 @@
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2965,13 +2977,13 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2979,13 +2991,13 @@
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2993,13 +3005,13 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3007,13 +3019,13 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3021,13 +3033,13 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3035,41 +3047,41 @@
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>49</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>49</v>
-      </c>
-      <c r="C78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
         <v>138</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3077,21 +3089,21 @@
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>49</v>
       </c>
-      <c r="C80" t="s">
-        <v>142</v>
+      <c r="C80" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3102,10 +3114,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>52</v>
-      </c>
-      <c r="C81" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3116,13 +3128,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,7 +3145,7 @@
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3144,13 +3156,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,13 +3170,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>56</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>210</v>
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,13 +3184,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,13 +3198,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>99</v>
+        <v>56</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,7 +3215,7 @@
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -3214,13 +3226,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,10 +3240,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -3245,13 +3257,10 @@
         <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3262,7 +3271,7 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3275,11 +3284,14 @@
       <c r="B93">
         <v>64</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>51</v>
+      <c r="C93" t="s">
+        <v>111</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,7 +3302,7 @@
         <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3303,8 +3315,8 @@
       <c r="B95">
         <v>64</v>
       </c>
-      <c r="C95" t="s">
-        <v>142</v>
+      <c r="C95" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3317,8 +3329,8 @@
       <c r="B96">
         <v>64</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>116</v>
+      <c r="C96" t="s">
+        <v>113</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3331,8 +3343,8 @@
       <c r="B97">
         <v>64</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>119</v>
+      <c r="C97" t="s">
+        <v>138</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3346,7 +3358,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3357,10 +3369,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3371,15 +3383,14 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -3389,7 +3400,7 @@
         <v>67</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3402,12 +3413,13 @@
       <c r="B102">
         <v>67</v>
       </c>
-      <c r="C102" t="s">
-        <v>187</v>
+      <c r="C102" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -3416,8 +3428,8 @@
       <c r="B103">
         <v>67</v>
       </c>
-      <c r="C103" t="s">
-        <v>142</v>
+      <c r="C103" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3430,14 +3442,11 @@
       <c r="B104">
         <v>67</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>119</v>
+      <c r="C104" t="s">
+        <v>182</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3447,8 +3456,8 @@
       <c r="B105">
         <v>67</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>212</v>
+      <c r="C105" t="s">
+        <v>138</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3462,10 +3471,13 @@
         <v>67</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3473,10 +3485,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>70</v>
-      </c>
-      <c r="C107" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3487,13 +3499,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>70</v>
-      </c>
-      <c r="C108" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3504,7 +3516,7 @@
         <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3515,13 +3527,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,16 +3541,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,7 +3558,7 @@
         <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3563,10 +3572,13 @@
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3577,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3591,13 +3603,13 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3605,13 +3617,10 @@
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3622,13 +3631,13 @@
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3636,10 +3645,13 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,8 +3661,8 @@
       <c r="B119">
         <v>74</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>119</v>
+      <c r="C119" t="s">
+        <v>92</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3663,8 +3675,8 @@
       <c r="B120">
         <v>74</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>212</v>
+      <c r="C120" t="s">
+        <v>210</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3675,10 +3687,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>78</v>
-      </c>
-      <c r="C121" t="s">
-        <v>33</v>
+        <v>74</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3689,13 +3701,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>78</v>
-      </c>
-      <c r="C122" t="s">
-        <v>126</v>
+        <v>74</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3703,13 +3715,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,13 +3729,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3731,13 +3743,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>88</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>122</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,13 +3757,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>88</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
+      </c>
+      <c r="C126" t="s">
+        <v>123</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3759,10 +3771,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>91</v>
-      </c>
-      <c r="C127" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -3773,13 +3785,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>91</v>
-      </c>
-      <c r="C128" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,7 +3802,7 @@
         <v>91</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3801,13 +3813,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C130" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D130" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,16 +3827,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C131" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
-      </c>
-      <c r="E131" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3834,11 +3843,11 @@
       <c r="B132">
         <v>95</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>191</v>
+      <c r="C132" t="s">
+        <v>218</v>
       </c>
       <c r="D132" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3849,10 +3858,10 @@
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3863,10 +3872,13 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3877,10 +3889,10 @@
         <v>95</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,7 +3903,7 @@
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -3905,13 +3917,10 @@
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
-      </c>
-      <c r="F137" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3921,8 +3930,8 @@
       <c r="B138">
         <v>95</v>
       </c>
-      <c r="C138" t="s">
-        <v>93</v>
+      <c r="C138" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -3936,7 +3945,7 @@
         <v>95</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3947,16 +3956,16 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>99</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="C140" t="s">
+        <v>91</v>
       </c>
       <c r="D140" t="s">
-        <v>67</v>
-      </c>
-      <c r="E140" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,16 +3973,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>103</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
+      </c>
+      <c r="C141" t="s">
+        <v>92</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,10 +3987,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>103</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>149</v>
+        <v>95</v>
+      </c>
+      <c r="C142" t="s">
+        <v>207</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3995,10 +4001,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>103</v>
-      </c>
-      <c r="C143" t="s">
-        <v>144</v>
+        <v>95</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -4009,103 +4015,106 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>103</v>
-      </c>
-      <c r="C145" t="s">
-        <v>143</v>
+        <v>99</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E145" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>107</v>
-      </c>
-      <c r="C146" t="s">
-        <v>145</v>
+        <v>103</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>107</v>
-      </c>
-      <c r="C147" t="s">
-        <v>146</v>
+        <v>103</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C148" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>107</v>
-      </c>
-      <c r="C149" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4113,13 +4122,13 @@
         <v>107</v>
       </c>
       <c r="C151" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4127,27 +4136,27 @@
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <v>107</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>157</v>
+      <c r="C153" t="s">
+        <v>149</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4155,13 +4164,16 @@
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4169,13 +4181,13 @@
         <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4183,40 +4195,138 @@
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="7">
-        <v>110</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>79</v>
+      <c r="B157">
+        <v>107</v>
+      </c>
+      <c r="C157" t="s">
+        <v>148</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
+        <v>107</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>107</v>
+      </c>
+      <c r="C159" t="s">
+        <v>220</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>107</v>
+      </c>
+      <c r="C160" t="s">
+        <v>143</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>107</v>
+      </c>
+      <c r="C161" t="s">
+        <v>151</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>107</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>107</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="7">
         <v>110</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C164" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D164" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>110</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D165" t="s">
         <v>67</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E302B24-1494-454D-AB7B-8A443692ED66}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE7FB76-B678-4360-9736-5BD17415D38B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1620" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="2250" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="226">
   <si>
     <t>ID</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>Bel Team Multimedia</t>
-  </si>
-  <si>
-    <t>Let op: zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
   </si>
   <si>
     <t>Bij gebruik van een overzichtcamera: deze geeft alleen minimaal overzicht, geen close-up van de deelnemer als deze aan het woord is</t>
@@ -365,21 +362,12 @@
     <t>Via iBabs: informeer het publiek dat de webcast later wordt geplaatst</t>
   </si>
   <si>
-    <t>Na de vergadering: haal de opname (video/audio) van de MVI-computer en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
-  </si>
-  <si>
     <t>Na de vergadering: als het video- of audiobestand niet compleet is, vraag dan het volledige bestand op bij Jacot</t>
   </si>
   <si>
     <t>Na de vergadering: verstuur het video-/audiobestand naar Company Webcast. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte</t>
   </si>
   <si>
-    <t>Handmatige camerasturing of overzichtcamera</t>
-  </si>
-  <si>
-    <t>In MVI, tabblad ‘Camera’, gebruik de pijltjes om de camera zo te positioneren dat de deelnemer goed zichtbaar is</t>
-  </si>
-  <si>
     <t>Gebruik de joystick om de camera’s op de spreker te richten</t>
   </si>
   <si>
@@ -441,9 +429,6 @@
   </si>
   <si>
     <t>Op de MVI-PC, Bureaublad, map 'Excel' kies het juiste agendatypesjabloon:  Sjabloon &lt;agendatype&gt;.xls</t>
-  </si>
-  <si>
-    <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
   </si>
   <si>
     <t>Let op: achter in de zaal is alles hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
@@ -621,9 +606,6 @@
     <t xml:space="preserve">Indien genoeg tijd: vergadering stoppen en in iBabs aanpassen </t>
   </si>
   <si>
-    <t>Een niet gebruikte pas aanpassen met gegevens deelnemer</t>
-  </si>
-  <si>
     <t>Pasgegevens.png</t>
   </si>
   <si>
@@ -773,9 +755,6 @@
     <t>Vraag voor de zekerheid aan Jacot of audio-opname loopt (TASCAM). Dan voldoen we aan de minimumeis dat er minimaal een audio-opname wordt gemaakt</t>
   </si>
   <si>
-    <t>Let op: er moet door indexatie worden aangevraagd door IM</t>
-  </si>
-  <si>
     <t>Na de vergadering: verstuur het bestand naar team Informatiemanagement, vermeld daarbij: CIE-naam, datum, tijdstip en ruimte. IM zorgt ervoor dat de sprekersindexatie bij Company Webcast wordt aangevraagd</t>
   </si>
   <si>
@@ -788,9 +767,6 @@
     <t>Vraag aan Jacot of de audio-opname (TASCAM) loopt. Dan voldoen we aan de minimum eis dat er een audiobestand wordt gemaakt</t>
   </si>
   <si>
-    <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Meeting&lt;datum_tijdstip&gt;.pdf' verwerk de stemmingen handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Na de vergadering: verstuur het video-/audiobestand naar Company Webcast. Vermeld daarbij: CIE-naam, datum, tijdstip en ruimte. </t>
   </si>
   <si>
@@ -818,13 +794,49 @@
     <t>Bel Jacot en geef aan dat MVI niet werkt</t>
   </si>
   <si>
-    <t>Laat Jacot controleren of de opname loopt (TASCAM). Hiermee wordt voldaan aan de minimum eis dat er minimal een audiopname wordt gemaakt</t>
-  </si>
-  <si>
     <t>Via iBabs: informeer het publiek dat er wordt gewerkt aan het samenvoegen van de uitzending na de stroomstoring</t>
   </si>
   <si>
-    <t>Na de vergadering (alleen indien je de opname naar Company webcast moest versturen): ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand 'Meeting&lt;datum_tijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
+    <t>Let op: indexatie wordt niet automatisch toegevoegd, moet worden aangevraagd door IM</t>
+  </si>
+  <si>
+    <t>Let op: minimale eis=audio opname, zonder deze mag niet verder vergaderd worden</t>
+  </si>
+  <si>
+    <t>Indien notulen van de vergadering gemaakt dienen te worden, vraag aan Jacot of de audio-opname (TASCAM) loopt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een niet gebruikte pas aanpassen met gegevens deelnemer </t>
+  </si>
+  <si>
+    <t>Handmatige camerasturing of overzichtcamera (MMT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In MVI, tabblad ‘Camera’, gebruik de pijltjes om de camera zo te positioneren dat de deelnemer goed zichtbaar is. Gebruikt '+' voor inzooemen en '-' voor uitzoomen. </t>
+  </si>
+  <si>
+    <t>Let op dat dit geen duurzame oplossing is, zodra de deelnemer weer de microfoon uitzet, zijn de settings weer verdwenen (terug naar standaard)</t>
+  </si>
+  <si>
+    <t>Laat Jacot controleren of de audio-opname loopt (TASCAM). Hiermee wordt voldaan aan de minimum eis dat er minimal een audio-opname wordt gemaakt</t>
+  </si>
+  <si>
+    <t>Na de vergadering: haal de opname (video/audio) van de MVI-computer, map 'Opname Bestanden/&lt;jaar&gt;/&lt;mandnummer&gt;', bestand &lt;datum&gt;_&lt;begintijd&gt;.mp4' en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
+  </si>
+  <si>
+    <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand '&lt;datum&gt;_&lt;tijdstip&gt;.txt'. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Na de vergadering (alleen indien je de opname naar Company webcast moest versturen): ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand '&lt;datum&gt;_&lt;begintijdstip&gt;.txt'. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand '&lt;datum&gt;_&lt;begintijdstip&gt;.txt'. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Na de vergadering: ga op de MVI computer naar de map ‘Opname Bestanden’ en zoek naar het bestand '&lt;datum&gt;_&lt;begintijdstip&gt;.pdf'. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Stemming_&lt;datum&gt;_&lt;begintijdstip&gt;.pdf' verwerk de stemmingen handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1443,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,7 +1654,7 @@
         <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,7 +1668,7 @@
         <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,7 +1707,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,10 +1718,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,7 +1735,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,7 +1785,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,7 +1799,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,7 +1888,7 @@
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,7 +1916,7 @@
         <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2011,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2025,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2039,13 +2051,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2070,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2084,13 +2096,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2101,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2116,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2130,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2144,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2158,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2175,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2189,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2203,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2217,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2231,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2248,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2262,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2276,13 +2288,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2293,13 +2305,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2310,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2321,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2335,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2349,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2363,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2377,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2391,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2405,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2419,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2433,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2447,21 +2459,18 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
       <c r="B35">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2469,13 +2478,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2483,13 +2492,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2497,13 +2506,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2511,41 +2520,41 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2553,58 +2562,58 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2612,13 +2621,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2626,13 +2635,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2640,58 +2649,58 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2699,58 +2708,58 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>26</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>211</v>
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>26</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
+      <c r="E53" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>26</v>
       </c>
-      <c r="C54" t="s">
-        <v>213</v>
+      <c r="C54" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2758,13 +2767,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2772,13 +2781,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2786,69 +2795,69 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>34</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>22</v>
+      <c r="C59" t="s">
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>34</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>34</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>34</v>
       </c>
-      <c r="C62" t="s">
-        <v>138</v>
+      <c r="C62" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2856,13 +2865,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2870,72 +2879,72 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>41</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>106</v>
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>41</v>
       </c>
-      <c r="C67" t="s">
-        <v>37</v>
+      <c r="C67" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2943,13 +2952,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2957,13 +2966,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2971,41 +2980,41 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3013,27 +3022,27 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -3041,13 +3050,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -3055,13 +3064,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -3069,27 +3078,27 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>49</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C79" t="s">
+        <v>133</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3097,13 +3106,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3111,13 +3120,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3125,13 +3134,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>49</v>
       </c>
-      <c r="C82" t="s">
-        <v>138</v>
+      <c r="C82" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3139,13 +3148,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3153,111 +3162,111 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>56</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>203</v>
+      <c r="C87" t="s">
+        <v>45</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>60</v>
-      </c>
-      <c r="C88" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3265,13 +3274,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3279,44 +3288,44 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>64</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>51</v>
+      <c r="C95" t="s">
+        <v>108</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3324,13 +3333,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>64</v>
       </c>
-      <c r="C96" t="s">
-        <v>113</v>
+      <c r="C96" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3338,13 +3347,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3352,13 +3361,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>64</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>114</v>
+      <c r="C98" t="s">
+        <v>133</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3366,13 +3375,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3380,13 +3389,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3394,13 +3403,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3408,42 +3417,42 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>67</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>67</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>67</v>
       </c>
-      <c r="C104" t="s">
-        <v>182</v>
+      <c r="C104" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3451,13 +3460,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3465,44 +3474,44 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>67</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>117</v>
+      <c r="C106" t="s">
+        <v>133</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>67</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>67</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3510,13 +3519,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>70</v>
-      </c>
-      <c r="C109" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3524,41 +3533,41 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3566,117 +3575,117 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
-      <c r="F118" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3684,13 +3693,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>74</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>117</v>
+      <c r="C121" t="s">
+        <v>202</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3698,13 +3707,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>74</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3712,13 +3721,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>78</v>
-      </c>
-      <c r="C123" t="s">
-        <v>33</v>
+        <v>74</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3726,69 +3735,69 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>88</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
+      </c>
+      <c r="C127" t="s">
+        <v>118</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>88</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3796,13 +3805,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>91</v>
-      </c>
-      <c r="C129" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3810,41 +3819,41 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>91</v>
       </c>
       <c r="C130" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>91</v>
       </c>
       <c r="C131" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C132" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3852,72 +3861,72 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>95</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>186</v>
+      <c r="C135" t="s">
+        <v>179</v>
       </c>
       <c r="D135" t="s">
-        <v>127</v>
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>95</v>
       </c>
-      <c r="C136" t="s">
-        <v>99</v>
+      <c r="C136" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3925,13 +3934,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>95</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>219</v>
+      <c r="C138" t="s">
+        <v>121</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -3939,13 +3948,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>95</v>
       </c>
-      <c r="C139" t="s">
-        <v>90</v>
+      <c r="C139" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3953,44 +3962,44 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>95</v>
       </c>
       <c r="C140" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>95</v>
       </c>
       <c r="C141" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>95</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -3998,13 +4007,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>95</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>117</v>
+      <c r="C143" t="s">
+        <v>200</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -4012,13 +4021,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>95</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4026,61 +4035,61 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
-        <v>99</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D145" t="s">
-        <v>67</v>
-      </c>
-      <c r="E145" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E146" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>103</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>144</v>
+      <c r="C147" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E147" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>103</v>
       </c>
-      <c r="C148" t="s">
-        <v>140</v>
+      <c r="C148" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4088,13 +4097,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>103</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>145</v>
+      <c r="C149" t="s">
+        <v>135</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -4102,13 +4111,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>103</v>
       </c>
-      <c r="C150" t="s">
-        <v>139</v>
+      <c r="C150" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4116,13 +4125,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C151" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4130,13 +4139,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4144,13 +4153,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4158,72 +4167,72 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
-      </c>
-      <c r="E154" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E155" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>107</v>
       </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>107</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>152</v>
+      <c r="C158" t="s">
+        <v>143</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -4231,13 +4240,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>107</v>
       </c>
-      <c r="C159" t="s">
-        <v>220</v>
+      <c r="C159" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -4245,13 +4254,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>107</v>
       </c>
       <c r="C160" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -4259,74 +4268,88 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
-      </c>
-      <c r="F161" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>107</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>221</v>
+      <c r="C162" t="s">
+        <v>146</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>107</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>107</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>163</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B165" s="7">
         <v>110</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>110</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="C166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" t="s">
         <v>67</v>
       </c>
     </row>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE7FB76-B678-4360-9736-5BD17415D38B}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE7A448-91F7-477C-8992-40530E2E69F2}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2250" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="585" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -380,13 +380,7 @@
     <t>Pak de twee handmicrofoons uit de doos en zet ze aan (schakelaartje onderop)</t>
   </si>
   <si>
-    <t>Als beide microfoons nodig zijn, geef alvast de tweede microfoon door aan de volgende spreker</t>
-  </si>
-  <si>
     <t>Laat de deelnemers harder praten. Let op: alles wat achterin gezegd wordt, is hoorbaar in de uitzending</t>
-  </si>
-  <si>
-    <t>Controleer of het stemmingsbestand ‘MVI-computer Vote_&lt;datum&gt;_&lt;tijdstip&gt;’ klopt met de actuele stemresultaten</t>
   </si>
   <si>
     <t>Laat deelnemers in het stemvenster de hand opsteken om voor of tegen te stemmen</t>
@@ -660,12 +654,6 @@
     <t>Normaal heeft MMT microfoons op voorraad</t>
   </si>
   <si>
-    <t>MMT haalt een microfoon uit de voorraad of uit de testruimte en vervangt deze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Crestron, tab 'Audio in' bij 'Discussie', de groene balk rechts omhoog (harder) of omlaag (zachter) schuiven. De aanpassing geldt voor alle microfoonposten, het is op dit moment (nog) niet mogelijk het geluid per microfoonpost aan te passen </t>
-  </si>
-  <si>
     <t>VolumeCrestron.png</t>
   </si>
   <si>
@@ -773,15 +761,6 @@
     <t>Unmute de ambiancemicrofoons in Crestron via tab 'Audio in': 'Ambiance Mic' door de mute/unmute knop (middelste) aan te raken</t>
   </si>
   <si>
-    <t>In Crestron, tabblad ‘Audio in’, zet indien van toepassing, 'Microfoon 1' en 'Microfoon 2' aan door de mute/unmute knop (middelste) aan te raken</t>
-  </si>
-  <si>
-    <t>Indien daarbij ook de handmicrofoons gebruikt gaan worden, ga hier terug en kies vervolgens voor de optie: 'Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)' voor de instructies</t>
-  </si>
-  <si>
-    <t>Indien daarbij ook de ambiance microfoons gebruikt gaan worden, ga hier terug en kies vervolgens voor de optie: 'Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)' voor de instructies</t>
-  </si>
-  <si>
     <t>Verhuis de deelnemer naar een andere plaats in de zaal (bijvoorbeeld lege plek, katheder of plek van de wethouder). Let op: de twee plekken linksachter in de raadzaal zijn ingesteld voor sprekers die zittend praten</t>
   </si>
   <si>
@@ -837,6 +816,27 @@
   </si>
   <si>
     <t>Na de vergadering: indien er stemmingen waren geweest, dan met behulp van het bestand  'Stemming_&lt;datum&gt;_&lt;begintijdstip&gt;.pdf' verwerk de stemmingen handmatig in iBabs volgens de handleiding (deze is bekend bij raadsondersteuning)</t>
+  </si>
+  <si>
+    <t>Controleer of het stemmingsbestand ‘MVI-computer Stemming_&lt;datum&gt;_&lt;begintijdstip&gt;.pdf’ klopt met de actuele stemresultaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Crestron, tab 'Audio in' bij 'Discussie', tik het vakje met '+' aan om het geluid harder te zetten of tik het vakje me met '-' aan om het geluid juist zachter te zetten. De aanpassing geldt dan voor alle microfoonposten, het is op dit moment (nog) niet mogelijk het geluid per microfoonpost aan te passen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Crestron, tabblad ‘Audio in’, zet indien van toepassing, 'Microfoon 1' en 'Microfoon 2' aan door de mute/unmute knop (middelste) aan te tikken. </t>
+  </si>
+  <si>
+    <t>De microfoons kunnen nu gebruikt worden, geef een microfoon aan de spreker. Als er meerdere sprekers zijn, geef alvast de tweede microfoon door aan de volgende spreker</t>
+  </si>
+  <si>
+    <t>Indien daarbij ook de ambiance microfoons gebruikt gaan worden, tik dan bovenaan op de knop 'Terug' en kies vervolgens voor de optie: 'Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)' voor de instructies</t>
+  </si>
+  <si>
+    <t>Indien daarbij ook de handmicrofoons gebruikt gaan worden, tik dan bovenaan op de knop 'Terug' en kies vervolgens voor de optie: 'Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)' voor de instructies</t>
+  </si>
+  <si>
+    <t>MMT haalt een microfoon uit de voorraad of uit de testruimte en vervangt die</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1498,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -1601,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,10 +1718,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2051,13 +2051,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2096,13 +2096,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2128,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2229,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2243,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2288,13 +2288,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2305,13 +2305,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2333,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2347,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2375,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2389,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2403,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2431,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2459,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2470,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2484,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2498,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2512,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2568,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -2582,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -2596,13 +2596,13 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2613,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2627,7 +2627,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2655,7 +2655,7 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2669,13 +2669,13 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -2700,7 +2700,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2714,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2728,13 +2728,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,7 +2745,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -2759,7 +2759,7 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2773,7 +2773,7 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2787,7 +2787,7 @@
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2801,7 +2801,7 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2815,7 +2815,7 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -2843,7 +2843,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
@@ -2857,7 +2857,7 @@
         <v>34</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2871,7 +2871,7 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2927,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2958,7 +2958,7 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2972,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2986,7 +2986,7 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3000,7 +3000,7 @@
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -3014,7 +3014,7 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3028,7 +3028,7 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3042,7 +3042,7 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -3056,7 +3056,7 @@
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -3070,7 +3070,7 @@
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -3084,7 +3084,7 @@
         <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -3098,7 +3098,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3126,7 +3126,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3154,7 +3154,7 @@
         <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3224,7 +3224,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3280,7 +3280,7 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3294,7 +3294,7 @@
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3308,7 +3308,7 @@
         <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3325,7 +3325,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3353,7 +3353,7 @@
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3367,7 +3367,7 @@
         <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3381,7 +3381,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3395,7 +3395,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3409,7 +3409,7 @@
         <v>64</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3452,7 +3452,7 @@
         <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3466,7 +3466,7 @@
         <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3480,7 +3480,7 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3494,7 +3494,7 @@
         <v>67</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3511,7 +3511,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3525,7 +3525,7 @@
         <v>67</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3567,7 +3567,7 @@
         <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3626,7 +3626,7 @@
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -3654,7 +3654,7 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3668,7 +3668,7 @@
         <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3699,7 +3699,7 @@
         <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3713,7 +3713,7 @@
         <v>74</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3727,7 +3727,7 @@
         <v>74</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3755,7 +3755,7 @@
         <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -3769,7 +3769,7 @@
         <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -3783,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
@@ -3811,7 +3811,7 @@
         <v>88</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3867,7 +3867,7 @@
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3881,10 +3881,10 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D134" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -3912,10 +3912,10 @@
         <v>95</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -3954,7 +3954,7 @@
         <v>95</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3982,7 +3982,7 @@
         <v>95</v>
       </c>
       <c r="C141" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -4013,7 +4013,7 @@
         <v>95</v>
       </c>
       <c r="C143" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -4027,7 +4027,7 @@
         <v>95</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4041,7 +4041,7 @@
         <v>95</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4089,7 +4089,7 @@
         <v>103</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4103,7 +4103,7 @@
         <v>103</v>
       </c>
       <c r="C149" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -4117,7 +4117,7 @@
         <v>103</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4131,7 +4131,7 @@
         <v>103</v>
       </c>
       <c r="C151" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4145,7 +4145,7 @@
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4159,7 +4159,7 @@
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -4204,7 +4204,7 @@
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -4232,7 +4232,7 @@
         <v>107</v>
       </c>
       <c r="C158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         <v>107</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -4260,7 +4260,7 @@
         <v>107</v>
       </c>
       <c r="C160" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -4274,7 +4274,7 @@
         <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -4288,7 +4288,7 @@
         <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
@@ -4305,7 +4305,7 @@
         <v>107</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
@@ -4319,7 +4319,7 @@
         <v>107</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -4347,7 +4347,7 @@
         <v>110</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D166" t="s">
         <v>67</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE7A448-91F7-477C-8992-40530E2E69F2}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6DC2C2-DBEF-49C2-8035-254BA6F30486}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="585" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5790" yWindow="3585" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -821,9 +821,6 @@
     <t>Controleer of het stemmingsbestand ‘MVI-computer Stemming_&lt;datum&gt;_&lt;begintijdstip&gt;.pdf’ klopt met de actuele stemresultaten</t>
   </si>
   <si>
-    <t xml:space="preserve">In Crestron, tab 'Audio in' bij 'Discussie', tik het vakje met '+' aan om het geluid harder te zetten of tik het vakje me met '-' aan om het geluid juist zachter te zetten. De aanpassing geldt dan voor alle microfoonposten, het is op dit moment (nog) niet mogelijk het geluid per microfoonpost aan te passen </t>
-  </si>
-  <si>
     <t xml:space="preserve">In Crestron, tabblad ‘Audio in’, zet indien van toepassing, 'Microfoon 1' en 'Microfoon 2' aan door de mute/unmute knop (middelste) aan te tikken. </t>
   </si>
   <si>
@@ -837,6 +834,9 @@
   </si>
   <si>
     <t>MMT haalt een microfoon uit de voorraad of uit de testruimte en vervangt die</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Audio in' bij 'Discussie', tik op het vakje met het '+' om het geluid harder te zetten, of op het vakje met het '-' om het geluid zachter te zetten. Deze aanpassing geldt voor alle microfoonposten; het is op dit moment (nog) niet mogelijk om het geluid per microfoonpost afzonderlijk aan te passen</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -2596,7 +2596,7 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -2669,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -2686,7 +2686,7 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -2700,7 +2700,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2759,7 +2759,7 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6DC2C2-DBEF-49C2-8035-254BA6F30486}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B1115E-618B-470D-B7B1-F82A90EEB48F}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="3585" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13860" yWindow="-15420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Handleiding</t>
-  </si>
-  <si>
-    <t>Sprekers zijn niet goed te horen of te verstaan</t>
   </si>
   <si>
     <t>Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)</t>
@@ -837,6 +834,9 @@
   </si>
   <si>
     <t>In Crestron, tab 'Audio in' bij 'Discussie', tik op het vakje met het '+' om het geluid harder te zetten, of op het vakje met het '-' om het geluid zachter te zetten. Deze aanpassing geldt voor alle microfoonposten; het is op dit moment (nog) niet mogelijk om het geluid per microfoonpost afzonderlijk aan te passen</t>
+  </si>
+  <si>
+    <t>Sprekers zijn niet goed te horen of te verstaan/microfoonpost(en) defect</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,10 +1651,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,10 +1665,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,10 +1679,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,10 +1704,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,10 +1718,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,10 +1732,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,10 +1757,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,10 +1782,10 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,10 +1821,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
         <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,10 +1860,10 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
         <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,10 +1885,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,10 +1899,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
         <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,10 +1913,10 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,10 +1938,10 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2051,13 +2051,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2096,13 +2096,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2128,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2156,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2187,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2215,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2243,13 +2243,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2288,13 +2288,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2305,13 +2305,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2333,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2347,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2375,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2389,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2403,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2417,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2431,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2459,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2470,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2484,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2498,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2512,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2526,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2540,7 +2540,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -2554,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2568,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -2582,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -2596,13 +2596,13 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2613,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2627,7 +2627,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2641,7 +2641,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2655,7 +2655,7 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2669,13 +2669,13 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,10 +2686,10 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2714,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2728,13 +2728,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,10 +2745,10 @@
         <v>26</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2773,7 +2773,7 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2787,7 +2787,7 @@
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2801,7 +2801,7 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2815,10 +2815,10 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2829,10 +2829,10 @@
         <v>34</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,10 +2843,10 @@
         <v>34</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>34</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2871,7 +2871,7 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2885,7 +2885,7 @@
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2913,7 +2913,7 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2927,13 +2927,13 @@
         <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,7 +2944,7 @@
         <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2958,7 +2958,7 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2972,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2986,7 +2986,7 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3000,7 +3000,7 @@
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -3014,7 +3014,7 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3028,7 +3028,7 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3042,10 +3042,10 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,10 +3056,10 @@
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,10 +3084,10 @@
         <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3112,7 +3112,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3126,7 +3126,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3140,7 +3140,7 @@
         <v>49</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3154,7 +3154,7 @@
         <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3168,7 +3168,7 @@
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -3182,7 +3182,7 @@
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -3196,7 +3196,7 @@
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -3210,7 +3210,7 @@
         <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -3224,7 +3224,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3238,7 +3238,7 @@
         <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3252,7 +3252,7 @@
         <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -3266,7 +3266,7 @@
         <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3280,7 +3280,7 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3294,7 +3294,7 @@
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3308,13 +3308,13 @@
         <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3339,7 +3339,7 @@
         <v>64</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3353,7 +3353,7 @@
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3367,7 +3367,7 @@
         <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3381,7 +3381,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3395,7 +3395,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3409,7 +3409,7 @@
         <v>64</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3423,7 +3423,7 @@
         <v>67</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3452,7 +3452,7 @@
         <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3466,7 +3466,7 @@
         <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3480,7 +3480,7 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3494,13 +3494,13 @@
         <v>67</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3525,7 +3525,7 @@
         <v>67</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3539,7 +3539,7 @@
         <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3553,7 +3553,7 @@
         <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -3567,7 +3567,7 @@
         <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3595,7 +3595,7 @@
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -3612,7 +3612,7 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -3626,7 +3626,7 @@
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -3640,7 +3640,7 @@
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3654,7 +3654,7 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3668,13 +3668,13 @@
         <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
         <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3699,7 +3699,7 @@
         <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3713,7 +3713,7 @@
         <v>74</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3727,7 +3727,7 @@
         <v>74</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3755,7 +3755,7 @@
         <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -3769,10 +3769,10 @@
         <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3783,10 +3783,10 @@
         <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>88</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3811,7 +3811,7 @@
         <v>88</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3825,7 +3825,7 @@
         <v>91</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -3839,7 +3839,7 @@
         <v>91</v>
       </c>
       <c r="C131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -3853,7 +3853,7 @@
         <v>91</v>
       </c>
       <c r="C132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3867,7 +3867,7 @@
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3881,10 +3881,10 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" t="s">
         <v>173</v>
-      </c>
-      <c r="D134" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,13 +3895,13 @@
         <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,10 +3912,10 @@
         <v>95</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3940,7 +3940,7 @@
         <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -3954,7 +3954,7 @@
         <v>95</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3968,7 +3968,7 @@
         <v>95</v>
       </c>
       <c r="C140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -3982,13 +3982,13 @@
         <v>95</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>95</v>
       </c>
       <c r="C142" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -4013,7 +4013,7 @@
         <v>95</v>
       </c>
       <c r="C143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -4027,7 +4027,7 @@
         <v>95</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4041,7 +4041,7 @@
         <v>95</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4055,13 +4055,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" t="s">
         <v>66</v>
       </c>
-      <c r="D146" t="s">
-        <v>67</v>
-      </c>
       <c r="E146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,13 +4072,13 @@
         <v>103</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" t="s">
         <v>69</v>
-      </c>
-      <c r="D147" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4089,7 +4089,7 @@
         <v>103</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4103,7 +4103,7 @@
         <v>103</v>
       </c>
       <c r="C149" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -4117,7 +4117,7 @@
         <v>103</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4131,7 +4131,7 @@
         <v>103</v>
       </c>
       <c r="C151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4145,7 +4145,7 @@
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4159,7 +4159,7 @@
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -4187,7 +4187,7 @@
         <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -4204,7 +4204,7 @@
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -4218,7 +4218,7 @@
         <v>107</v>
       </c>
       <c r="C157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
@@ -4232,7 +4232,7 @@
         <v>107</v>
       </c>
       <c r="C158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         <v>107</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -4260,7 +4260,7 @@
         <v>107</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -4274,7 +4274,7 @@
         <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -4288,13 +4288,13 @@
         <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
         <v>107</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
@@ -4319,7 +4319,7 @@
         <v>107</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -4333,10 +4333,10 @@
         <v>110</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D165" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4347,10 +4347,10 @@
         <v>110</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D166" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B1115E-618B-470D-B7B1-F82A90EEB48F}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ABB5CD1-A226-45B1-A580-186739FBB68A}"/>
   <bookViews>
-    <workbookView xWindow="-13860" yWindow="-15420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14670" yWindow="-15135" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="227">
   <si>
     <t>ID</t>
   </si>
@@ -837,6 +837,9 @@
   </si>
   <si>
     <t>Sprekers zijn niet goed te horen of te verstaan/microfoonpost(en) defect</t>
+  </si>
+  <si>
+    <t>Secretaris/bodes</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1455,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1954,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,7 +3946,7 @@
         <v>118</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ABB5CD1-A226-45B1-A580-186739FBB68A}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7BF820-2EEB-4FDF-A2EA-063050F1C8A0}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="-15135" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15705" yWindow="2775" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -109,18 +109,12 @@
     <t>Stroomstoring</t>
   </si>
   <si>
-    <t>Livestream wordt tijdens de vergadering plotseling onderbroken</t>
-  </si>
-  <si>
     <t>Beeldscherm van voorzitter of griffier werkt niet</t>
   </si>
   <si>
     <t>Spreektijd via MultiTimer</t>
   </si>
   <si>
-    <t>Vergadering is gestart maar er is geen livestream op het RIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bel een van de medewerkers van MMT en meld het probleem </t>
   </si>
   <si>
@@ -158,15 +152,6 @@
   </si>
   <si>
     <t>In Crestron, tab 'Opname' druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
-  </si>
-  <si>
-    <t>Er wordt geen opname gemaakt (in MVI, tab 'Start' is recorder niet zichtbaar)</t>
-  </si>
-  <si>
-    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Sync met iBabs' geeft een foutmelding</t>
-  </si>
-  <si>
-    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Resync' werkt niet</t>
   </si>
   <si>
     <t>Excel-sjabloon voor de vergadering verwerken en uploaden in MVI</t>
@@ -416,9 +401,6 @@
     <t>Na de vergadering:  bel Jacot en vraag of zij de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
   </si>
   <si>
-    <t>Stemmingen worden niet automatisch getoond op het RIS</t>
-  </si>
-  <si>
     <t>Op de MVI-PC, Bureaublad, map 'Excel' kies het juiste agendatypesjabloon:  Sjabloon &lt;agendatype&gt;.xls</t>
   </si>
   <si>
@@ -600,9 +582,6 @@
     <t>Pasgegevens.png</t>
   </si>
   <si>
-    <t>Vergadering is gestart maar er ontbreken deelnemers (niet in lijst 'Uitgenodigd' in iBabs)</t>
-  </si>
-  <si>
     <t>Bel Company Webcast en vraag ze een nieuwe stream aan te maken en deze te koppelen aan de vergadering</t>
   </si>
   <si>
@@ -628,9 +607,6 @@
   </si>
   <si>
     <t>Let op: Bij stemmingen moet jacot controleren of deelnemer met de nieuwe pas kan stemmen en eventueel rechten toevoegen</t>
-  </si>
-  <si>
-    <t>Deelnemers worden niet optimaal in beeld gebracht (niet in beeld of te hoog/laag)</t>
   </si>
   <si>
     <t>Start de streaming handmatig via Online Manager van Company Webcast</t>
@@ -836,10 +812,34 @@
     <t>In Crestron, tab 'Audio in' bij 'Discussie', tik op het vakje met het '+' om het geluid harder te zetten, of op het vakje met het '-' om het geluid zachter te zetten. Deze aanpassing geldt voor alle microfoonposten; het is op dit moment (nog) niet mogelijk om het geluid per microfoonpost afzonderlijk aan te passen</t>
   </si>
   <si>
-    <t>Sprekers zijn niet goed te horen of te verstaan/microfoonpost(en) defect</t>
-  </si>
-  <si>
     <t>Secretaris/bodes</t>
+  </si>
+  <si>
+    <t>Geen livestream zichtbaar op het RIS</t>
+  </si>
+  <si>
+    <t>Deelnemerslijst incompleet</t>
+  </si>
+  <si>
+    <t>Deelnemers slecht in beeld</t>
+  </si>
+  <si>
+    <t>Sprekers slecht verstaanbaar/microfoonpost(en) defect</t>
+  </si>
+  <si>
+    <t>Stemmingsresultaten niet doorgestuurd naar RIS</t>
+  </si>
+  <si>
+    <t>Recorder MVI niet zichtbaar / geen opname</t>
+  </si>
+  <si>
+    <t>Foutmelding bij 'Sync met iBabs</t>
+  </si>
+  <si>
+    <t>Resync met iBabs werkt niet</t>
+  </si>
+  <si>
+    <t>Livestream valt weg tijdens vergadering</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,39 +1320,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
+      <c r="B9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
+      <c r="B10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
+      <c r="B11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
+      <c r="B12" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,10 +1654,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,10 +1668,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,10 +1707,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,10 +1824,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,10 +1849,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,10 +1863,10 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,10 +1902,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,10 +1941,10 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2054,13 +2054,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2099,13 +2099,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2131,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2145,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2159,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2173,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2190,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2232,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2246,13 +2246,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2291,13 +2291,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2308,13 +2308,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2325,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2336,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2350,7 +2350,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2364,7 +2364,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2378,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2406,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2462,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2473,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2487,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2501,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2515,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2529,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2543,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -2557,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2571,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -2599,13 +2599,13 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2630,7 +2630,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2644,7 +2644,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2658,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2672,13 +2672,13 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2703,7 +2703,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2717,7 +2717,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2731,13 +2731,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -2762,7 +2762,7 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2776,7 +2776,7 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2790,7 +2790,7 @@
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2804,7 +2804,7 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2818,7 +2818,7 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -2846,7 +2846,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -2860,7 +2860,7 @@
         <v>34</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2874,7 +2874,7 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2888,7 +2888,7 @@
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2902,7 +2902,7 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2916,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2930,13 +2930,13 @@
         <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2961,7 +2961,7 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2975,7 +2975,7 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2989,7 +2989,7 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -3017,7 +3017,7 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3031,7 +3031,7 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3045,7 +3045,7 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -3059,7 +3059,7 @@
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
@@ -3073,7 +3073,7 @@
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3087,7 +3087,7 @@
         <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -3101,7 +3101,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3115,7 +3115,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3129,7 +3129,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3143,7 +3143,7 @@
         <v>49</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3157,7 +3157,7 @@
         <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3171,7 +3171,7 @@
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -3185,7 +3185,7 @@
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -3199,7 +3199,7 @@
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -3227,7 +3227,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3241,7 +3241,7 @@
         <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3255,7 +3255,7 @@
         <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -3269,7 +3269,7 @@
         <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3283,7 +3283,7 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3297,7 +3297,7 @@
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3311,13 +3311,13 @@
         <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,7 +3328,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3342,7 +3342,7 @@
         <v>64</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3356,7 +3356,7 @@
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3370,7 +3370,7 @@
         <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3384,7 +3384,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3398,7 +3398,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3412,7 +3412,7 @@
         <v>64</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         <v>67</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3440,7 +3440,7 @@
         <v>67</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3455,7 +3455,7 @@
         <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3469,7 +3469,7 @@
         <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3483,7 +3483,7 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3497,13 +3497,13 @@
         <v>67</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3528,7 +3528,7 @@
         <v>67</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3542,7 +3542,7 @@
         <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3556,7 +3556,7 @@
         <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -3570,7 +3570,7 @@
         <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3598,7 +3598,7 @@
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -3615,7 +3615,7 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -3629,7 +3629,7 @@
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -3643,7 +3643,7 @@
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3657,7 +3657,7 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3671,13 +3671,13 @@
         <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,7 +3688,7 @@
         <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3702,7 +3702,7 @@
         <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3716,7 +3716,7 @@
         <v>74</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3730,7 +3730,7 @@
         <v>74</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3744,7 +3744,7 @@
         <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -3758,7 +3758,7 @@
         <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -3772,7 +3772,7 @@
         <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -3786,7 +3786,7 @@
         <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -3800,7 +3800,7 @@
         <v>88</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3814,7 +3814,7 @@
         <v>88</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3828,7 +3828,7 @@
         <v>91</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -3842,7 +3842,7 @@
         <v>91</v>
       </c>
       <c r="C131" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -3856,7 +3856,7 @@
         <v>91</v>
       </c>
       <c r="C132" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3870,7 +3870,7 @@
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3884,10 +3884,10 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D134" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3898,13 +3898,13 @@
         <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,10 +3915,10 @@
         <v>95</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D136" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3929,7 +3929,7 @@
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3943,10 +3943,10 @@
         <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D138" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>95</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3971,7 +3971,7 @@
         <v>95</v>
       </c>
       <c r="C140" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -3985,13 +3985,13 @@
         <v>95</v>
       </c>
       <c r="C141" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
         <v>95</v>
       </c>
       <c r="C142" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -4016,7 +4016,7 @@
         <v>95</v>
       </c>
       <c r="C143" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -4030,7 +4030,7 @@
         <v>95</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4044,7 +4044,7 @@
         <v>95</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4058,13 +4058,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" t="s">
         <v>65</v>
-      </c>
-      <c r="D146" t="s">
-        <v>66</v>
-      </c>
-      <c r="E146" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4075,13 +4075,13 @@
         <v>103</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
       </c>
       <c r="E147" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>103</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4106,7 +4106,7 @@
         <v>103</v>
       </c>
       <c r="C149" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -4120,7 +4120,7 @@
         <v>103</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4134,7 +4134,7 @@
         <v>103</v>
       </c>
       <c r="C151" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4148,7 +4148,7 @@
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4162,7 +4162,7 @@
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4176,7 +4176,7 @@
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -4190,7 +4190,7 @@
         <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -4207,7 +4207,7 @@
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         <v>107</v>
       </c>
       <c r="C157" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
@@ -4235,7 +4235,7 @@
         <v>107</v>
       </c>
       <c r="C158" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -4249,7 +4249,7 @@
         <v>107</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -4263,7 +4263,7 @@
         <v>107</v>
       </c>
       <c r="C160" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -4277,7 +4277,7 @@
         <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -4291,13 +4291,13 @@
         <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>107</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
@@ -4322,7 +4322,7 @@
         <v>107</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -4336,10 +4336,10 @@
         <v>110</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D165" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,10 +4350,10 @@
         <v>110</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7BF820-2EEB-4FDF-A2EA-063050F1C8A0}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D730F15D-D7C0-4784-9E89-1A7B03D8210C}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="2775" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="4290" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">Bel een van de medewerkers van MMT en meld het probleem </t>
   </si>
   <si>
-    <t>Vergadering kan niet live worden gevolgd op het RIS. Er mag vergaderd worden, video wordt later beschikbaar gesteld</t>
-  </si>
-  <si>
     <t>Bestanden beheren van vergaderingen.pdf</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>Bel een van de medewerkers van MMT en meld het probleem, geeft door dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
-  </si>
-  <si>
-    <t>ALLEEN IN OVERLEG MET JACOT: Schakkel het noodscenario in</t>
   </si>
   <si>
     <t>Home knop Crestron.png</t>
@@ -740,9 +734,6 @@
     <t>Indien meerdere microfoonposten defect zijn, is er iemand (jezelf/bode) nodig om de microfoons langs te brengen</t>
   </si>
   <si>
-    <t>Audiopname(TASCAM) wordt automatisch gestart. Als MVI niet werkt kan er niet worden geklikt op de agendapunten. Spreekttijd en stemmingen werken ook niet</t>
-  </si>
-  <si>
     <t>Bel Jacot en geef aan dat MVI niet werkt</t>
   </si>
   <si>
@@ -840,6 +831,15 @@
   </si>
   <si>
     <t>Livestream valt weg tijdens vergadering</t>
+  </si>
+  <si>
+    <t>ALLEEN IN OVERLEG MET JACOT: Schakel het noodscenario in</t>
+  </si>
+  <si>
+    <t>Hierbij wordt audiopname(TASCAM) automatisch gestart. Er kan niet worden geklikt op agendapunten. Spreekttijd en stemmingen werken ook niet</t>
+  </si>
+  <si>
+    <t>Er mag vergaderd worden, mits er minimaal een audio-opname gemaakt wordt. Video/audio-opname wordt later beschikbaar gesteld op het RIS</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,10 +1654,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,10 +1668,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,10 +1824,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,10 +1849,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
         <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,10 +1863,10 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
         <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,10 +1902,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,10 +1941,10 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2054,13 +2054,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2099,13 +2099,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2131,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2145,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -2159,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2173,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2190,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2232,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2246,13 +2246,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2291,13 +2291,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2308,13 +2308,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2325,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2336,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2350,7 +2350,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2364,7 +2364,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2378,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2406,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2462,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2473,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2487,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2501,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2515,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2543,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -2557,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2571,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -2599,13 +2599,13 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2630,7 +2630,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2644,7 +2644,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2658,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2672,13 +2672,13 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2703,7 +2703,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2717,7 +2717,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2731,13 +2731,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -2762,7 +2762,7 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2776,7 +2776,7 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2790,7 +2790,7 @@
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2804,7 +2804,7 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2818,7 +2818,7 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -2846,7 +2846,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -2860,7 +2860,7 @@
         <v>34</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2874,7 +2874,7 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2902,7 +2902,7 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2916,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2930,13 +2930,13 @@
         <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2961,7 +2961,7 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2975,7 +2975,7 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2989,7 +2989,7 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -3017,7 +3017,7 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3031,7 +3031,7 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3045,7 +3045,7 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -3059,7 +3059,7 @@
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
@@ -3073,7 +3073,7 @@
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3087,7 +3087,7 @@
         <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -3101,7 +3101,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3115,7 +3115,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3129,7 +3129,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3143,7 +3143,7 @@
         <v>49</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3157,7 +3157,7 @@
         <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3185,7 +3185,7 @@
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -3199,7 +3199,7 @@
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -3227,7 +3227,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3255,7 +3255,7 @@
         <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -3269,7 +3269,7 @@
         <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3283,7 +3283,7 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3297,7 +3297,7 @@
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3311,13 +3311,13 @@
         <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,7 +3328,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3342,7 +3342,7 @@
         <v>64</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3356,7 +3356,7 @@
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3370,7 +3370,7 @@
         <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3384,7 +3384,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3398,7 +3398,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3412,7 +3412,7 @@
         <v>64</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         <v>67</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3440,7 +3440,7 @@
         <v>67</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3455,7 +3455,7 @@
         <v>67</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3469,7 +3469,7 @@
         <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3483,7 +3483,7 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3497,13 +3497,13 @@
         <v>67</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3528,7 +3528,7 @@
         <v>67</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3542,7 +3542,7 @@
         <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3556,7 +3556,7 @@
         <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -3570,7 +3570,7 @@
         <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3598,7 +3598,7 @@
         <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -3615,7 +3615,7 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -3629,7 +3629,7 @@
         <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -3643,7 +3643,7 @@
         <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3657,7 +3657,7 @@
         <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3671,13 +3671,13 @@
         <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,7 +3688,7 @@
         <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3702,7 +3702,7 @@
         <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3716,7 +3716,7 @@
         <v>74</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3730,7 +3730,7 @@
         <v>74</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3758,7 +3758,7 @@
         <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -3772,7 +3772,7 @@
         <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -3786,7 +3786,7 @@
         <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -3800,7 +3800,7 @@
         <v>88</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3814,7 +3814,7 @@
         <v>88</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3842,7 +3842,7 @@
         <v>91</v>
       </c>
       <c r="C131" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -3856,7 +3856,7 @@
         <v>91</v>
       </c>
       <c r="C132" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3870,7 +3870,7 @@
         <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3884,10 +3884,10 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3898,13 +3898,13 @@
         <v>95</v>
       </c>
       <c r="C135" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,10 +3915,10 @@
         <v>95</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D136" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3929,7 +3929,7 @@
         <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3943,10 +3943,10 @@
         <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D138" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>95</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3971,7 +3971,7 @@
         <v>95</v>
       </c>
       <c r="C140" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -3985,13 +3985,13 @@
         <v>95</v>
       </c>
       <c r="C141" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
         <v>95</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -4016,7 +4016,7 @@
         <v>95</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -4030,7 +4030,7 @@
         <v>95</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4044,7 +4044,7 @@
         <v>95</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4058,13 +4058,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D146" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E146" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4075,13 +4075,13 @@
         <v>103</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
       </c>
       <c r="E147" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>103</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4106,7 +4106,7 @@
         <v>103</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -4120,7 +4120,7 @@
         <v>103</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4134,7 +4134,7 @@
         <v>103</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4148,7 +4148,7 @@
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -4162,7 +4162,7 @@
         <v>107</v>
       </c>
       <c r="C153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -4176,7 +4176,7 @@
         <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -4190,7 +4190,7 @@
         <v>107</v>
       </c>
       <c r="C155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -4207,7 +4207,7 @@
         <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         <v>107</v>
       </c>
       <c r="C157" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
@@ -4235,7 +4235,7 @@
         <v>107</v>
       </c>
       <c r="C158" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -4249,7 +4249,7 @@
         <v>107</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -4263,7 +4263,7 @@
         <v>107</v>
       </c>
       <c r="C160" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -4277,7 +4277,7 @@
         <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -4291,13 +4291,13 @@
         <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>107</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
@@ -4322,7 +4322,7 @@
         <v>107</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -4336,10 +4336,10 @@
         <v>110</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D165" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,10 +4350,10 @@
         <v>110</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D166" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D730F15D-D7C0-4784-9E89-1A7B03D8210C}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2225BC1F-790E-4622-B3D8-467FA9E87D7A}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="4290" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -815,21 +815,12 @@
     <t>Deelnemers slecht in beeld</t>
   </si>
   <si>
-    <t>Sprekers slecht verstaanbaar/microfoonpost(en) defect</t>
-  </si>
-  <si>
     <t>Stemmingsresultaten niet doorgestuurd naar RIS</t>
   </si>
   <si>
     <t>Recorder MVI niet zichtbaar / geen opname</t>
   </si>
   <si>
-    <t>Foutmelding bij 'Sync met iBabs</t>
-  </si>
-  <si>
-    <t>Resync met iBabs werkt niet</t>
-  </si>
-  <si>
     <t>Livestream valt weg tijdens vergadering</t>
   </si>
   <si>
@@ -840,6 +831,15 @@
   </si>
   <si>
     <t>Er mag vergaderd worden, mits er minimaal een audio-opname gemaakt wordt. Video/audio-opname wordt later beschikbaar gesteld op het RIS</t>
+  </si>
+  <si>
+    <t>Sprekers slecht verstaanbaar / microfoonpost(en) defect</t>
+  </si>
+  <si>
+    <t>Foutmelding bij 'Sync met iBabs'</t>
+  </si>
+  <si>
+    <t>Resync' met iBabs werkt niet</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,15 +1336,15 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>222</v>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1827,7 +1827,7 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">

--- a/public/Gegevens_avIncidentenApp.xlsx
+++ b/public/Gegevens_avIncidentenApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2225BC1F-790E-4622-B3D8-467FA9E87D7A}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{8FE2BEEC-3849-405B-A35A-628614386B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6747ABAC-365F-46A9-97CD-1C4735426EA3}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
     <t>Foutmelding bij 'Sync met iBabs'</t>
   </si>
   <si>
-    <t>Resync' met iBabs werkt niet</t>
+    <t>'Resync' met iBabs werkt niet</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
